--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Serie</t>
   </si>
@@ -642,6 +642,72 @@
   <si>
     <t>05-08-2021</t>
   </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -998,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH150"/>
+  <dimension ref="A1:BH172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28304,6 +28370,4010 @@
         <v>202.17</v>
       </c>
     </row>
+    <row r="151" spans="1:60">
+      <c r="A151" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151">
+        <v>23.36</v>
+      </c>
+      <c r="C151">
+        <v>776.6900000000001</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>113.22</v>
+      </c>
+      <c r="F151">
+        <v>1.25</v>
+      </c>
+      <c r="G151">
+        <v>36.22</v>
+      </c>
+      <c r="H151">
+        <v>123.63</v>
+      </c>
+      <c r="I151">
+        <v>6.22</v>
+      </c>
+      <c r="J151">
+        <v>88.19</v>
+      </c>
+      <c r="K151">
+        <v>90.19</v>
+      </c>
+      <c r="L151">
+        <v>1107.97</v>
+      </c>
+      <c r="M151">
+        <v>211.52</v>
+      </c>
+      <c r="N151">
+        <v>86.97</v>
+      </c>
+      <c r="O151">
+        <v>575.0700000000001</v>
+      </c>
+      <c r="P151">
+        <v>621.55</v>
+      </c>
+      <c r="Q151">
+        <v>776.6900000000001</v>
+      </c>
+      <c r="R151">
+        <v>776.6900000000001</v>
+      </c>
+      <c r="S151">
+        <v>372.35</v>
+      </c>
+      <c r="T151">
+        <v>947.1799999999999</v>
+      </c>
+      <c r="U151">
+        <v>776.6900000000001</v>
+      </c>
+      <c r="V151">
+        <v>574.99</v>
+      </c>
+      <c r="W151">
+        <v>99.87</v>
+      </c>
+      <c r="X151">
+        <v>548.2</v>
+      </c>
+      <c r="Y151">
+        <v>27.98</v>
+      </c>
+      <c r="Z151">
+        <v>0.03</v>
+      </c>
+      <c r="AA151">
+        <v>919.38</v>
+      </c>
+      <c r="AB151">
+        <v>2.6</v>
+      </c>
+      <c r="AC151">
+        <v>7.74</v>
+      </c>
+      <c r="AD151">
+        <v>856.99</v>
+      </c>
+      <c r="AE151">
+        <v>0.11</v>
+      </c>
+      <c r="AF151">
+        <v>29.03</v>
+      </c>
+      <c r="AG151">
+        <v>187.21</v>
+      </c>
+      <c r="AH151">
+        <v>49.5</v>
+      </c>
+      <c r="AI151">
+        <v>1082.04</v>
+      </c>
+      <c r="AJ151">
+        <v>91.05</v>
+      </c>
+      <c r="AK151">
+        <v>190.77</v>
+      </c>
+      <c r="AL151">
+        <v>8.02</v>
+      </c>
+      <c r="AM151">
+        <v>0.2</v>
+      </c>
+      <c r="AN151">
+        <v>32.36</v>
+      </c>
+      <c r="AO151">
+        <v>13.64</v>
+      </c>
+      <c r="AP151">
+        <v>15.47</v>
+      </c>
+      <c r="AQ151">
+        <v>38.97</v>
+      </c>
+      <c r="AR151">
+        <v>17.85</v>
+      </c>
+      <c r="AS151">
+        <v>100.75</v>
+      </c>
+      <c r="AT151">
+        <v>54.02</v>
+      </c>
+      <c r="AU151">
+        <v>148.74</v>
+      </c>
+      <c r="AV151">
+        <v>0.02</v>
+      </c>
+      <c r="AW151">
+        <v>207.12</v>
+      </c>
+      <c r="AX151">
+        <v>184.31</v>
+      </c>
+      <c r="AY151">
+        <v>10.63</v>
+      </c>
+      <c r="AZ151">
+        <v>10.47</v>
+      </c>
+      <c r="BA151">
+        <v>0.05</v>
+      </c>
+      <c r="BB151">
+        <v>4.76</v>
+      </c>
+      <c r="BC151">
+        <v>241.72</v>
+      </c>
+      <c r="BD151">
+        <v>1.83</v>
+      </c>
+      <c r="BE151">
+        <v>0.68</v>
+      </c>
+      <c r="BF151">
+        <v>7.08</v>
+      </c>
+      <c r="BG151">
+        <v>120.21</v>
+      </c>
+      <c r="BH151">
+        <v>202.29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:60">
+      <c r="A152" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152">
+        <v>23.47</v>
+      </c>
+      <c r="C152">
+        <v>784.5</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>114.36</v>
+      </c>
+      <c r="F152">
+        <v>1.26</v>
+      </c>
+      <c r="G152">
+        <v>36.31</v>
+      </c>
+      <c r="H152">
+        <v>124.06</v>
+      </c>
+      <c r="I152">
+        <v>6.25</v>
+      </c>
+      <c r="J152">
+        <v>88.3</v>
+      </c>
+      <c r="K152">
+        <v>90.53</v>
+      </c>
+      <c r="L152">
+        <v>1117.36</v>
+      </c>
+      <c r="M152">
+        <v>213.64</v>
+      </c>
+      <c r="N152">
+        <v>87.8</v>
+      </c>
+      <c r="O152">
+        <v>576.84</v>
+      </c>
+      <c r="P152">
+        <v>624.8</v>
+      </c>
+      <c r="Q152">
+        <v>784.5</v>
+      </c>
+      <c r="R152">
+        <v>784.5</v>
+      </c>
+      <c r="S152">
+        <v>376.57</v>
+      </c>
+      <c r="T152">
+        <v>956.71</v>
+      </c>
+      <c r="U152">
+        <v>784.5</v>
+      </c>
+      <c r="V152">
+        <v>579.05</v>
+      </c>
+      <c r="W152">
+        <v>100.83</v>
+      </c>
+      <c r="X152">
+        <v>549.95</v>
+      </c>
+      <c r="Y152">
+        <v>28.24</v>
+      </c>
+      <c r="Z152">
+        <v>0.03</v>
+      </c>
+      <c r="AA152">
+        <v>922.62</v>
+      </c>
+      <c r="AB152">
+        <v>2.61</v>
+      </c>
+      <c r="AC152">
+        <v>7.8</v>
+      </c>
+      <c r="AD152">
+        <v>857.75</v>
+      </c>
+      <c r="AE152">
+        <v>0.11</v>
+      </c>
+      <c r="AF152">
+        <v>29.44</v>
+      </c>
+      <c r="AG152">
+        <v>187.87</v>
+      </c>
+      <c r="AH152">
+        <v>50.07</v>
+      </c>
+      <c r="AI152">
+        <v>1088.37</v>
+      </c>
+      <c r="AJ152">
+        <v>91.01000000000001</v>
+      </c>
+      <c r="AK152">
+        <v>191.74</v>
+      </c>
+      <c r="AL152">
+        <v>8.1</v>
+      </c>
+      <c r="AM152">
+        <v>0.2</v>
+      </c>
+      <c r="AN152">
+        <v>32.69</v>
+      </c>
+      <c r="AO152">
+        <v>13.77</v>
+      </c>
+      <c r="AP152">
+        <v>15.57</v>
+      </c>
+      <c r="AQ152">
+        <v>39.12</v>
+      </c>
+      <c r="AR152">
+        <v>18.02</v>
+      </c>
+      <c r="AS152">
+        <v>101.3</v>
+      </c>
+      <c r="AT152">
+        <v>53.52</v>
+      </c>
+      <c r="AU152">
+        <v>149.6</v>
+      </c>
+      <c r="AV152">
+        <v>0.02</v>
+      </c>
+      <c r="AW152">
+        <v>209.2</v>
+      </c>
+      <c r="AX152">
+        <v>185.99</v>
+      </c>
+      <c r="AY152">
+        <v>10.68</v>
+      </c>
+      <c r="AZ152">
+        <v>10.58</v>
+      </c>
+      <c r="BA152">
+        <v>0.05</v>
+      </c>
+      <c r="BB152">
+        <v>4.8</v>
+      </c>
+      <c r="BC152">
+        <v>243.33</v>
+      </c>
+      <c r="BD152">
+        <v>1.85</v>
+      </c>
+      <c r="BE152">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF152">
+        <v>7.12</v>
+      </c>
+      <c r="BG152">
+        <v>121.1</v>
+      </c>
+      <c r="BH152">
+        <v>201.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:60">
+      <c r="A153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153">
+        <v>23.53</v>
+      </c>
+      <c r="C153">
+        <v>787.4</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>114.78</v>
+      </c>
+      <c r="F153">
+        <v>1.27</v>
+      </c>
+      <c r="G153">
+        <v>36.47</v>
+      </c>
+      <c r="H153">
+        <v>124.38</v>
+      </c>
+      <c r="I153">
+        <v>6.26</v>
+      </c>
+      <c r="J153">
+        <v>88.19</v>
+      </c>
+      <c r="K153">
+        <v>90.54000000000001</v>
+      </c>
+      <c r="L153">
+        <v>1119.26</v>
+      </c>
+      <c r="M153">
+        <v>214.43</v>
+      </c>
+      <c r="N153">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="O153">
+        <v>577.95</v>
+      </c>
+      <c r="P153">
+        <v>626.26</v>
+      </c>
+      <c r="Q153">
+        <v>787.4</v>
+      </c>
+      <c r="R153">
+        <v>787.4</v>
+      </c>
+      <c r="S153">
+        <v>376.46</v>
+      </c>
+      <c r="T153">
+        <v>960.24</v>
+      </c>
+      <c r="U153">
+        <v>787.4</v>
+      </c>
+      <c r="V153">
+        <v>580.38</v>
+      </c>
+      <c r="W153">
+        <v>101.19</v>
+      </c>
+      <c r="X153">
+        <v>551.25</v>
+      </c>
+      <c r="Y153">
+        <v>28.31</v>
+      </c>
+      <c r="Z153">
+        <v>0.03</v>
+      </c>
+      <c r="AA153">
+        <v>924.9400000000001</v>
+      </c>
+      <c r="AB153">
+        <v>2.62</v>
+      </c>
+      <c r="AC153">
+        <v>7.79</v>
+      </c>
+      <c r="AD153">
+        <v>856.24</v>
+      </c>
+      <c r="AE153">
+        <v>0.11</v>
+      </c>
+      <c r="AF153">
+        <v>29.64</v>
+      </c>
+      <c r="AG153">
+        <v>188.36</v>
+      </c>
+      <c r="AH153">
+        <v>50.29</v>
+      </c>
+      <c r="AI153">
+        <v>1091.04</v>
+      </c>
+      <c r="AJ153">
+        <v>91.05</v>
+      </c>
+      <c r="AK153">
+        <v>191.63</v>
+      </c>
+      <c r="AL153">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AM153">
+        <v>0.2</v>
+      </c>
+      <c r="AN153">
+        <v>32.81</v>
+      </c>
+      <c r="AO153">
+        <v>13.82</v>
+      </c>
+      <c r="AP153">
+        <v>15.63</v>
+      </c>
+      <c r="AQ153">
+        <v>39.27</v>
+      </c>
+      <c r="AR153">
+        <v>18.08</v>
+      </c>
+      <c r="AS153">
+        <v>102.14</v>
+      </c>
+      <c r="AT153">
+        <v>53.45</v>
+      </c>
+      <c r="AU153">
+        <v>150.7</v>
+      </c>
+      <c r="AV153">
+        <v>0.02</v>
+      </c>
+      <c r="AW153">
+        <v>209.97</v>
+      </c>
+      <c r="AX153">
+        <v>186.28</v>
+      </c>
+      <c r="AY153">
+        <v>10.7</v>
+      </c>
+      <c r="AZ153">
+        <v>10.6</v>
+      </c>
+      <c r="BA153">
+        <v>0.05</v>
+      </c>
+      <c r="BB153">
+        <v>4.81</v>
+      </c>
+      <c r="BC153">
+        <v>244.66</v>
+      </c>
+      <c r="BD153">
+        <v>1.85</v>
+      </c>
+      <c r="BE153">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF153">
+        <v>7.14</v>
+      </c>
+      <c r="BG153">
+        <v>121.44</v>
+      </c>
+      <c r="BH153">
+        <v>202.71</v>
+      </c>
+    </row>
+    <row r="154" spans="1:60">
+      <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154">
+        <v>23.31</v>
+      </c>
+      <c r="C154">
+        <v>780.08</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>113.71</v>
+      </c>
+      <c r="F154">
+        <v>1.26</v>
+      </c>
+      <c r="G154">
+        <v>36.02</v>
+      </c>
+      <c r="H154">
+        <v>122.97</v>
+      </c>
+      <c r="I154">
+        <v>6.18</v>
+      </c>
+      <c r="J154">
+        <v>87.48</v>
+      </c>
+      <c r="K154">
+        <v>89.55</v>
+      </c>
+      <c r="L154">
+        <v>1107.6</v>
+      </c>
+      <c r="M154">
+        <v>212.44</v>
+      </c>
+      <c r="N154">
+        <v>87.12</v>
+      </c>
+      <c r="O154">
+        <v>573.29</v>
+      </c>
+      <c r="P154">
+        <v>622.77</v>
+      </c>
+      <c r="Q154">
+        <v>780.08</v>
+      </c>
+      <c r="R154">
+        <v>780.08</v>
+      </c>
+      <c r="S154">
+        <v>372.34</v>
+      </c>
+      <c r="T154">
+        <v>951.3200000000001</v>
+      </c>
+      <c r="U154">
+        <v>780.08</v>
+      </c>
+      <c r="V154">
+        <v>574.05</v>
+      </c>
+      <c r="W154">
+        <v>100.25</v>
+      </c>
+      <c r="X154">
+        <v>546.62</v>
+      </c>
+      <c r="Y154">
+        <v>28.03</v>
+      </c>
+      <c r="Z154">
+        <v>0.03</v>
+      </c>
+      <c r="AA154">
+        <v>914.51</v>
+      </c>
+      <c r="AB154">
+        <v>2.59</v>
+      </c>
+      <c r="AC154">
+        <v>7.73</v>
+      </c>
+      <c r="AD154">
+        <v>845.4299999999999</v>
+      </c>
+      <c r="AE154">
+        <v>0.11</v>
+      </c>
+      <c r="AF154">
+        <v>29.27</v>
+      </c>
+      <c r="AG154">
+        <v>186.17</v>
+      </c>
+      <c r="AH154">
+        <v>49.68</v>
+      </c>
+      <c r="AI154">
+        <v>1079.7</v>
+      </c>
+      <c r="AJ154">
+        <v>90.64</v>
+      </c>
+      <c r="AK154">
+        <v>191.32</v>
+      </c>
+      <c r="AL154">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AM154">
+        <v>0.2</v>
+      </c>
+      <c r="AN154">
+        <v>32.5</v>
+      </c>
+      <c r="AO154">
+        <v>13.74</v>
+      </c>
+      <c r="AP154">
+        <v>15.48</v>
+      </c>
+      <c r="AQ154">
+        <v>38.84</v>
+      </c>
+      <c r="AR154">
+        <v>17.94</v>
+      </c>
+      <c r="AS154">
+        <v>101.24</v>
+      </c>
+      <c r="AT154">
+        <v>52.66</v>
+      </c>
+      <c r="AU154">
+        <v>149.9</v>
+      </c>
+      <c r="AV154">
+        <v>0.02</v>
+      </c>
+      <c r="AW154">
+        <v>208.02</v>
+      </c>
+      <c r="AX154">
+        <v>184.55</v>
+      </c>
+      <c r="AY154">
+        <v>10.55</v>
+      </c>
+      <c r="AZ154">
+        <v>10.48</v>
+      </c>
+      <c r="BA154">
+        <v>0.05</v>
+      </c>
+      <c r="BB154">
+        <v>4.77</v>
+      </c>
+      <c r="BC154">
+        <v>241.83</v>
+      </c>
+      <c r="BD154">
+        <v>1.84</v>
+      </c>
+      <c r="BE154">
+        <v>0.68</v>
+      </c>
+      <c r="BF154">
+        <v>7.06</v>
+      </c>
+      <c r="BG154">
+        <v>120.24</v>
+      </c>
+      <c r="BH154">
+        <v>199.77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:60">
+      <c r="A155" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155">
+        <v>23.34</v>
+      </c>
+      <c r="C155">
+        <v>773.01</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>112.68</v>
+      </c>
+      <c r="F155">
+        <v>1.24</v>
+      </c>
+      <c r="G155">
+        <v>35.76</v>
+      </c>
+      <c r="H155">
+        <v>122.05</v>
+      </c>
+      <c r="I155">
+        <v>6.14</v>
+      </c>
+      <c r="J155">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="K155">
+        <v>88.97</v>
+      </c>
+      <c r="L155">
+        <v>1096.47</v>
+      </c>
+      <c r="M155">
+        <v>210.51</v>
+      </c>
+      <c r="N155">
+        <v>86.42</v>
+      </c>
+      <c r="O155">
+        <v>570.11</v>
+      </c>
+      <c r="P155">
+        <v>618.16</v>
+      </c>
+      <c r="Q155">
+        <v>773.01</v>
+      </c>
+      <c r="R155">
+        <v>773.01</v>
+      </c>
+      <c r="S155">
+        <v>369.26</v>
+      </c>
+      <c r="T155">
+        <v>942.7</v>
+      </c>
+      <c r="U155">
+        <v>773.01</v>
+      </c>
+      <c r="V155">
+        <v>569.9400000000001</v>
+      </c>
+      <c r="W155">
+        <v>99.37</v>
+      </c>
+      <c r="X155">
+        <v>544.6799999999999</v>
+      </c>
+      <c r="Y155">
+        <v>27.77</v>
+      </c>
+      <c r="Z155">
+        <v>0.03</v>
+      </c>
+      <c r="AA155">
+        <v>907.71</v>
+      </c>
+      <c r="AB155">
+        <v>2.57</v>
+      </c>
+      <c r="AC155">
+        <v>7.62</v>
+      </c>
+      <c r="AD155">
+        <v>838.77</v>
+      </c>
+      <c r="AE155">
+        <v>0.11</v>
+      </c>
+      <c r="AF155">
+        <v>28.98</v>
+      </c>
+      <c r="AG155">
+        <v>184.82</v>
+      </c>
+      <c r="AH155">
+        <v>49.4</v>
+      </c>
+      <c r="AI155">
+        <v>1072.14</v>
+      </c>
+      <c r="AJ155">
+        <v>89.45999999999999</v>
+      </c>
+      <c r="AK155">
+        <v>188.94</v>
+      </c>
+      <c r="AL155">
+        <v>7.97</v>
+      </c>
+      <c r="AM155">
+        <v>0.2</v>
+      </c>
+      <c r="AN155">
+        <v>32.21</v>
+      </c>
+      <c r="AO155">
+        <v>13.63</v>
+      </c>
+      <c r="AP155">
+        <v>15.34</v>
+      </c>
+      <c r="AQ155">
+        <v>38.79</v>
+      </c>
+      <c r="AR155">
+        <v>17.8</v>
+      </c>
+      <c r="AS155">
+        <v>100.02</v>
+      </c>
+      <c r="AT155">
+        <v>52.76</v>
+      </c>
+      <c r="AU155">
+        <v>148.35</v>
+      </c>
+      <c r="AV155">
+        <v>0.02</v>
+      </c>
+      <c r="AW155">
+        <v>206.14</v>
+      </c>
+      <c r="AX155">
+        <v>182.4</v>
+      </c>
+      <c r="AY155">
+        <v>10.52</v>
+      </c>
+      <c r="AZ155">
+        <v>10.38</v>
+      </c>
+      <c r="BA155">
+        <v>0.05</v>
+      </c>
+      <c r="BB155">
+        <v>4.75</v>
+      </c>
+      <c r="BC155">
+        <v>239.86</v>
+      </c>
+      <c r="BD155">
+        <v>1.82</v>
+      </c>
+      <c r="BE155">
+        <v>0.67</v>
+      </c>
+      <c r="BF155">
+        <v>7</v>
+      </c>
+      <c r="BG155">
+        <v>119.36</v>
+      </c>
+      <c r="BH155">
+        <v>198.34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:60">
+      <c r="A156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156">
+        <v>23.35</v>
+      </c>
+      <c r="C156">
+        <v>772.78</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>112.65</v>
+      </c>
+      <c r="F156">
+        <v>1.25</v>
+      </c>
+      <c r="G156">
+        <v>35.73</v>
+      </c>
+      <c r="H156">
+        <v>121.93</v>
+      </c>
+      <c r="I156">
+        <v>6.13</v>
+      </c>
+      <c r="J156">
+        <v>87.37</v>
+      </c>
+      <c r="K156">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="L156">
+        <v>1097.54</v>
+      </c>
+      <c r="M156">
+        <v>210.45</v>
+      </c>
+      <c r="N156">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="O156">
+        <v>566.85</v>
+      </c>
+      <c r="P156">
+        <v>616.6900000000001</v>
+      </c>
+      <c r="Q156">
+        <v>772.78</v>
+      </c>
+      <c r="R156">
+        <v>772.78</v>
+      </c>
+      <c r="S156">
+        <v>370.16</v>
+      </c>
+      <c r="T156">
+        <v>942.41</v>
+      </c>
+      <c r="U156">
+        <v>772.78</v>
+      </c>
+      <c r="V156">
+        <v>569.1</v>
+      </c>
+      <c r="W156">
+        <v>99.31</v>
+      </c>
+      <c r="X156">
+        <v>540.86</v>
+      </c>
+      <c r="Y156">
+        <v>27.8</v>
+      </c>
+      <c r="Z156">
+        <v>0.03</v>
+      </c>
+      <c r="AA156">
+        <v>906.7</v>
+      </c>
+      <c r="AB156">
+        <v>2.57</v>
+      </c>
+      <c r="AC156">
+        <v>7.63</v>
+      </c>
+      <c r="AD156">
+        <v>836.52</v>
+      </c>
+      <c r="AE156">
+        <v>0.11</v>
+      </c>
+      <c r="AF156">
+        <v>28.92</v>
+      </c>
+      <c r="AG156">
+        <v>184.75</v>
+      </c>
+      <c r="AH156">
+        <v>49.35</v>
+      </c>
+      <c r="AI156">
+        <v>1066.49</v>
+      </c>
+      <c r="AJ156">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="AK156">
+        <v>189.2</v>
+      </c>
+      <c r="AL156">
+        <v>7.96</v>
+      </c>
+      <c r="AM156">
+        <v>0.2</v>
+      </c>
+      <c r="AN156">
+        <v>32.2</v>
+      </c>
+      <c r="AO156">
+        <v>13.6</v>
+      </c>
+      <c r="AP156">
+        <v>15.34</v>
+      </c>
+      <c r="AQ156">
+        <v>38.74</v>
+      </c>
+      <c r="AR156">
+        <v>17.83</v>
+      </c>
+      <c r="AS156">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AT156">
+        <v>52.27</v>
+      </c>
+      <c r="AU156">
+        <v>147.47</v>
+      </c>
+      <c r="AV156">
+        <v>0.02</v>
+      </c>
+      <c r="AW156">
+        <v>206.07</v>
+      </c>
+      <c r="AX156">
+        <v>182.69</v>
+      </c>
+      <c r="AY156">
+        <v>10.5</v>
+      </c>
+      <c r="AZ156">
+        <v>10.41</v>
+      </c>
+      <c r="BA156">
+        <v>0.05</v>
+      </c>
+      <c r="BB156">
+        <v>4.72</v>
+      </c>
+      <c r="BC156">
+        <v>239.76</v>
+      </c>
+      <c r="BD156">
+        <v>1.82</v>
+      </c>
+      <c r="BE156">
+        <v>0.67</v>
+      </c>
+      <c r="BF156">
+        <v>7</v>
+      </c>
+      <c r="BG156">
+        <v>119.3</v>
+      </c>
+      <c r="BH156">
+        <v>198.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:60">
+      <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157">
+        <v>23.25</v>
+      </c>
+      <c r="C157">
+        <v>774.25</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>112.86</v>
+      </c>
+      <c r="F157">
+        <v>1.25</v>
+      </c>
+      <c r="G157">
+        <v>35.96</v>
+      </c>
+      <c r="H157">
+        <v>122.83</v>
+      </c>
+      <c r="I157">
+        <v>6.18</v>
+      </c>
+      <c r="J157">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="K157">
+        <v>89.69</v>
+      </c>
+      <c r="L157">
+        <v>1099.63</v>
+      </c>
+      <c r="M157">
+        <v>210.85</v>
+      </c>
+      <c r="N157">
+        <v>86.58</v>
+      </c>
+      <c r="O157">
+        <v>570.6</v>
+      </c>
+      <c r="P157">
+        <v>618.61</v>
+      </c>
+      <c r="Q157">
+        <v>774.25</v>
+      </c>
+      <c r="R157">
+        <v>774.25</v>
+      </c>
+      <c r="S157">
+        <v>369.62</v>
+      </c>
+      <c r="T157">
+        <v>944.21</v>
+      </c>
+      <c r="U157">
+        <v>774.25</v>
+      </c>
+      <c r="V157">
+        <v>571.36</v>
+      </c>
+      <c r="W157">
+        <v>99.48999999999999</v>
+      </c>
+      <c r="X157">
+        <v>545.05</v>
+      </c>
+      <c r="Y157">
+        <v>27.81</v>
+      </c>
+      <c r="Z157">
+        <v>0.03</v>
+      </c>
+      <c r="AA157">
+        <v>913.35</v>
+      </c>
+      <c r="AB157">
+        <v>2.59</v>
+      </c>
+      <c r="AC157">
+        <v>7.67</v>
+      </c>
+      <c r="AD157">
+        <v>845.71</v>
+      </c>
+      <c r="AE157">
+        <v>0.11</v>
+      </c>
+      <c r="AF157">
+        <v>29.2</v>
+      </c>
+      <c r="AG157">
+        <v>186.11</v>
+      </c>
+      <c r="AH157">
+        <v>49.44</v>
+      </c>
+      <c r="AI157">
+        <v>1073.86</v>
+      </c>
+      <c r="AJ157">
+        <v>90.89</v>
+      </c>
+      <c r="AK157">
+        <v>189.98</v>
+      </c>
+      <c r="AL157">
+        <v>7.97</v>
+      </c>
+      <c r="AM157">
+        <v>0.2</v>
+      </c>
+      <c r="AN157">
+        <v>32.26</v>
+      </c>
+      <c r="AO157">
+        <v>13.6</v>
+      </c>
+      <c r="AP157">
+        <v>15.35</v>
+      </c>
+      <c r="AQ157">
+        <v>38.91</v>
+      </c>
+      <c r="AR157">
+        <v>17.92</v>
+      </c>
+      <c r="AS157">
+        <v>100.14</v>
+      </c>
+      <c r="AT157">
+        <v>52.58</v>
+      </c>
+      <c r="AU157">
+        <v>147.75</v>
+      </c>
+      <c r="AV157">
+        <v>0.02</v>
+      </c>
+      <c r="AW157">
+        <v>206.47</v>
+      </c>
+      <c r="AX157">
+        <v>182.76</v>
+      </c>
+      <c r="AY157">
+        <v>10.57</v>
+      </c>
+      <c r="AZ157">
+        <v>10.43</v>
+      </c>
+      <c r="BA157">
+        <v>0.05</v>
+      </c>
+      <c r="BB157">
+        <v>4.73</v>
+      </c>
+      <c r="BC157">
+        <v>241.06</v>
+      </c>
+      <c r="BD157">
+        <v>1.82</v>
+      </c>
+      <c r="BE157">
+        <v>0.66</v>
+      </c>
+      <c r="BF157">
+        <v>7.06</v>
+      </c>
+      <c r="BG157">
+        <v>119.55</v>
+      </c>
+      <c r="BH157">
+        <v>200.08</v>
+      </c>
+    </row>
+    <row r="158" spans="1:60">
+      <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158">
+        <v>23.49</v>
+      </c>
+      <c r="C158">
+        <v>784.1799999999999</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>114.31</v>
+      </c>
+      <c r="F158">
+        <v>1.27</v>
+      </c>
+      <c r="G158">
+        <v>36.32</v>
+      </c>
+      <c r="H158">
+        <v>124.21</v>
+      </c>
+      <c r="I158">
+        <v>6.23</v>
+      </c>
+      <c r="J158">
+        <v>88.8</v>
+      </c>
+      <c r="K158">
+        <v>90.64</v>
+      </c>
+      <c r="L158">
+        <v>1115.95</v>
+      </c>
+      <c r="M158">
+        <v>213.56</v>
+      </c>
+      <c r="N158">
+        <v>87.84999999999999</v>
+      </c>
+      <c r="O158">
+        <v>575.21</v>
+      </c>
+      <c r="P158">
+        <v>623.8</v>
+      </c>
+      <c r="Q158">
+        <v>784.1799999999999</v>
+      </c>
+      <c r="R158">
+        <v>784.1799999999999</v>
+      </c>
+      <c r="S158">
+        <v>375.71</v>
+      </c>
+      <c r="T158">
+        <v>956.3200000000001</v>
+      </c>
+      <c r="U158">
+        <v>784.1799999999999</v>
+      </c>
+      <c r="V158">
+        <v>578.39</v>
+      </c>
+      <c r="W158">
+        <v>100.74</v>
+      </c>
+      <c r="X158">
+        <v>550.03</v>
+      </c>
+      <c r="Y158">
+        <v>28.17</v>
+      </c>
+      <c r="Z158">
+        <v>0.03</v>
+      </c>
+      <c r="AA158">
+        <v>923.54</v>
+      </c>
+      <c r="AB158">
+        <v>2.63</v>
+      </c>
+      <c r="AC158">
+        <v>7.79</v>
+      </c>
+      <c r="AD158">
+        <v>859.75</v>
+      </c>
+      <c r="AE158">
+        <v>0.11</v>
+      </c>
+      <c r="AF158">
+        <v>29.48</v>
+      </c>
+      <c r="AG158">
+        <v>187.93</v>
+      </c>
+      <c r="AH158">
+        <v>50.01</v>
+      </c>
+      <c r="AI158">
+        <v>1085.37</v>
+      </c>
+      <c r="AJ158">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="AK158">
+        <v>192.22</v>
+      </c>
+      <c r="AL158">
+        <v>8.08</v>
+      </c>
+      <c r="AM158">
+        <v>0.2</v>
+      </c>
+      <c r="AN158">
+        <v>32.67</v>
+      </c>
+      <c r="AO158">
+        <v>13.82</v>
+      </c>
+      <c r="AP158">
+        <v>15.49</v>
+      </c>
+      <c r="AQ158">
+        <v>39.37</v>
+      </c>
+      <c r="AR158">
+        <v>18.15</v>
+      </c>
+      <c r="AS158">
+        <v>101.56</v>
+      </c>
+      <c r="AT158">
+        <v>52.79</v>
+      </c>
+      <c r="AU158">
+        <v>148.8</v>
+      </c>
+      <c r="AV158">
+        <v>0.02</v>
+      </c>
+      <c r="AW158">
+        <v>209.11</v>
+      </c>
+      <c r="AX158">
+        <v>185.17</v>
+      </c>
+      <c r="AY158">
+        <v>10.7</v>
+      </c>
+      <c r="AZ158">
+        <v>10.56</v>
+      </c>
+      <c r="BA158">
+        <v>0.05</v>
+      </c>
+      <c r="BB158">
+        <v>4.78</v>
+      </c>
+      <c r="BC158">
+        <v>243.28</v>
+      </c>
+      <c r="BD158">
+        <v>1.85</v>
+      </c>
+      <c r="BE158">
+        <v>0.67</v>
+      </c>
+      <c r="BF158">
+        <v>7.18</v>
+      </c>
+      <c r="BG158">
+        <v>121.08</v>
+      </c>
+      <c r="BH158">
+        <v>202.59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:60">
+      <c r="A159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159">
+        <v>23.69</v>
+      </c>
+      <c r="C159">
+        <v>789.62</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>115.1</v>
+      </c>
+      <c r="F159">
+        <v>1.28</v>
+      </c>
+      <c r="G159">
+        <v>36.35</v>
+      </c>
+      <c r="H159">
+        <v>124.37</v>
+      </c>
+      <c r="I159">
+        <v>6.24</v>
+      </c>
+      <c r="J159">
+        <v>88.64</v>
+      </c>
+      <c r="K159">
+        <v>90.22</v>
+      </c>
+      <c r="L159">
+        <v>1122.74</v>
+      </c>
+      <c r="M159">
+        <v>215.04</v>
+      </c>
+      <c r="N159">
+        <v>87.87</v>
+      </c>
+      <c r="O159">
+        <v>572.5599999999999</v>
+      </c>
+      <c r="P159">
+        <v>625.05</v>
+      </c>
+      <c r="Q159">
+        <v>789.62</v>
+      </c>
+      <c r="R159">
+        <v>789.62</v>
+      </c>
+      <c r="S159">
+        <v>377.59</v>
+      </c>
+      <c r="T159">
+        <v>962.95</v>
+      </c>
+      <c r="U159">
+        <v>789.62</v>
+      </c>
+      <c r="V159">
+        <v>579.58</v>
+      </c>
+      <c r="W159">
+        <v>101.35</v>
+      </c>
+      <c r="X159">
+        <v>545.47</v>
+      </c>
+      <c r="Y159">
+        <v>28.36</v>
+      </c>
+      <c r="Z159">
+        <v>0.03</v>
+      </c>
+      <c r="AA159">
+        <v>924.83</v>
+      </c>
+      <c r="AB159">
+        <v>2.63</v>
+      </c>
+      <c r="AC159">
+        <v>7.84</v>
+      </c>
+      <c r="AD159">
+        <v>863.4400000000001</v>
+      </c>
+      <c r="AE159">
+        <v>0.11</v>
+      </c>
+      <c r="AF159">
+        <v>29.75</v>
+      </c>
+      <c r="AG159">
+        <v>187.83</v>
+      </c>
+      <c r="AH159">
+        <v>50.43</v>
+      </c>
+      <c r="AI159">
+        <v>1084.34</v>
+      </c>
+      <c r="AJ159">
+        <v>93.64</v>
+      </c>
+      <c r="AK159">
+        <v>193.23</v>
+      </c>
+      <c r="AL159">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AM159">
+        <v>0.2</v>
+      </c>
+      <c r="AN159">
+        <v>32.9</v>
+      </c>
+      <c r="AO159">
+        <v>13.88</v>
+      </c>
+      <c r="AP159">
+        <v>15.67</v>
+      </c>
+      <c r="AQ159">
+        <v>39.44</v>
+      </c>
+      <c r="AR159">
+        <v>18.31</v>
+      </c>
+      <c r="AS159">
+        <v>102.41</v>
+      </c>
+      <c r="AT159">
+        <v>52.95</v>
+      </c>
+      <c r="AU159">
+        <v>149.31</v>
+      </c>
+      <c r="AV159">
+        <v>0.02</v>
+      </c>
+      <c r="AW159">
+        <v>210.57</v>
+      </c>
+      <c r="AX159">
+        <v>186.36</v>
+      </c>
+      <c r="AY159">
+        <v>10.73</v>
+      </c>
+      <c r="AZ159">
+        <v>10.62</v>
+      </c>
+      <c r="BA159">
+        <v>0.05</v>
+      </c>
+      <c r="BB159">
+        <v>4.83</v>
+      </c>
+      <c r="BC159">
+        <v>243.97</v>
+      </c>
+      <c r="BD159">
+        <v>1.86</v>
+      </c>
+      <c r="BE159">
+        <v>0.67</v>
+      </c>
+      <c r="BF159">
+        <v>7.21</v>
+      </c>
+      <c r="BG159">
+        <v>121.62</v>
+      </c>
+      <c r="BH159">
+        <v>202.62</v>
+      </c>
+    </row>
+    <row r="160" spans="1:60">
+      <c r="A160" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160">
+        <v>23.66</v>
+      </c>
+      <c r="C160">
+        <v>787.71</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>114.83</v>
+      </c>
+      <c r="F160">
+        <v>1.27</v>
+      </c>
+      <c r="G160">
+        <v>36.3</v>
+      </c>
+      <c r="H160">
+        <v>124.18</v>
+      </c>
+      <c r="I160">
+        <v>6.23</v>
+      </c>
+      <c r="J160">
+        <v>88.7</v>
+      </c>
+      <c r="K160">
+        <v>90.47</v>
+      </c>
+      <c r="L160">
+        <v>1117.79</v>
+      </c>
+      <c r="M160">
+        <v>214.52</v>
+      </c>
+      <c r="N160">
+        <v>88.09</v>
+      </c>
+      <c r="O160">
+        <v>571.63</v>
+      </c>
+      <c r="P160">
+        <v>624.1799999999999</v>
+      </c>
+      <c r="Q160">
+        <v>787.71</v>
+      </c>
+      <c r="R160">
+        <v>787.71</v>
+      </c>
+      <c r="S160">
+        <v>373.85</v>
+      </c>
+      <c r="T160">
+        <v>960.62</v>
+      </c>
+      <c r="U160">
+        <v>787.71</v>
+      </c>
+      <c r="V160">
+        <v>579.54</v>
+      </c>
+      <c r="W160">
+        <v>101.16</v>
+      </c>
+      <c r="X160">
+        <v>543.92</v>
+      </c>
+      <c r="Y160">
+        <v>28.29</v>
+      </c>
+      <c r="Z160">
+        <v>0.03</v>
+      </c>
+      <c r="AA160">
+        <v>923.46</v>
+      </c>
+      <c r="AB160">
+        <v>2.64</v>
+      </c>
+      <c r="AC160">
+        <v>7.77</v>
+      </c>
+      <c r="AD160">
+        <v>859.85</v>
+      </c>
+      <c r="AE160">
+        <v>0.11</v>
+      </c>
+      <c r="AF160">
+        <v>29.75</v>
+      </c>
+      <c r="AG160">
+        <v>187.65</v>
+      </c>
+      <c r="AH160">
+        <v>50.31</v>
+      </c>
+      <c r="AI160">
+        <v>1084.85</v>
+      </c>
+      <c r="AJ160">
+        <v>93.17</v>
+      </c>
+      <c r="AK160">
+        <v>192.51</v>
+      </c>
+      <c r="AL160">
+        <v>8.1</v>
+      </c>
+      <c r="AM160">
+        <v>0.2</v>
+      </c>
+      <c r="AN160">
+        <v>32.82</v>
+      </c>
+      <c r="AO160">
+        <v>13.85</v>
+      </c>
+      <c r="AP160">
+        <v>15.63</v>
+      </c>
+      <c r="AQ160">
+        <v>39.47</v>
+      </c>
+      <c r="AR160">
+        <v>18.3</v>
+      </c>
+      <c r="AS160">
+        <v>101.87</v>
+      </c>
+      <c r="AT160">
+        <v>52.89</v>
+      </c>
+      <c r="AU160">
+        <v>147.7</v>
+      </c>
+      <c r="AV160">
+        <v>0.02</v>
+      </c>
+      <c r="AW160">
+        <v>210.06</v>
+      </c>
+      <c r="AX160">
+        <v>186</v>
+      </c>
+      <c r="AY160">
+        <v>10.7</v>
+      </c>
+      <c r="AZ160">
+        <v>10.61</v>
+      </c>
+      <c r="BA160">
+        <v>0.05</v>
+      </c>
+      <c r="BB160">
+        <v>4.81</v>
+      </c>
+      <c r="BC160">
+        <v>243.9</v>
+      </c>
+      <c r="BD160">
+        <v>1.85</v>
+      </c>
+      <c r="BE160">
+        <v>0.67</v>
+      </c>
+      <c r="BF160">
+        <v>7.17</v>
+      </c>
+      <c r="BG160">
+        <v>121.56</v>
+      </c>
+      <c r="BH160">
+        <v>202.77</v>
+      </c>
+    </row>
+    <row r="161" spans="1:60">
+      <c r="A161" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161">
+        <v>23.7</v>
+      </c>
+      <c r="C161">
+        <v>789.98</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>115.16</v>
+      </c>
+      <c r="F161">
+        <v>1.28</v>
+      </c>
+      <c r="G161">
+        <v>36.16</v>
+      </c>
+      <c r="H161">
+        <v>124.05</v>
+      </c>
+      <c r="I161">
+        <v>6.2</v>
+      </c>
+      <c r="J161">
+        <v>87.38</v>
+      </c>
+      <c r="K161">
+        <v>89.72</v>
+      </c>
+      <c r="L161">
+        <v>1119.9</v>
+      </c>
+      <c r="M161">
+        <v>215.14</v>
+      </c>
+      <c r="N161">
+        <v>88.22</v>
+      </c>
+      <c r="O161">
+        <v>564.76</v>
+      </c>
+      <c r="P161">
+        <v>616.16</v>
+      </c>
+      <c r="Q161">
+        <v>789.98</v>
+      </c>
+      <c r="R161">
+        <v>789.98</v>
+      </c>
+      <c r="S161">
+        <v>374.22</v>
+      </c>
+      <c r="T161">
+        <v>963.39</v>
+      </c>
+      <c r="U161">
+        <v>789.98</v>
+      </c>
+      <c r="V161">
+        <v>578.95</v>
+      </c>
+      <c r="W161">
+        <v>101.43</v>
+      </c>
+      <c r="X161">
+        <v>539.49</v>
+      </c>
+      <c r="Y161">
+        <v>28.24</v>
+      </c>
+      <c r="Z161">
+        <v>0.03</v>
+      </c>
+      <c r="AA161">
+        <v>922.4400000000001</v>
+      </c>
+      <c r="AB161">
+        <v>2.63</v>
+      </c>
+      <c r="AC161">
+        <v>7.78</v>
+      </c>
+      <c r="AD161">
+        <v>860.26</v>
+      </c>
+      <c r="AE161">
+        <v>0.11</v>
+      </c>
+      <c r="AF161">
+        <v>29.78</v>
+      </c>
+      <c r="AG161">
+        <v>187.25</v>
+      </c>
+      <c r="AH161">
+        <v>50.47</v>
+      </c>
+      <c r="AI161">
+        <v>1077.74</v>
+      </c>
+      <c r="AJ161">
+        <v>92.59</v>
+      </c>
+      <c r="AK161">
+        <v>192.49</v>
+      </c>
+      <c r="AL161">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AM161">
+        <v>0.2</v>
+      </c>
+      <c r="AN161">
+        <v>32.92</v>
+      </c>
+      <c r="AO161">
+        <v>13.88</v>
+      </c>
+      <c r="AP161">
+        <v>15.63</v>
+      </c>
+      <c r="AQ161">
+        <v>39.14</v>
+      </c>
+      <c r="AR161">
+        <v>18.31</v>
+      </c>
+      <c r="AS161">
+        <v>102.15</v>
+      </c>
+      <c r="AT161">
+        <v>51.82</v>
+      </c>
+      <c r="AU161">
+        <v>145.72</v>
+      </c>
+      <c r="AV161">
+        <v>0.02</v>
+      </c>
+      <c r="AW161">
+        <v>210.66</v>
+      </c>
+      <c r="AX161">
+        <v>186.51</v>
+      </c>
+      <c r="AY161">
+        <v>10.63</v>
+      </c>
+      <c r="AZ161">
+        <v>10.64</v>
+      </c>
+      <c r="BA161">
+        <v>0.05</v>
+      </c>
+      <c r="BB161">
+        <v>4.84</v>
+      </c>
+      <c r="BC161">
+        <v>243.37</v>
+      </c>
+      <c r="BD161">
+        <v>1.85</v>
+      </c>
+      <c r="BE161">
+        <v>0.67</v>
+      </c>
+      <c r="BF161">
+        <v>7.2</v>
+      </c>
+      <c r="BG161">
+        <v>121.53</v>
+      </c>
+      <c r="BH161">
+        <v>201.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:60">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162">
+        <v>23.59</v>
+      </c>
+      <c r="C162">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>114.64</v>
+      </c>
+      <c r="F162">
+        <v>1.27</v>
+      </c>
+      <c r="G162">
+        <v>36</v>
+      </c>
+      <c r="H162">
+        <v>123.68</v>
+      </c>
+      <c r="I162">
+        <v>6.16</v>
+      </c>
+      <c r="J162">
+        <v>87.11</v>
+      </c>
+      <c r="K162">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="L162">
+        <v>1113.77</v>
+      </c>
+      <c r="M162">
+        <v>214.17</v>
+      </c>
+      <c r="N162">
+        <v>87.62</v>
+      </c>
+      <c r="O162">
+        <v>560.97</v>
+      </c>
+      <c r="P162">
+        <v>612.25</v>
+      </c>
+      <c r="Q162">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="R162">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="S162">
+        <v>370.42</v>
+      </c>
+      <c r="T162">
+        <v>959.0599999999999</v>
+      </c>
+      <c r="U162">
+        <v>786.4299999999999</v>
+      </c>
+      <c r="V162">
+        <v>577.41</v>
+      </c>
+      <c r="W162">
+        <v>100.96</v>
+      </c>
+      <c r="X162">
+        <v>536.96</v>
+      </c>
+      <c r="Y162">
+        <v>28.07</v>
+      </c>
+      <c r="Z162">
+        <v>0.03</v>
+      </c>
+      <c r="AA162">
+        <v>919.6900000000001</v>
+      </c>
+      <c r="AB162">
+        <v>2.63</v>
+      </c>
+      <c r="AC162">
+        <v>7.79</v>
+      </c>
+      <c r="AD162">
+        <v>856.96</v>
+      </c>
+      <c r="AE162">
+        <v>0.11</v>
+      </c>
+      <c r="AF162">
+        <v>29.63</v>
+      </c>
+      <c r="AG162">
+        <v>186.47</v>
+      </c>
+      <c r="AH162">
+        <v>50.19</v>
+      </c>
+      <c r="AI162">
+        <v>1070.99</v>
+      </c>
+      <c r="AJ162">
+        <v>92.72</v>
+      </c>
+      <c r="AK162">
+        <v>191.23</v>
+      </c>
+      <c r="AL162">
+        <v>8.08</v>
+      </c>
+      <c r="AM162">
+        <v>0.2</v>
+      </c>
+      <c r="AN162">
+        <v>32.77</v>
+      </c>
+      <c r="AO162">
+        <v>13.81</v>
+      </c>
+      <c r="AP162">
+        <v>15.61</v>
+      </c>
+      <c r="AQ162">
+        <v>38.53</v>
+      </c>
+      <c r="AR162">
+        <v>18.27</v>
+      </c>
+      <c r="AS162">
+        <v>101.94</v>
+      </c>
+      <c r="AT162">
+        <v>51.18</v>
+      </c>
+      <c r="AU162">
+        <v>145.57</v>
+      </c>
+      <c r="AV162">
+        <v>0.02</v>
+      </c>
+      <c r="AW162">
+        <v>209.71</v>
+      </c>
+      <c r="AX162">
+        <v>185.57</v>
+      </c>
+      <c r="AY162">
+        <v>10.58</v>
+      </c>
+      <c r="AZ162">
+        <v>10.57</v>
+      </c>
+      <c r="BA162">
+        <v>0.05</v>
+      </c>
+      <c r="BB162">
+        <v>4.8</v>
+      </c>
+      <c r="BC162">
+        <v>242.92</v>
+      </c>
+      <c r="BD162">
+        <v>1.84</v>
+      </c>
+      <c r="BE162">
+        <v>0.67</v>
+      </c>
+      <c r="BF162">
+        <v>7.16</v>
+      </c>
+      <c r="BG162">
+        <v>121</v>
+      </c>
+      <c r="BH162">
+        <v>200.63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:60">
+      <c r="A163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B163">
+        <v>23.57</v>
+      </c>
+      <c r="C163">
+        <v>783.3</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>114.18</v>
+      </c>
+      <c r="F163">
+        <v>1.27</v>
+      </c>
+      <c r="G163">
+        <v>36.02</v>
+      </c>
+      <c r="H163">
+        <v>123.73</v>
+      </c>
+      <c r="I163">
+        <v>6.13</v>
+      </c>
+      <c r="J163">
+        <v>87.95999999999999</v>
+      </c>
+      <c r="K163">
+        <v>90.04000000000001</v>
+      </c>
+      <c r="L163">
+        <v>1111.22</v>
+      </c>
+      <c r="M163">
+        <v>213.32</v>
+      </c>
+      <c r="N163">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="O163">
+        <v>564.99</v>
+      </c>
+      <c r="P163">
+        <v>619.21</v>
+      </c>
+      <c r="Q163">
+        <v>783.3</v>
+      </c>
+      <c r="R163">
+        <v>783.3</v>
+      </c>
+      <c r="S163">
+        <v>368.39</v>
+      </c>
+      <c r="T163">
+        <v>955.24</v>
+      </c>
+      <c r="U163">
+        <v>783.3</v>
+      </c>
+      <c r="V163">
+        <v>577.36</v>
+      </c>
+      <c r="W163">
+        <v>100.52</v>
+      </c>
+      <c r="X163">
+        <v>540.3200000000001</v>
+      </c>
+      <c r="Y163">
+        <v>28.01</v>
+      </c>
+      <c r="Z163">
+        <v>0.03</v>
+      </c>
+      <c r="AA163">
+        <v>920.01</v>
+      </c>
+      <c r="AB163">
+        <v>2.63</v>
+      </c>
+      <c r="AC163">
+        <v>7.73</v>
+      </c>
+      <c r="AD163">
+        <v>858.51</v>
+      </c>
+      <c r="AE163">
+        <v>0.11</v>
+      </c>
+      <c r="AF163">
+        <v>29.61</v>
+      </c>
+      <c r="AG163">
+        <v>186.78</v>
+      </c>
+      <c r="AH163">
+        <v>50.06</v>
+      </c>
+      <c r="AI163">
+        <v>1075.37</v>
+      </c>
+      <c r="AJ163">
+        <v>92.92</v>
+      </c>
+      <c r="AK163">
+        <v>191.07</v>
+      </c>
+      <c r="AL163">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AM163">
+        <v>0.2</v>
+      </c>
+      <c r="AN163">
+        <v>32.64</v>
+      </c>
+      <c r="AO163">
+        <v>13.77</v>
+      </c>
+      <c r="AP163">
+        <v>15.59</v>
+      </c>
+      <c r="AQ163">
+        <v>38.5</v>
+      </c>
+      <c r="AR163">
+        <v>18.27</v>
+      </c>
+      <c r="AS163">
+        <v>101.51</v>
+      </c>
+      <c r="AT163">
+        <v>51.77</v>
+      </c>
+      <c r="AU163">
+        <v>145.52</v>
+      </c>
+      <c r="AV163">
+        <v>0.02</v>
+      </c>
+      <c r="AW163">
+        <v>208.88</v>
+      </c>
+      <c r="AX163">
+        <v>185.42</v>
+      </c>
+      <c r="AY163">
+        <v>10.57</v>
+      </c>
+      <c r="AZ163">
+        <v>10.56</v>
+      </c>
+      <c r="BA163">
+        <v>0.05</v>
+      </c>
+      <c r="BB163">
+        <v>4.77</v>
+      </c>
+      <c r="BC163">
+        <v>243.12</v>
+      </c>
+      <c r="BD163">
+        <v>1.84</v>
+      </c>
+      <c r="BE163">
+        <v>0.67</v>
+      </c>
+      <c r="BF163">
+        <v>7.14</v>
+      </c>
+      <c r="BG163">
+        <v>120.9</v>
+      </c>
+      <c r="BH163">
+        <v>200.83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:60">
+      <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164">
+        <v>23.78</v>
+      </c>
+      <c r="C164">
+        <v>782.17</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>114.02</v>
+      </c>
+      <c r="F164">
+        <v>1.26</v>
+      </c>
+      <c r="G164">
+        <v>36.01</v>
+      </c>
+      <c r="H164">
+        <v>123.61</v>
+      </c>
+      <c r="I164">
+        <v>6.16</v>
+      </c>
+      <c r="J164">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="K164">
+        <v>90</v>
+      </c>
+      <c r="L164">
+        <v>1110.41</v>
+      </c>
+      <c r="M164">
+        <v>213.01</v>
+      </c>
+      <c r="N164">
+        <v>87.28</v>
+      </c>
+      <c r="O164">
+        <v>567.53</v>
+      </c>
+      <c r="P164">
+        <v>621.02</v>
+      </c>
+      <c r="Q164">
+        <v>782.17</v>
+      </c>
+      <c r="R164">
+        <v>782.17</v>
+      </c>
+      <c r="S164">
+        <v>370.36</v>
+      </c>
+      <c r="T164">
+        <v>953.87</v>
+      </c>
+      <c r="U164">
+        <v>782.17</v>
+      </c>
+      <c r="V164">
+        <v>577.38</v>
+      </c>
+      <c r="W164">
+        <v>100.44</v>
+      </c>
+      <c r="X164">
+        <v>543.29</v>
+      </c>
+      <c r="Y164">
+        <v>27.99</v>
+      </c>
+      <c r="Z164">
+        <v>0.03</v>
+      </c>
+      <c r="AA164">
+        <v>919.23</v>
+      </c>
+      <c r="AB164">
+        <v>2.64</v>
+      </c>
+      <c r="AC164">
+        <v>7.73</v>
+      </c>
+      <c r="AD164">
+        <v>856.8</v>
+      </c>
+      <c r="AE164">
+        <v>0.11</v>
+      </c>
+      <c r="AF164">
+        <v>29.57</v>
+      </c>
+      <c r="AG164">
+        <v>186.51</v>
+      </c>
+      <c r="AH164">
+        <v>49.8</v>
+      </c>
+      <c r="AI164">
+        <v>1073.82</v>
+      </c>
+      <c r="AJ164">
+        <v>93</v>
+      </c>
+      <c r="AK164">
+        <v>191.29</v>
+      </c>
+      <c r="AL164">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AM164">
+        <v>0.2</v>
+      </c>
+      <c r="AN164">
+        <v>32.59</v>
+      </c>
+      <c r="AO164">
+        <v>13.75</v>
+      </c>
+      <c r="AP164">
+        <v>15.61</v>
+      </c>
+      <c r="AQ164">
+        <v>38.7</v>
+      </c>
+      <c r="AR164">
+        <v>18.29</v>
+      </c>
+      <c r="AS164">
+        <v>101.49</v>
+      </c>
+      <c r="AT164">
+        <v>52.22</v>
+      </c>
+      <c r="AU164">
+        <v>148.99</v>
+      </c>
+      <c r="AV164">
+        <v>0.02</v>
+      </c>
+      <c r="AW164">
+        <v>208.58</v>
+      </c>
+      <c r="AX164">
+        <v>185.52</v>
+      </c>
+      <c r="AY164">
+        <v>10.61</v>
+      </c>
+      <c r="AZ164">
+        <v>10.54</v>
+      </c>
+      <c r="BA164">
+        <v>0.05</v>
+      </c>
+      <c r="BB164">
+        <v>4.74</v>
+      </c>
+      <c r="BC164">
+        <v>242.99</v>
+      </c>
+      <c r="BD164">
+        <v>1.85</v>
+      </c>
+      <c r="BE164">
+        <v>0.67</v>
+      </c>
+      <c r="BF164">
+        <v>7.13</v>
+      </c>
+      <c r="BG164">
+        <v>120.82</v>
+      </c>
+      <c r="BH164">
+        <v>201.14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:60">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165">
+        <v>23.89</v>
+      </c>
+      <c r="C165">
+        <v>783.03</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>114.14</v>
+      </c>
+      <c r="F165">
+        <v>1.26</v>
+      </c>
+      <c r="G165">
+        <v>36.11</v>
+      </c>
+      <c r="H165">
+        <v>123.97</v>
+      </c>
+      <c r="I165">
+        <v>6.21</v>
+      </c>
+      <c r="J165">
+        <v>89.05</v>
+      </c>
+      <c r="K165">
+        <v>90.23</v>
+      </c>
+      <c r="L165">
+        <v>1112.1</v>
+      </c>
+      <c r="M165">
+        <v>213.24</v>
+      </c>
+      <c r="N165">
+        <v>88.5</v>
+      </c>
+      <c r="O165">
+        <v>569.8099999999999</v>
+      </c>
+      <c r="P165">
+        <v>621.4</v>
+      </c>
+      <c r="Q165">
+        <v>783.03</v>
+      </c>
+      <c r="R165">
+        <v>783.03</v>
+      </c>
+      <c r="S165">
+        <v>372.02</v>
+      </c>
+      <c r="T165">
+        <v>954.91</v>
+      </c>
+      <c r="U165">
+        <v>783.03</v>
+      </c>
+      <c r="V165">
+        <v>578.8200000000001</v>
+      </c>
+      <c r="W165">
+        <v>100.6</v>
+      </c>
+      <c r="X165">
+        <v>546.3099999999999</v>
+      </c>
+      <c r="Y165">
+        <v>28.05</v>
+      </c>
+      <c r="Z165">
+        <v>0.03</v>
+      </c>
+      <c r="AA165">
+        <v>921.75</v>
+      </c>
+      <c r="AB165">
+        <v>2.65</v>
+      </c>
+      <c r="AC165">
+        <v>7.77</v>
+      </c>
+      <c r="AD165">
+        <v>857.65</v>
+      </c>
+      <c r="AE165">
+        <v>0.11</v>
+      </c>
+      <c r="AF165">
+        <v>29.32</v>
+      </c>
+      <c r="AG165">
+        <v>187.13</v>
+      </c>
+      <c r="AH165">
+        <v>50</v>
+      </c>
+      <c r="AI165">
+        <v>1077.81</v>
+      </c>
+      <c r="AJ165">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="AK165">
+        <v>191.6</v>
+      </c>
+      <c r="AL165">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AM165">
+        <v>0.2</v>
+      </c>
+      <c r="AN165">
+        <v>32.63</v>
+      </c>
+      <c r="AO165">
+        <v>13.78</v>
+      </c>
+      <c r="AP165">
+        <v>15.71</v>
+      </c>
+      <c r="AQ165">
+        <v>38.64</v>
+      </c>
+      <c r="AR165">
+        <v>18.37</v>
+      </c>
+      <c r="AS165">
+        <v>101.35</v>
+      </c>
+      <c r="AT165">
+        <v>52.37</v>
+      </c>
+      <c r="AU165">
+        <v>150.14</v>
+      </c>
+      <c r="AV165">
+        <v>0.02</v>
+      </c>
+      <c r="AW165">
+        <v>208.81</v>
+      </c>
+      <c r="AX165">
+        <v>186.39</v>
+      </c>
+      <c r="AY165">
+        <v>10.6</v>
+      </c>
+      <c r="AZ165">
+        <v>10.55</v>
+      </c>
+      <c r="BA165">
+        <v>0.05</v>
+      </c>
+      <c r="BB165">
+        <v>4.72</v>
+      </c>
+      <c r="BC165">
+        <v>242.67</v>
+      </c>
+      <c r="BD165">
+        <v>1.84</v>
+      </c>
+      <c r="BE165">
+        <v>0.67</v>
+      </c>
+      <c r="BF165">
+        <v>7.12</v>
+      </c>
+      <c r="BG165">
+        <v>121.04</v>
+      </c>
+      <c r="BH165">
+        <v>201.65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:60">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166">
+        <v>23.98</v>
+      </c>
+      <c r="C166">
+        <v>785.0599999999999</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>114.44</v>
+      </c>
+      <c r="F166">
+        <v>1.26</v>
+      </c>
+      <c r="G166">
+        <v>36.15</v>
+      </c>
+      <c r="H166">
+        <v>124.07</v>
+      </c>
+      <c r="I166">
+        <v>6.21</v>
+      </c>
+      <c r="J166">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K166">
+        <v>90.17</v>
+      </c>
+      <c r="L166">
+        <v>1115.62</v>
+      </c>
+      <c r="M166">
+        <v>213.8</v>
+      </c>
+      <c r="N166">
+        <v>87.62</v>
+      </c>
+      <c r="O166">
+        <v>568.3099999999999</v>
+      </c>
+      <c r="P166">
+        <v>619.1799999999999</v>
+      </c>
+      <c r="Q166">
+        <v>785.0599999999999</v>
+      </c>
+      <c r="R166">
+        <v>785.0599999999999</v>
+      </c>
+      <c r="S166">
+        <v>373.77</v>
+      </c>
+      <c r="T166">
+        <v>957.39</v>
+      </c>
+      <c r="U166">
+        <v>785.0599999999999</v>
+      </c>
+      <c r="V166">
+        <v>579.6799999999999</v>
+      </c>
+      <c r="W166">
+        <v>100.81</v>
+      </c>
+      <c r="X166">
+        <v>545.22</v>
+      </c>
+      <c r="Y166">
+        <v>28.12</v>
+      </c>
+      <c r="Z166">
+        <v>0.03</v>
+      </c>
+      <c r="AA166">
+        <v>922.62</v>
+      </c>
+      <c r="AB166">
+        <v>2.64</v>
+      </c>
+      <c r="AC166">
+        <v>7.78</v>
+      </c>
+      <c r="AD166">
+        <v>854.8099999999999</v>
+      </c>
+      <c r="AE166">
+        <v>0.11</v>
+      </c>
+      <c r="AF166">
+        <v>29.47</v>
+      </c>
+      <c r="AG166">
+        <v>187.05</v>
+      </c>
+      <c r="AH166">
+        <v>50.07</v>
+      </c>
+      <c r="AI166">
+        <v>1075.28</v>
+      </c>
+      <c r="AJ166">
+        <v>93.66</v>
+      </c>
+      <c r="AK166">
+        <v>192.89</v>
+      </c>
+      <c r="AL166">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AM166">
+        <v>0.2</v>
+      </c>
+      <c r="AN166">
+        <v>32.71</v>
+      </c>
+      <c r="AO166">
+        <v>13.81</v>
+      </c>
+      <c r="AP166">
+        <v>15.71</v>
+      </c>
+      <c r="AQ166">
+        <v>38.59</v>
+      </c>
+      <c r="AR166">
+        <v>18.45</v>
+      </c>
+      <c r="AS166">
+        <v>101.87</v>
+      </c>
+      <c r="AT166">
+        <v>52.62</v>
+      </c>
+      <c r="AU166">
+        <v>149.51</v>
+      </c>
+      <c r="AV166">
+        <v>0.02</v>
+      </c>
+      <c r="AW166">
+        <v>209.35</v>
+      </c>
+      <c r="AX166">
+        <v>187.19</v>
+      </c>
+      <c r="AY166">
+        <v>10.57</v>
+      </c>
+      <c r="AZ166">
+        <v>10.58</v>
+      </c>
+      <c r="BA166">
+        <v>0.05</v>
+      </c>
+      <c r="BB166">
+        <v>4.73</v>
+      </c>
+      <c r="BC166">
+        <v>243.32</v>
+      </c>
+      <c r="BD166">
+        <v>1.84</v>
+      </c>
+      <c r="BE166">
+        <v>0.67</v>
+      </c>
+      <c r="BF166">
+        <v>7.13</v>
+      </c>
+      <c r="BG166">
+        <v>121.07</v>
+      </c>
+      <c r="BH166">
+        <v>201.88</v>
+      </c>
+    </row>
+    <row r="167" spans="1:60">
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167">
+        <v>24.11</v>
+      </c>
+      <c r="C167">
+        <v>784.39</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>114.34</v>
+      </c>
+      <c r="F167">
+        <v>1.26</v>
+      </c>
+      <c r="G167">
+        <v>36.29</v>
+      </c>
+      <c r="H167">
+        <v>124.42</v>
+      </c>
+      <c r="I167">
+        <v>6.2</v>
+      </c>
+      <c r="J167">
+        <v>89.98</v>
+      </c>
+      <c r="K167">
+        <v>90.78</v>
+      </c>
+      <c r="L167">
+        <v>1113.87</v>
+      </c>
+      <c r="M167">
+        <v>213.61</v>
+      </c>
+      <c r="N167">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="O167">
+        <v>573.38</v>
+      </c>
+      <c r="P167">
+        <v>621.89</v>
+      </c>
+      <c r="Q167">
+        <v>784.39</v>
+      </c>
+      <c r="R167">
+        <v>784.39</v>
+      </c>
+      <c r="S167">
+        <v>372.44</v>
+      </c>
+      <c r="T167">
+        <v>956.5700000000001</v>
+      </c>
+      <c r="U167">
+        <v>784.39</v>
+      </c>
+      <c r="V167">
+        <v>583.02</v>
+      </c>
+      <c r="W167">
+        <v>100.73</v>
+      </c>
+      <c r="X167">
+        <v>550.1</v>
+      </c>
+      <c r="Y167">
+        <v>28.08</v>
+      </c>
+      <c r="Z167">
+        <v>0.03</v>
+      </c>
+      <c r="AA167">
+        <v>925.21</v>
+      </c>
+      <c r="AB167">
+        <v>2.65</v>
+      </c>
+      <c r="AC167">
+        <v>7.79</v>
+      </c>
+      <c r="AD167">
+        <v>860.55</v>
+      </c>
+      <c r="AE167">
+        <v>0.11</v>
+      </c>
+      <c r="AF167">
+        <v>29.21</v>
+      </c>
+      <c r="AG167">
+        <v>187.51</v>
+      </c>
+      <c r="AH167">
+        <v>50.08</v>
+      </c>
+      <c r="AI167">
+        <v>1079.98</v>
+      </c>
+      <c r="AJ167">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="AK167">
+        <v>192.27</v>
+      </c>
+      <c r="AL167">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AM167">
+        <v>0.21</v>
+      </c>
+      <c r="AN167">
+        <v>32.68</v>
+      </c>
+      <c r="AO167">
+        <v>13.82</v>
+      </c>
+      <c r="AP167">
+        <v>15.71</v>
+      </c>
+      <c r="AQ167">
+        <v>38.86</v>
+      </c>
+      <c r="AR167">
+        <v>18.45</v>
+      </c>
+      <c r="AS167">
+        <v>101.79</v>
+      </c>
+      <c r="AT167">
+        <v>53.37</v>
+      </c>
+      <c r="AU167">
+        <v>150.91</v>
+      </c>
+      <c r="AV167">
+        <v>0.02</v>
+      </c>
+      <c r="AW167">
+        <v>209.17</v>
+      </c>
+      <c r="AX167">
+        <v>187.25</v>
+      </c>
+      <c r="AY167">
+        <v>10.66</v>
+      </c>
+      <c r="AZ167">
+        <v>10.65</v>
+      </c>
+      <c r="BA167">
+        <v>0.05</v>
+      </c>
+      <c r="BB167">
+        <v>4.73</v>
+      </c>
+      <c r="BC167">
+        <v>243.57</v>
+      </c>
+      <c r="BD167">
+        <v>1.84</v>
+      </c>
+      <c r="BE167">
+        <v>0.67</v>
+      </c>
+      <c r="BF167">
+        <v>7.14</v>
+      </c>
+      <c r="BG167">
+        <v>121.38</v>
+      </c>
+      <c r="BH167">
+        <v>202.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:60">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168">
+        <v>24.04</v>
+      </c>
+      <c r="C168">
+        <v>779.97</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>113.7</v>
+      </c>
+      <c r="F168">
+        <v>1.25</v>
+      </c>
+      <c r="G168">
+        <v>35.98</v>
+      </c>
+      <c r="H168">
+        <v>123.76</v>
+      </c>
+      <c r="I168">
+        <v>6.15</v>
+      </c>
+      <c r="J168">
+        <v>90.01000000000001</v>
+      </c>
+      <c r="K168">
+        <v>90.48</v>
+      </c>
+      <c r="L168">
+        <v>1109.65</v>
+      </c>
+      <c r="M168">
+        <v>212.41</v>
+      </c>
+      <c r="N168">
+        <v>88.33</v>
+      </c>
+      <c r="O168">
+        <v>568.8200000000001</v>
+      </c>
+      <c r="P168">
+        <v>618.4299999999999</v>
+      </c>
+      <c r="Q168">
+        <v>779.97</v>
+      </c>
+      <c r="R168">
+        <v>779.97</v>
+      </c>
+      <c r="S168">
+        <v>372.05</v>
+      </c>
+      <c r="T168">
+        <v>951.1799999999999</v>
+      </c>
+      <c r="U168">
+        <v>779.97</v>
+      </c>
+      <c r="V168">
+        <v>579.99</v>
+      </c>
+      <c r="W168">
+        <v>100.16</v>
+      </c>
+      <c r="X168">
+        <v>546.2</v>
+      </c>
+      <c r="Y168">
+        <v>28.09</v>
+      </c>
+      <c r="Z168">
+        <v>0.03</v>
+      </c>
+      <c r="AA168">
+        <v>920.21</v>
+      </c>
+      <c r="AB168">
+        <v>2.65</v>
+      </c>
+      <c r="AC168">
+        <v>7.73</v>
+      </c>
+      <c r="AD168">
+        <v>850.85</v>
+      </c>
+      <c r="AE168">
+        <v>0.11</v>
+      </c>
+      <c r="AF168">
+        <v>29.21</v>
+      </c>
+      <c r="AG168">
+        <v>186.48</v>
+      </c>
+      <c r="AH168">
+        <v>49.83</v>
+      </c>
+      <c r="AI168">
+        <v>1073.3</v>
+      </c>
+      <c r="AJ168">
+        <v>92.98999999999999</v>
+      </c>
+      <c r="AK168">
+        <v>191.41</v>
+      </c>
+      <c r="AL168">
+        <v>7.98</v>
+      </c>
+      <c r="AM168">
+        <v>0.2</v>
+      </c>
+      <c r="AN168">
+        <v>32.5</v>
+      </c>
+      <c r="AO168">
+        <v>13.74</v>
+      </c>
+      <c r="AP168">
+        <v>15.66</v>
+      </c>
+      <c r="AQ168">
+        <v>38.74</v>
+      </c>
+      <c r="AR168">
+        <v>18.41</v>
+      </c>
+      <c r="AS168">
+        <v>101.09</v>
+      </c>
+      <c r="AT168">
+        <v>53.2</v>
+      </c>
+      <c r="AU168">
+        <v>150.28</v>
+      </c>
+      <c r="AV168">
+        <v>0.02</v>
+      </c>
+      <c r="AW168">
+        <v>207.99</v>
+      </c>
+      <c r="AX168">
+        <v>187.81</v>
+      </c>
+      <c r="AY168">
+        <v>10.61</v>
+      </c>
+      <c r="AZ168">
+        <v>10.65</v>
+      </c>
+      <c r="BA168">
+        <v>0.05</v>
+      </c>
+      <c r="BB168">
+        <v>4.72</v>
+      </c>
+      <c r="BC168">
+        <v>242.64</v>
+      </c>
+      <c r="BD168">
+        <v>1.83</v>
+      </c>
+      <c r="BE168">
+        <v>0.67</v>
+      </c>
+      <c r="BF168">
+        <v>7.1</v>
+      </c>
+      <c r="BG168">
+        <v>120.67</v>
+      </c>
+      <c r="BH168">
+        <v>201.92</v>
+      </c>
+    </row>
+    <row r="169" spans="1:60">
+      <c r="A169" t="s">
+        <v>227</v>
+      </c>
+      <c r="B169">
+        <v>24.05</v>
+      </c>
+      <c r="C169">
+        <v>775.14</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>112.99</v>
+      </c>
+      <c r="F169">
+        <v>1.25</v>
+      </c>
+      <c r="G169">
+        <v>36.03</v>
+      </c>
+      <c r="H169">
+        <v>123.1</v>
+      </c>
+      <c r="I169">
+        <v>6.16</v>
+      </c>
+      <c r="J169">
+        <v>89.20999999999999</v>
+      </c>
+      <c r="K169">
+        <v>89.89</v>
+      </c>
+      <c r="L169">
+        <v>1104.03</v>
+      </c>
+      <c r="M169">
+        <v>211.09</v>
+      </c>
+      <c r="N169">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="O169">
+        <v>567</v>
+      </c>
+      <c r="P169">
+        <v>614.85</v>
+      </c>
+      <c r="Q169">
+        <v>775.14</v>
+      </c>
+      <c r="R169">
+        <v>775.14</v>
+      </c>
+      <c r="S169">
+        <v>369.66</v>
+      </c>
+      <c r="T169">
+        <v>945.29</v>
+      </c>
+      <c r="U169">
+        <v>775.14</v>
+      </c>
+      <c r="V169">
+        <v>576.74</v>
+      </c>
+      <c r="W169">
+        <v>99.67</v>
+      </c>
+      <c r="X169">
+        <v>546.64</v>
+      </c>
+      <c r="Y169">
+        <v>28.02</v>
+      </c>
+      <c r="Z169">
+        <v>0.03</v>
+      </c>
+      <c r="AA169">
+        <v>915.48</v>
+      </c>
+      <c r="AB169">
+        <v>2.63</v>
+      </c>
+      <c r="AC169">
+        <v>7.67</v>
+      </c>
+      <c r="AD169">
+        <v>847.05</v>
+      </c>
+      <c r="AE169">
+        <v>0.11</v>
+      </c>
+      <c r="AF169">
+        <v>28.95</v>
+      </c>
+      <c r="AG169">
+        <v>185.6</v>
+      </c>
+      <c r="AH169">
+        <v>49.51</v>
+      </c>
+      <c r="AI169">
+        <v>1066.22</v>
+      </c>
+      <c r="AJ169">
+        <v>93.26000000000001</v>
+      </c>
+      <c r="AK169">
+        <v>189.64</v>
+      </c>
+      <c r="AL169">
+        <v>7.93</v>
+      </c>
+      <c r="AM169">
+        <v>0.21</v>
+      </c>
+      <c r="AN169">
+        <v>32.3</v>
+      </c>
+      <c r="AO169">
+        <v>13.67</v>
+      </c>
+      <c r="AP169">
+        <v>15.59</v>
+      </c>
+      <c r="AQ169">
+        <v>38.61</v>
+      </c>
+      <c r="AR169">
+        <v>18.34</v>
+      </c>
+      <c r="AS169">
+        <v>100.5</v>
+      </c>
+      <c r="AT169">
+        <v>53.42</v>
+      </c>
+      <c r="AU169">
+        <v>150.11</v>
+      </c>
+      <c r="AV169">
+        <v>0.02</v>
+      </c>
+      <c r="AW169">
+        <v>206.7</v>
+      </c>
+      <c r="AX169">
+        <v>186.65</v>
+      </c>
+      <c r="AY169">
+        <v>10.58</v>
+      </c>
+      <c r="AZ169">
+        <v>10.62</v>
+      </c>
+      <c r="BA169">
+        <v>0.05</v>
+      </c>
+      <c r="BB169">
+        <v>4.66</v>
+      </c>
+      <c r="BC169">
+        <v>241.76</v>
+      </c>
+      <c r="BD169">
+        <v>1.82</v>
+      </c>
+      <c r="BE169">
+        <v>0.67</v>
+      </c>
+      <c r="BF169">
+        <v>7.05</v>
+      </c>
+      <c r="BG169">
+        <v>120.1</v>
+      </c>
+      <c r="BH169">
+        <v>202.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:60">
+      <c r="A170" t="s">
+        <v>228</v>
+      </c>
+      <c r="B170">
+        <v>23.76</v>
+      </c>
+      <c r="C170">
+        <v>767.1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>111.82</v>
+      </c>
+      <c r="F170">
+        <v>1.23</v>
+      </c>
+      <c r="G170">
+        <v>35.86</v>
+      </c>
+      <c r="H170">
+        <v>122.2</v>
+      </c>
+      <c r="I170">
+        <v>6.06</v>
+      </c>
+      <c r="J170">
+        <v>88.31</v>
+      </c>
+      <c r="K170">
+        <v>89.14</v>
+      </c>
+      <c r="L170">
+        <v>1091.8</v>
+      </c>
+      <c r="M170">
+        <v>208.91</v>
+      </c>
+      <c r="N170">
+        <v>87.06999999999999</v>
+      </c>
+      <c r="O170">
+        <v>565.5</v>
+      </c>
+      <c r="P170">
+        <v>607.9400000000001</v>
+      </c>
+      <c r="Q170">
+        <v>767.1</v>
+      </c>
+      <c r="R170">
+        <v>767.1</v>
+      </c>
+      <c r="S170">
+        <v>366.67</v>
+      </c>
+      <c r="T170">
+        <v>935.49</v>
+      </c>
+      <c r="U170">
+        <v>767.1</v>
+      </c>
+      <c r="V170">
+        <v>570.72</v>
+      </c>
+      <c r="W170">
+        <v>98.64</v>
+      </c>
+      <c r="X170">
+        <v>542.12</v>
+      </c>
+      <c r="Y170">
+        <v>27.67</v>
+      </c>
+      <c r="Z170">
+        <v>0.03</v>
+      </c>
+      <c r="AA170">
+        <v>908.67</v>
+      </c>
+      <c r="AB170">
+        <v>2.61</v>
+      </c>
+      <c r="AC170">
+        <v>7.6</v>
+      </c>
+      <c r="AD170">
+        <v>838.54</v>
+      </c>
+      <c r="AE170">
+        <v>0.11</v>
+      </c>
+      <c r="AF170">
+        <v>28.52</v>
+      </c>
+      <c r="AG170">
+        <v>184.19</v>
+      </c>
+      <c r="AH170">
+        <v>49.03</v>
+      </c>
+      <c r="AI170">
+        <v>1057.05</v>
+      </c>
+      <c r="AJ170">
+        <v>92.53</v>
+      </c>
+      <c r="AK170">
+        <v>188</v>
+      </c>
+      <c r="AL170">
+        <v>7.84</v>
+      </c>
+      <c r="AM170">
+        <v>0.2</v>
+      </c>
+      <c r="AN170">
+        <v>31.96</v>
+      </c>
+      <c r="AO170">
+        <v>13.53</v>
+      </c>
+      <c r="AP170">
+        <v>15.33</v>
+      </c>
+      <c r="AQ170">
+        <v>38.37</v>
+      </c>
+      <c r="AR170">
+        <v>18.07</v>
+      </c>
+      <c r="AS170">
+        <v>99.25</v>
+      </c>
+      <c r="AT170">
+        <v>53.24</v>
+      </c>
+      <c r="AU170">
+        <v>148.3</v>
+      </c>
+      <c r="AV170">
+        <v>0.02</v>
+      </c>
+      <c r="AW170">
+        <v>204.56</v>
+      </c>
+      <c r="AX170">
+        <v>184.69</v>
+      </c>
+      <c r="AY170">
+        <v>10.52</v>
+      </c>
+      <c r="AZ170">
+        <v>10.5</v>
+      </c>
+      <c r="BA170">
+        <v>0.05</v>
+      </c>
+      <c r="BB170">
+        <v>4.6</v>
+      </c>
+      <c r="BC170">
+        <v>239.23</v>
+      </c>
+      <c r="BD170">
+        <v>1.8</v>
+      </c>
+      <c r="BE170">
+        <v>0.66</v>
+      </c>
+      <c r="BF170">
+        <v>6.97</v>
+      </c>
+      <c r="BG170">
+        <v>118.92</v>
+      </c>
+      <c r="BH170">
+        <v>201.71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:60">
+      <c r="A171" t="s">
+        <v>229</v>
+      </c>
+      <c r="B171">
+        <v>23.68</v>
+      </c>
+      <c r="C171">
+        <v>768.36</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>112.01</v>
+      </c>
+      <c r="F171">
+        <v>1.23</v>
+      </c>
+      <c r="G171">
+        <v>35.92</v>
+      </c>
+      <c r="H171">
+        <v>122.67</v>
+      </c>
+      <c r="I171">
+        <v>6.07</v>
+      </c>
+      <c r="J171">
+        <v>88.76000000000001</v>
+      </c>
+      <c r="K171">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="L171">
+        <v>1093.6</v>
+      </c>
+      <c r="M171">
+        <v>209.25</v>
+      </c>
+      <c r="N171">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="O171">
+        <v>568.52</v>
+      </c>
+      <c r="P171">
+        <v>611.8</v>
+      </c>
+      <c r="Q171">
+        <v>768.36</v>
+      </c>
+      <c r="R171">
+        <v>768.36</v>
+      </c>
+      <c r="S171">
+        <v>368.27</v>
+      </c>
+      <c r="T171">
+        <v>937.02</v>
+      </c>
+      <c r="U171">
+        <v>768.36</v>
+      </c>
+      <c r="V171">
+        <v>572.34</v>
+      </c>
+      <c r="W171">
+        <v>98.88</v>
+      </c>
+      <c r="X171">
+        <v>546.45</v>
+      </c>
+      <c r="Y171">
+        <v>27.75</v>
+      </c>
+      <c r="Z171">
+        <v>0.03</v>
+      </c>
+      <c r="AA171">
+        <v>912.11</v>
+      </c>
+      <c r="AB171">
+        <v>2.62</v>
+      </c>
+      <c r="AC171">
+        <v>7.62</v>
+      </c>
+      <c r="AD171">
+        <v>839.83</v>
+      </c>
+      <c r="AE171">
+        <v>0.11</v>
+      </c>
+      <c r="AF171">
+        <v>28.64</v>
+      </c>
+      <c r="AG171">
+        <v>184.78</v>
+      </c>
+      <c r="AH171">
+        <v>48.94</v>
+      </c>
+      <c r="AI171">
+        <v>1062.59</v>
+      </c>
+      <c r="AJ171">
+        <v>92.87</v>
+      </c>
+      <c r="AK171">
+        <v>187.38</v>
+      </c>
+      <c r="AL171">
+        <v>7.85</v>
+      </c>
+      <c r="AM171">
+        <v>0.2</v>
+      </c>
+      <c r="AN171">
+        <v>32.02</v>
+      </c>
+      <c r="AO171">
+        <v>13.59</v>
+      </c>
+      <c r="AP171">
+        <v>15.42</v>
+      </c>
+      <c r="AQ171">
+        <v>38.46</v>
+      </c>
+      <c r="AR171">
+        <v>18.07</v>
+      </c>
+      <c r="AS171">
+        <v>99.69</v>
+      </c>
+      <c r="AT171">
+        <v>53.07</v>
+      </c>
+      <c r="AU171">
+        <v>148.56</v>
+      </c>
+      <c r="AV171">
+        <v>0.02</v>
+      </c>
+      <c r="AW171">
+        <v>204.9</v>
+      </c>
+      <c r="AX171">
+        <v>184.84</v>
+      </c>
+      <c r="AY171">
+        <v>10.54</v>
+      </c>
+      <c r="AZ171">
+        <v>10.52</v>
+      </c>
+      <c r="BA171">
+        <v>0.05</v>
+      </c>
+      <c r="BB171">
+        <v>4.6</v>
+      </c>
+      <c r="BC171">
+        <v>239.68</v>
+      </c>
+      <c r="BD171">
+        <v>1.81</v>
+      </c>
+      <c r="BE171">
+        <v>0.66</v>
+      </c>
+      <c r="BF171">
+        <v>6.99</v>
+      </c>
+      <c r="BG171">
+        <v>119.15</v>
+      </c>
+      <c r="BH171">
+        <v>202.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:60">
+      <c r="A172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172">
+        <v>23.62</v>
+      </c>
+      <c r="C172">
+        <v>766.53</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>111.74</v>
+      </c>
+      <c r="F172">
+        <v>1.23</v>
+      </c>
+      <c r="G172">
+        <v>35.95</v>
+      </c>
+      <c r="H172">
+        <v>122.58</v>
+      </c>
+      <c r="I172">
+        <v>6.07</v>
+      </c>
+      <c r="J172">
+        <v>88.66</v>
+      </c>
+      <c r="K172">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="L172">
+        <v>1090.99</v>
+      </c>
+      <c r="M172">
+        <v>208.75</v>
+      </c>
+      <c r="N172">
+        <v>86.03</v>
+      </c>
+      <c r="O172">
+        <v>571.8200000000001</v>
+      </c>
+      <c r="P172">
+        <v>612.59</v>
+      </c>
+      <c r="Q172">
+        <v>766.53</v>
+      </c>
+      <c r="R172">
+        <v>766.53</v>
+      </c>
+      <c r="S172">
+        <v>368.63</v>
+      </c>
+      <c r="T172">
+        <v>934.79</v>
+      </c>
+      <c r="U172">
+        <v>766.53</v>
+      </c>
+      <c r="V172">
+        <v>571.7</v>
+      </c>
+      <c r="W172">
+        <v>98.64</v>
+      </c>
+      <c r="X172">
+        <v>549.29</v>
+      </c>
+      <c r="Y172">
+        <v>27.71</v>
+      </c>
+      <c r="Z172">
+        <v>0.03</v>
+      </c>
+      <c r="AA172">
+        <v>911.45</v>
+      </c>
+      <c r="AB172">
+        <v>2.63</v>
+      </c>
+      <c r="AC172">
+        <v>7.64</v>
+      </c>
+      <c r="AD172">
+        <v>839.3</v>
+      </c>
+      <c r="AE172">
+        <v>0.11</v>
+      </c>
+      <c r="AF172">
+        <v>28.54</v>
+      </c>
+      <c r="AG172">
+        <v>184.37</v>
+      </c>
+      <c r="AH172">
+        <v>48.91</v>
+      </c>
+      <c r="AI172">
+        <v>1064.03</v>
+      </c>
+      <c r="AJ172">
+        <v>92.25</v>
+      </c>
+      <c r="AK172">
+        <v>187.35</v>
+      </c>
+      <c r="AL172">
+        <v>7.83</v>
+      </c>
+      <c r="AM172">
+        <v>0.2</v>
+      </c>
+      <c r="AN172">
+        <v>31.94</v>
+      </c>
+      <c r="AO172">
+        <v>13.51</v>
+      </c>
+      <c r="AP172">
+        <v>15.39</v>
+      </c>
+      <c r="AQ172">
+        <v>38.53</v>
+      </c>
+      <c r="AR172">
+        <v>18.02</v>
+      </c>
+      <c r="AS172">
+        <v>99.19</v>
+      </c>
+      <c r="AT172">
+        <v>53.73</v>
+      </c>
+      <c r="AU172">
+        <v>147.8</v>
+      </c>
+      <c r="AV172">
+        <v>0.02</v>
+      </c>
+      <c r="AW172">
+        <v>204.41</v>
+      </c>
+      <c r="AX172">
+        <v>184.95</v>
+      </c>
+      <c r="AY172">
+        <v>10.54</v>
+      </c>
+      <c r="AZ172">
+        <v>10.5</v>
+      </c>
+      <c r="BA172">
+        <v>0.05</v>
+      </c>
+      <c r="BB172">
+        <v>4.6</v>
+      </c>
+      <c r="BC172">
+        <v>239.5</v>
+      </c>
+      <c r="BD172">
+        <v>1.8</v>
+      </c>
+      <c r="BE172">
+        <v>0.66</v>
+      </c>
+      <c r="BF172">
+        <v>6.99</v>
+      </c>
+      <c r="BG172">
+        <v>119.09</v>
+      </c>
+      <c r="BH172">
+        <v>202.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Serie</t>
   </si>
@@ -708,6 +708,9 @@
   <si>
     <t>06-09-2021</t>
   </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH172"/>
+  <dimension ref="A1:BH173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32374,6 +32377,188 @@
         <v>202.26</v>
       </c>
     </row>
+    <row r="173" spans="1:60">
+      <c r="A173" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173">
+        <v>23.72</v>
+      </c>
+      <c r="C173">
+        <v>770.33</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>112.29</v>
+      </c>
+      <c r="F173">
+        <v>1.23</v>
+      </c>
+      <c r="G173">
+        <v>36.02</v>
+      </c>
+      <c r="H173">
+        <v>122.96</v>
+      </c>
+      <c r="I173">
+        <v>6.07</v>
+      </c>
+      <c r="J173">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="K173">
+        <v>89.98</v>
+      </c>
+      <c r="L173">
+        <v>1096.4</v>
+      </c>
+      <c r="M173">
+        <v>209.78</v>
+      </c>
+      <c r="N173">
+        <v>87.66</v>
+      </c>
+      <c r="O173">
+        <v>572.74</v>
+      </c>
+      <c r="P173">
+        <v>614.84</v>
+      </c>
+      <c r="Q173">
+        <v>770.33</v>
+      </c>
+      <c r="R173">
+        <v>770.33</v>
+      </c>
+      <c r="S173">
+        <v>371.83</v>
+      </c>
+      <c r="T173">
+        <v>939.4299999999999</v>
+      </c>
+      <c r="U173">
+        <v>770.33</v>
+      </c>
+      <c r="V173">
+        <v>574.02</v>
+      </c>
+      <c r="W173">
+        <v>99.09</v>
+      </c>
+      <c r="X173">
+        <v>549.49</v>
+      </c>
+      <c r="Y173">
+        <v>27.93</v>
+      </c>
+      <c r="Z173">
+        <v>0.03</v>
+      </c>
+      <c r="AA173">
+        <v>914.23</v>
+      </c>
+      <c r="AB173">
+        <v>2.63</v>
+      </c>
+      <c r="AC173">
+        <v>7.64</v>
+      </c>
+      <c r="AD173">
+        <v>841.89</v>
+      </c>
+      <c r="AE173">
+        <v>0.11</v>
+      </c>
+      <c r="AF173">
+        <v>28.92</v>
+      </c>
+      <c r="AG173">
+        <v>184.88</v>
+      </c>
+      <c r="AH173">
+        <v>49.24</v>
+      </c>
+      <c r="AI173">
+        <v>1065.61</v>
+      </c>
+      <c r="AJ173">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="AK173">
+        <v>187.76</v>
+      </c>
+      <c r="AL173">
+        <v>7.86</v>
+      </c>
+      <c r="AM173">
+        <v>0.2</v>
+      </c>
+      <c r="AN173">
+        <v>32.1</v>
+      </c>
+      <c r="AO173">
+        <v>13.56</v>
+      </c>
+      <c r="AP173">
+        <v>15.43</v>
+      </c>
+      <c r="AQ173">
+        <v>38.72</v>
+      </c>
+      <c r="AR173">
+        <v>18.1</v>
+      </c>
+      <c r="AS173">
+        <v>99.68000000000001</v>
+      </c>
+      <c r="AT173">
+        <v>54.13</v>
+      </c>
+      <c r="AU173">
+        <v>149.22</v>
+      </c>
+      <c r="AV173">
+        <v>0.02</v>
+      </c>
+      <c r="AW173">
+        <v>205.42</v>
+      </c>
+      <c r="AX173">
+        <v>185.78</v>
+      </c>
+      <c r="AY173">
+        <v>10.55</v>
+      </c>
+      <c r="AZ173">
+        <v>10.54</v>
+      </c>
+      <c r="BA173">
+        <v>0.05</v>
+      </c>
+      <c r="BB173">
+        <v>4.62</v>
+      </c>
+      <c r="BC173">
+        <v>240.66</v>
+      </c>
+      <c r="BD173">
+        <v>1.81</v>
+      </c>
+      <c r="BE173">
+        <v>0.67</v>
+      </c>
+      <c r="BF173">
+        <v>7.01</v>
+      </c>
+      <c r="BG173">
+        <v>119.42</v>
+      </c>
+      <c r="BH173">
+        <v>202.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -711,6 +711,9 @@
   <si>
     <t>07-09-2021</t>
   </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH173"/>
+  <dimension ref="A1:BH174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32559,6 +32562,188 @@
         <v>202.09</v>
       </c>
     </row>
+    <row r="174" spans="1:60">
+      <c r="A174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B174">
+        <v>23.8</v>
+      </c>
+      <c r="C174">
+        <v>777.9400000000001</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>113.4</v>
+      </c>
+      <c r="F174">
+        <v>1.26</v>
+      </c>
+      <c r="G174">
+        <v>36.31</v>
+      </c>
+      <c r="H174">
+        <v>123.92</v>
+      </c>
+      <c r="I174">
+        <v>6.12</v>
+      </c>
+      <c r="J174">
+        <v>89.67</v>
+      </c>
+      <c r="K174">
+        <v>90.56</v>
+      </c>
+      <c r="L174">
+        <v>1109.28</v>
+      </c>
+      <c r="M174">
+        <v>211.86</v>
+      </c>
+      <c r="N174">
+        <v>87.77</v>
+      </c>
+      <c r="O174">
+        <v>574.97</v>
+      </c>
+      <c r="P174">
+        <v>615.8</v>
+      </c>
+      <c r="Q174">
+        <v>777.9400000000001</v>
+      </c>
+      <c r="R174">
+        <v>777.9400000000001</v>
+      </c>
+      <c r="S174">
+        <v>375.91</v>
+      </c>
+      <c r="T174">
+        <v>948.71</v>
+      </c>
+      <c r="U174">
+        <v>777.9400000000001</v>
+      </c>
+      <c r="V174">
+        <v>578.27</v>
+      </c>
+      <c r="W174">
+        <v>100.06</v>
+      </c>
+      <c r="X174">
+        <v>552.28</v>
+      </c>
+      <c r="Y174">
+        <v>28.19</v>
+      </c>
+      <c r="Z174">
+        <v>0.03</v>
+      </c>
+      <c r="AA174">
+        <v>921.4</v>
+      </c>
+      <c r="AB174">
+        <v>2.64</v>
+      </c>
+      <c r="AC174">
+        <v>7.74</v>
+      </c>
+      <c r="AD174">
+        <v>846.41</v>
+      </c>
+      <c r="AE174">
+        <v>0.11</v>
+      </c>
+      <c r="AF174">
+        <v>29.34</v>
+      </c>
+      <c r="AG174">
+        <v>186.18</v>
+      </c>
+      <c r="AH174">
+        <v>49.5</v>
+      </c>
+      <c r="AI174">
+        <v>1072.58</v>
+      </c>
+      <c r="AJ174">
+        <v>93.26000000000001</v>
+      </c>
+      <c r="AK174">
+        <v>189.86</v>
+      </c>
+      <c r="AL174">
+        <v>7.94</v>
+      </c>
+      <c r="AM174">
+        <v>0.2</v>
+      </c>
+      <c r="AN174">
+        <v>32.41</v>
+      </c>
+      <c r="AO174">
+        <v>13.75</v>
+      </c>
+      <c r="AP174">
+        <v>15.56</v>
+      </c>
+      <c r="AQ174">
+        <v>39.01</v>
+      </c>
+      <c r="AR174">
+        <v>18.34</v>
+      </c>
+      <c r="AS174">
+        <v>100.91</v>
+      </c>
+      <c r="AT174">
+        <v>54.45</v>
+      </c>
+      <c r="AU174">
+        <v>150.52</v>
+      </c>
+      <c r="AV174">
+        <v>0.02</v>
+      </c>
+      <c r="AW174">
+        <v>207.45</v>
+      </c>
+      <c r="AX174">
+        <v>187.25</v>
+      </c>
+      <c r="AY174">
+        <v>10.62</v>
+      </c>
+      <c r="AZ174">
+        <v>10.6</v>
+      </c>
+      <c r="BA174">
+        <v>0.05</v>
+      </c>
+      <c r="BB174">
+        <v>4.65</v>
+      </c>
+      <c r="BC174">
+        <v>242.98</v>
+      </c>
+      <c r="BD174">
+        <v>1.83</v>
+      </c>
+      <c r="BE174">
+        <v>0.67</v>
+      </c>
+      <c r="BF174">
+        <v>7.06</v>
+      </c>
+      <c r="BG174">
+        <v>120.43</v>
+      </c>
+      <c r="BH174">
+        <v>204.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -714,6 +714,9 @@
   <si>
     <t>08-09-2021</t>
   </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH174"/>
+  <dimension ref="A1:BH175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32744,6 +32747,188 @@
         <v>204.44</v>
       </c>
     </row>
+    <row r="175" spans="1:60">
+      <c r="A175" t="s">
+        <v>233</v>
+      </c>
+      <c r="B175">
+        <v>24.05</v>
+      </c>
+      <c r="C175">
+        <v>787.51</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>114.8</v>
+      </c>
+      <c r="F175">
+        <v>1.26</v>
+      </c>
+      <c r="G175">
+        <v>36.64</v>
+      </c>
+      <c r="H175">
+        <v>125.23</v>
+      </c>
+      <c r="I175">
+        <v>6.19</v>
+      </c>
+      <c r="J175">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="K175">
+        <v>91.37</v>
+      </c>
+      <c r="L175">
+        <v>1120.85</v>
+      </c>
+      <c r="M175">
+        <v>214.46</v>
+      </c>
+      <c r="N175">
+        <v>89.36</v>
+      </c>
+      <c r="O175">
+        <v>580.63</v>
+      </c>
+      <c r="P175">
+        <v>621.85</v>
+      </c>
+      <c r="Q175">
+        <v>787.51</v>
+      </c>
+      <c r="R175">
+        <v>787.51</v>
+      </c>
+      <c r="S175">
+        <v>378.08</v>
+      </c>
+      <c r="T175">
+        <v>960.38</v>
+      </c>
+      <c r="U175">
+        <v>787.51</v>
+      </c>
+      <c r="V175">
+        <v>585.29</v>
+      </c>
+      <c r="W175">
+        <v>101.28</v>
+      </c>
+      <c r="X175">
+        <v>559.4299999999999</v>
+      </c>
+      <c r="Y175">
+        <v>28.4</v>
+      </c>
+      <c r="Z175">
+        <v>0.03</v>
+      </c>
+      <c r="AA175">
+        <v>931.1900000000001</v>
+      </c>
+      <c r="AB175">
+        <v>2.66</v>
+      </c>
+      <c r="AC175">
+        <v>7.82</v>
+      </c>
+      <c r="AD175">
+        <v>854.41</v>
+      </c>
+      <c r="AE175">
+        <v>0.11</v>
+      </c>
+      <c r="AF175">
+        <v>29.64</v>
+      </c>
+      <c r="AG175">
+        <v>188.36</v>
+      </c>
+      <c r="AH175">
+        <v>50.3</v>
+      </c>
+      <c r="AI175">
+        <v>1084.87</v>
+      </c>
+      <c r="AJ175">
+        <v>93.08</v>
+      </c>
+      <c r="AK175">
+        <v>192.89</v>
+      </c>
+      <c r="AL175">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AM175">
+        <v>0.21</v>
+      </c>
+      <c r="AN175">
+        <v>32.81</v>
+      </c>
+      <c r="AO175">
+        <v>14.02</v>
+      </c>
+      <c r="AP175">
+        <v>15.72</v>
+      </c>
+      <c r="AQ175">
+        <v>39.49</v>
+      </c>
+      <c r="AR175">
+        <v>18.54</v>
+      </c>
+      <c r="AS175">
+        <v>102.11</v>
+      </c>
+      <c r="AT175">
+        <v>55.45</v>
+      </c>
+      <c r="AU175">
+        <v>148.58</v>
+      </c>
+      <c r="AV175">
+        <v>0.02</v>
+      </c>
+      <c r="AW175">
+        <v>210</v>
+      </c>
+      <c r="AX175">
+        <v>189.78</v>
+      </c>
+      <c r="AY175">
+        <v>10.75</v>
+      </c>
+      <c r="AZ175">
+        <v>10.7</v>
+      </c>
+      <c r="BA175">
+        <v>0.06</v>
+      </c>
+      <c r="BB175">
+        <v>4.71</v>
+      </c>
+      <c r="BC175">
+        <v>245.74</v>
+      </c>
+      <c r="BD175">
+        <v>1.85</v>
+      </c>
+      <c r="BE175">
+        <v>0.68</v>
+      </c>
+      <c r="BF175">
+        <v>7.14</v>
+      </c>
+      <c r="BG175">
+        <v>121.98</v>
+      </c>
+      <c r="BH175">
+        <v>206.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Serie</t>
   </si>
@@ -717,6 +717,24 @@
   <si>
     <t>09-09-2021</t>
   </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1073,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH175"/>
+  <dimension ref="A1:BH181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32929,6 +32947,1098 @@
         <v>206.17</v>
       </c>
     </row>
+    <row r="176" spans="1:60">
+      <c r="A176" t="s">
+        <v>234</v>
+      </c>
+      <c r="B176">
+        <v>24.21</v>
+      </c>
+      <c r="C176">
+        <v>791.28</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>115.35</v>
+      </c>
+      <c r="F176">
+        <v>1.26</v>
+      </c>
+      <c r="G176">
+        <v>36.81</v>
+      </c>
+      <c r="H176">
+        <v>125.91</v>
+      </c>
+      <c r="I176">
+        <v>6.21</v>
+      </c>
+      <c r="J176">
+        <v>91.2</v>
+      </c>
+      <c r="K176">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="L176">
+        <v>1127.34</v>
+      </c>
+      <c r="M176">
+        <v>215.49</v>
+      </c>
+      <c r="N176">
+        <v>89.81</v>
+      </c>
+      <c r="O176">
+        <v>583.24</v>
+      </c>
+      <c r="P176">
+        <v>625.86</v>
+      </c>
+      <c r="Q176">
+        <v>791.28</v>
+      </c>
+      <c r="R176">
+        <v>791.28</v>
+      </c>
+      <c r="S176">
+        <v>379.66</v>
+      </c>
+      <c r="T176">
+        <v>964.98</v>
+      </c>
+      <c r="U176">
+        <v>791.28</v>
+      </c>
+      <c r="V176">
+        <v>589.45</v>
+      </c>
+      <c r="W176">
+        <v>101.75</v>
+      </c>
+      <c r="X176">
+        <v>562.75</v>
+      </c>
+      <c r="Y176">
+        <v>28.59</v>
+      </c>
+      <c r="Z176">
+        <v>0.03</v>
+      </c>
+      <c r="AA176">
+        <v>936.2</v>
+      </c>
+      <c r="AB176">
+        <v>2.67</v>
+      </c>
+      <c r="AC176">
+        <v>7.84</v>
+      </c>
+      <c r="AD176">
+        <v>863.1799999999999</v>
+      </c>
+      <c r="AE176">
+        <v>0.11</v>
+      </c>
+      <c r="AF176">
+        <v>29.74</v>
+      </c>
+      <c r="AG176">
+        <v>189.47</v>
+      </c>
+      <c r="AH176">
+        <v>50.35</v>
+      </c>
+      <c r="AI176">
+        <v>1095.65</v>
+      </c>
+      <c r="AJ176">
+        <v>93.81999999999999</v>
+      </c>
+      <c r="AK176">
+        <v>193.07</v>
+      </c>
+      <c r="AL176">
+        <v>8.07</v>
+      </c>
+      <c r="AM176">
+        <v>0.21</v>
+      </c>
+      <c r="AN176">
+        <v>32.97</v>
+      </c>
+      <c r="AO176">
+        <v>13.99</v>
+      </c>
+      <c r="AP176">
+        <v>15.85</v>
+      </c>
+      <c r="AQ176">
+        <v>39.68</v>
+      </c>
+      <c r="AR176">
+        <v>18.59</v>
+      </c>
+      <c r="AS176">
+        <v>102.72</v>
+      </c>
+      <c r="AT176">
+        <v>55.76</v>
+      </c>
+      <c r="AU176">
+        <v>149.3</v>
+      </c>
+      <c r="AV176">
+        <v>0.02</v>
+      </c>
+      <c r="AW176">
+        <v>211.01</v>
+      </c>
+      <c r="AX176">
+        <v>190.81</v>
+      </c>
+      <c r="AY176">
+        <v>10.85</v>
+      </c>
+      <c r="AZ176">
+        <v>10.77</v>
+      </c>
+      <c r="BA176">
+        <v>0.06</v>
+      </c>
+      <c r="BB176">
+        <v>4.72</v>
+      </c>
+      <c r="BC176">
+        <v>246.95</v>
+      </c>
+      <c r="BD176">
+        <v>1.86</v>
+      </c>
+      <c r="BE176">
+        <v>0.68</v>
+      </c>
+      <c r="BF176">
+        <v>7.22</v>
+      </c>
+      <c r="BG176">
+        <v>122.66</v>
+      </c>
+      <c r="BH176">
+        <v>206.27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:60">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177">
+        <v>24.16</v>
+      </c>
+      <c r="C177">
+        <v>789.91</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>115.15</v>
+      </c>
+      <c r="F177">
+        <v>1.26</v>
+      </c>
+      <c r="G177">
+        <v>36.82</v>
+      </c>
+      <c r="H177">
+        <v>125.51</v>
+      </c>
+      <c r="I177">
+        <v>6.18</v>
+      </c>
+      <c r="J177">
+        <v>91.29000000000001</v>
+      </c>
+      <c r="K177">
+        <v>91.61</v>
+      </c>
+      <c r="L177">
+        <v>1126.19</v>
+      </c>
+      <c r="M177">
+        <v>215.12</v>
+      </c>
+      <c r="N177">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="O177">
+        <v>582.01</v>
+      </c>
+      <c r="P177">
+        <v>624.48</v>
+      </c>
+      <c r="Q177">
+        <v>789.91</v>
+      </c>
+      <c r="R177">
+        <v>789.91</v>
+      </c>
+      <c r="S177">
+        <v>379.31</v>
+      </c>
+      <c r="T177">
+        <v>963.3</v>
+      </c>
+      <c r="U177">
+        <v>789.91</v>
+      </c>
+      <c r="V177">
+        <v>589.05</v>
+      </c>
+      <c r="W177">
+        <v>101.55</v>
+      </c>
+      <c r="X177">
+        <v>562.73</v>
+      </c>
+      <c r="Y177">
+        <v>28.61</v>
+      </c>
+      <c r="Z177">
+        <v>0.03</v>
+      </c>
+      <c r="AA177">
+        <v>933.15</v>
+      </c>
+      <c r="AB177">
+        <v>2.67</v>
+      </c>
+      <c r="AC177">
+        <v>7.83</v>
+      </c>
+      <c r="AD177">
+        <v>860.37</v>
+      </c>
+      <c r="AE177">
+        <v>0.11</v>
+      </c>
+      <c r="AF177">
+        <v>29.58</v>
+      </c>
+      <c r="AG177">
+        <v>188.91</v>
+      </c>
+      <c r="AH177">
+        <v>50.41</v>
+      </c>
+      <c r="AI177">
+        <v>1093.91</v>
+      </c>
+      <c r="AJ177">
+        <v>93.45999999999999</v>
+      </c>
+      <c r="AK177">
+        <v>192.74</v>
+      </c>
+      <c r="AL177">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AM177">
+        <v>0.21</v>
+      </c>
+      <c r="AN177">
+        <v>32.91</v>
+      </c>
+      <c r="AO177">
+        <v>13.98</v>
+      </c>
+      <c r="AP177">
+        <v>15.85</v>
+      </c>
+      <c r="AQ177">
+        <v>39.77</v>
+      </c>
+      <c r="AR177">
+        <v>18.53</v>
+      </c>
+      <c r="AS177">
+        <v>102.5</v>
+      </c>
+      <c r="AT177">
+        <v>55.75</v>
+      </c>
+      <c r="AU177">
+        <v>150.36</v>
+      </c>
+      <c r="AV177">
+        <v>0.02</v>
+      </c>
+      <c r="AW177">
+        <v>210.64</v>
+      </c>
+      <c r="AX177">
+        <v>191.08</v>
+      </c>
+      <c r="AY177">
+        <v>10.8</v>
+      </c>
+      <c r="AZ177">
+        <v>10.75</v>
+      </c>
+      <c r="BA177">
+        <v>0.06</v>
+      </c>
+      <c r="BB177">
+        <v>4.71</v>
+      </c>
+      <c r="BC177">
+        <v>246.88</v>
+      </c>
+      <c r="BD177">
+        <v>1.86</v>
+      </c>
+      <c r="BE177">
+        <v>0.68</v>
+      </c>
+      <c r="BF177">
+        <v>7.19</v>
+      </c>
+      <c r="BG177">
+        <v>122.65</v>
+      </c>
+      <c r="BH177">
+        <v>205.53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:60">
+      <c r="A178" t="s">
+        <v>236</v>
+      </c>
+      <c r="B178">
+        <v>23.87</v>
+      </c>
+      <c r="C178">
+        <v>784.26</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>114.32</v>
+      </c>
+      <c r="F178">
+        <v>1.26</v>
+      </c>
+      <c r="G178">
+        <v>36.51</v>
+      </c>
+      <c r="H178">
+        <v>124.51</v>
+      </c>
+      <c r="I178">
+        <v>6.13</v>
+      </c>
+      <c r="J178">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="K178">
+        <v>91.05</v>
+      </c>
+      <c r="L178">
+        <v>1115.59</v>
+      </c>
+      <c r="M178">
+        <v>213.58</v>
+      </c>
+      <c r="N178">
+        <v>87.56</v>
+      </c>
+      <c r="O178">
+        <v>577.3</v>
+      </c>
+      <c r="P178">
+        <v>619.1900000000001</v>
+      </c>
+      <c r="Q178">
+        <v>784.26</v>
+      </c>
+      <c r="R178">
+        <v>784.26</v>
+      </c>
+      <c r="S178">
+        <v>376.36</v>
+      </c>
+      <c r="T178">
+        <v>956.41</v>
+      </c>
+      <c r="U178">
+        <v>784.26</v>
+      </c>
+      <c r="V178">
+        <v>584.1799999999999</v>
+      </c>
+      <c r="W178">
+        <v>100.81</v>
+      </c>
+      <c r="X178">
+        <v>557.28</v>
+      </c>
+      <c r="Y178">
+        <v>28.34</v>
+      </c>
+      <c r="Z178">
+        <v>0.03</v>
+      </c>
+      <c r="AA178">
+        <v>925.8200000000001</v>
+      </c>
+      <c r="AB178">
+        <v>2.64</v>
+      </c>
+      <c r="AC178">
+        <v>7.76</v>
+      </c>
+      <c r="AD178">
+        <v>850.52</v>
+      </c>
+      <c r="AE178">
+        <v>0.11</v>
+      </c>
+      <c r="AF178">
+        <v>29.56</v>
+      </c>
+      <c r="AG178">
+        <v>187.15</v>
+      </c>
+      <c r="AH178">
+        <v>50.08</v>
+      </c>
+      <c r="AI178">
+        <v>1084.73</v>
+      </c>
+      <c r="AJ178">
+        <v>93</v>
+      </c>
+      <c r="AK178">
+        <v>191.2</v>
+      </c>
+      <c r="AL178">
+        <v>7.99</v>
+      </c>
+      <c r="AM178">
+        <v>0.2</v>
+      </c>
+      <c r="AN178">
+        <v>32.68</v>
+      </c>
+      <c r="AO178">
+        <v>13.88</v>
+      </c>
+      <c r="AP178">
+        <v>15.7</v>
+      </c>
+      <c r="AQ178">
+        <v>39.47</v>
+      </c>
+      <c r="AR178">
+        <v>18.37</v>
+      </c>
+      <c r="AS178">
+        <v>101.81</v>
+      </c>
+      <c r="AT178">
+        <v>55.39</v>
+      </c>
+      <c r="AU178">
+        <v>150.04</v>
+      </c>
+      <c r="AV178">
+        <v>0.02</v>
+      </c>
+      <c r="AW178">
+        <v>209.14</v>
+      </c>
+      <c r="AX178">
+        <v>189.02</v>
+      </c>
+      <c r="AY178">
+        <v>10.78</v>
+      </c>
+      <c r="AZ178">
+        <v>10.64</v>
+      </c>
+      <c r="BA178">
+        <v>0.06</v>
+      </c>
+      <c r="BB178">
+        <v>4.67</v>
+      </c>
+      <c r="BC178">
+        <v>244.42</v>
+      </c>
+      <c r="BD178">
+        <v>1.84</v>
+      </c>
+      <c r="BE178">
+        <v>0.67</v>
+      </c>
+      <c r="BF178">
+        <v>7.13</v>
+      </c>
+      <c r="BG178">
+        <v>121.71</v>
+      </c>
+      <c r="BH178">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:60">
+      <c r="A179" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179">
+        <v>23.79</v>
+      </c>
+      <c r="C179">
+        <v>783.25</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>114.18</v>
+      </c>
+      <c r="F179">
+        <v>1.25</v>
+      </c>
+      <c r="G179">
+        <v>36.54</v>
+      </c>
+      <c r="H179">
+        <v>124.53</v>
+      </c>
+      <c r="I179">
+        <v>6.13</v>
+      </c>
+      <c r="J179">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="K179">
+        <v>91.14</v>
+      </c>
+      <c r="L179">
+        <v>1115.42</v>
+      </c>
+      <c r="M179">
+        <v>213.3</v>
+      </c>
+      <c r="N179">
+        <v>88.8</v>
+      </c>
+      <c r="O179">
+        <v>574.0599999999999</v>
+      </c>
+      <c r="P179">
+        <v>618.39</v>
+      </c>
+      <c r="Q179">
+        <v>783.25</v>
+      </c>
+      <c r="R179">
+        <v>783.25</v>
+      </c>
+      <c r="S179">
+        <v>375.8</v>
+      </c>
+      <c r="T179">
+        <v>955.1799999999999</v>
+      </c>
+      <c r="U179">
+        <v>783.25</v>
+      </c>
+      <c r="V179">
+        <v>583.6</v>
+      </c>
+      <c r="W179">
+        <v>100.7</v>
+      </c>
+      <c r="X179">
+        <v>556.05</v>
+      </c>
+      <c r="Y179">
+        <v>28.3</v>
+      </c>
+      <c r="Z179">
+        <v>0.03</v>
+      </c>
+      <c r="AA179">
+        <v>925.9400000000001</v>
+      </c>
+      <c r="AB179">
+        <v>2.65</v>
+      </c>
+      <c r="AC179">
+        <v>7.76</v>
+      </c>
+      <c r="AD179">
+        <v>852.84</v>
+      </c>
+      <c r="AE179">
+        <v>0.11</v>
+      </c>
+      <c r="AF179">
+        <v>29.55</v>
+      </c>
+      <c r="AG179">
+        <v>187.21</v>
+      </c>
+      <c r="AH179">
+        <v>50</v>
+      </c>
+      <c r="AI179">
+        <v>1083.93</v>
+      </c>
+      <c r="AJ179">
+        <v>92.77</v>
+      </c>
+      <c r="AK179">
+        <v>190.85</v>
+      </c>
+      <c r="AL179">
+        <v>7.98</v>
+      </c>
+      <c r="AM179">
+        <v>0.2</v>
+      </c>
+      <c r="AN179">
+        <v>32.64</v>
+      </c>
+      <c r="AO179">
+        <v>13.85</v>
+      </c>
+      <c r="AP179">
+        <v>15.69</v>
+      </c>
+      <c r="AQ179">
+        <v>39.36</v>
+      </c>
+      <c r="AR179">
+        <v>18.4</v>
+      </c>
+      <c r="AS179">
+        <v>101.68</v>
+      </c>
+      <c r="AT179">
+        <v>54.79</v>
+      </c>
+      <c r="AU179">
+        <v>149.48</v>
+      </c>
+      <c r="AV179">
+        <v>0.02</v>
+      </c>
+      <c r="AW179">
+        <v>208.87</v>
+      </c>
+      <c r="AX179">
+        <v>188.21</v>
+      </c>
+      <c r="AY179">
+        <v>10.74</v>
+      </c>
+      <c r="AZ179">
+        <v>10.63</v>
+      </c>
+      <c r="BA179">
+        <v>0.05</v>
+      </c>
+      <c r="BB179">
+        <v>4.67</v>
+      </c>
+      <c r="BC179">
+        <v>244.22</v>
+      </c>
+      <c r="BD179">
+        <v>1.84</v>
+      </c>
+      <c r="BE179">
+        <v>0.67</v>
+      </c>
+      <c r="BF179">
+        <v>7.15</v>
+      </c>
+      <c r="BG179">
+        <v>121.75</v>
+      </c>
+      <c r="BH179">
+        <v>203.72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:60">
+      <c r="A180" t="s">
+        <v>238</v>
+      </c>
+      <c r="B180">
+        <v>23.77</v>
+      </c>
+      <c r="C180">
+        <v>781.85</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>113.97</v>
+      </c>
+      <c r="F180">
+        <v>1.25</v>
+      </c>
+      <c r="G180">
+        <v>36.47</v>
+      </c>
+      <c r="H180">
+        <v>124.16</v>
+      </c>
+      <c r="I180">
+        <v>6.17</v>
+      </c>
+      <c r="J180">
+        <v>91.12</v>
+      </c>
+      <c r="K180">
+        <v>91.06999999999999</v>
+      </c>
+      <c r="L180">
+        <v>1114.86</v>
+      </c>
+      <c r="M180">
+        <v>212.92</v>
+      </c>
+      <c r="N180">
+        <v>87.44</v>
+      </c>
+      <c r="O180">
+        <v>572.95</v>
+      </c>
+      <c r="P180">
+        <v>618.36</v>
+      </c>
+      <c r="Q180">
+        <v>781.85</v>
+      </c>
+      <c r="R180">
+        <v>781.85</v>
+      </c>
+      <c r="S180">
+        <v>374.34</v>
+      </c>
+      <c r="T180">
+        <v>953.48</v>
+      </c>
+      <c r="U180">
+        <v>781.85</v>
+      </c>
+      <c r="V180">
+        <v>583.08</v>
+      </c>
+      <c r="W180">
+        <v>100.47</v>
+      </c>
+      <c r="X180">
+        <v>555.41</v>
+      </c>
+      <c r="Y180">
+        <v>28.26</v>
+      </c>
+      <c r="Z180">
+        <v>0.03</v>
+      </c>
+      <c r="AA180">
+        <v>923.1900000000001</v>
+      </c>
+      <c r="AB180">
+        <v>2.64</v>
+      </c>
+      <c r="AC180">
+        <v>7.75</v>
+      </c>
+      <c r="AD180">
+        <v>849.9299999999999</v>
+      </c>
+      <c r="AE180">
+        <v>0.11</v>
+      </c>
+      <c r="AF180">
+        <v>29.36</v>
+      </c>
+      <c r="AG180">
+        <v>186.64</v>
+      </c>
+      <c r="AH180">
+        <v>49.95</v>
+      </c>
+      <c r="AI180">
+        <v>1081.4</v>
+      </c>
+      <c r="AJ180">
+        <v>92.73</v>
+      </c>
+      <c r="AK180">
+        <v>190.39</v>
+      </c>
+      <c r="AL180">
+        <v>7.96</v>
+      </c>
+      <c r="AM180">
+        <v>0.2</v>
+      </c>
+      <c r="AN180">
+        <v>32.58</v>
+      </c>
+      <c r="AO180">
+        <v>13.85</v>
+      </c>
+      <c r="AP180">
+        <v>15.71</v>
+      </c>
+      <c r="AQ180">
+        <v>39.34</v>
+      </c>
+      <c r="AR180">
+        <v>18.4</v>
+      </c>
+      <c r="AS180">
+        <v>101.26</v>
+      </c>
+      <c r="AT180">
+        <v>54.27</v>
+      </c>
+      <c r="AU180">
+        <v>148.74</v>
+      </c>
+      <c r="AV180">
+        <v>0.02</v>
+      </c>
+      <c r="AW180">
+        <v>208.49</v>
+      </c>
+      <c r="AX180">
+        <v>188.08</v>
+      </c>
+      <c r="AY180">
+        <v>10.8</v>
+      </c>
+      <c r="AZ180">
+        <v>10.64</v>
+      </c>
+      <c r="BA180">
+        <v>0.05</v>
+      </c>
+      <c r="BB180">
+        <v>4.62</v>
+      </c>
+      <c r="BC180">
+        <v>244.12</v>
+      </c>
+      <c r="BD180">
+        <v>1.84</v>
+      </c>
+      <c r="BE180">
+        <v>0.67</v>
+      </c>
+      <c r="BF180">
+        <v>7.15</v>
+      </c>
+      <c r="BG180">
+        <v>121.66</v>
+      </c>
+      <c r="BH180">
+        <v>202.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:60">
+      <c r="A181" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181">
+        <v>23.55</v>
+      </c>
+      <c r="C181">
+        <v>780.59</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>113.79</v>
+      </c>
+      <c r="F181">
+        <v>1.25</v>
+      </c>
+      <c r="G181">
+        <v>36.25</v>
+      </c>
+      <c r="H181">
+        <v>123.42</v>
+      </c>
+      <c r="I181">
+        <v>6.08</v>
+      </c>
+      <c r="J181">
+        <v>90.3</v>
+      </c>
+      <c r="K181">
+        <v>90.38</v>
+      </c>
+      <c r="L181">
+        <v>1110.84</v>
+      </c>
+      <c r="M181">
+        <v>212.58</v>
+      </c>
+      <c r="N181">
+        <v>87.05</v>
+      </c>
+      <c r="O181">
+        <v>568.65</v>
+      </c>
+      <c r="P181">
+        <v>615.17</v>
+      </c>
+      <c r="Q181">
+        <v>780.59</v>
+      </c>
+      <c r="R181">
+        <v>780.59</v>
+      </c>
+      <c r="S181">
+        <v>374.22</v>
+      </c>
+      <c r="T181">
+        <v>951.9400000000001</v>
+      </c>
+      <c r="U181">
+        <v>780.59</v>
+      </c>
+      <c r="V181">
+        <v>580.15</v>
+      </c>
+      <c r="W181">
+        <v>100.29</v>
+      </c>
+      <c r="X181">
+        <v>551.8099999999999</v>
+      </c>
+      <c r="Y181">
+        <v>28.18</v>
+      </c>
+      <c r="Z181">
+        <v>0.03</v>
+      </c>
+      <c r="AA181">
+        <v>917.6900000000001</v>
+      </c>
+      <c r="AB181">
+        <v>2.61</v>
+      </c>
+      <c r="AC181">
+        <v>7.72</v>
+      </c>
+      <c r="AD181">
+        <v>842.51</v>
+      </c>
+      <c r="AE181">
+        <v>0.11</v>
+      </c>
+      <c r="AF181">
+        <v>29.27</v>
+      </c>
+      <c r="AG181">
+        <v>185.54</v>
+      </c>
+      <c r="AH181">
+        <v>49.85</v>
+      </c>
+      <c r="AI181">
+        <v>1075.49</v>
+      </c>
+      <c r="AJ181">
+        <v>91.61</v>
+      </c>
+      <c r="AK181">
+        <v>189.79</v>
+      </c>
+      <c r="AL181">
+        <v>7.94</v>
+      </c>
+      <c r="AM181">
+        <v>0.2</v>
+      </c>
+      <c r="AN181">
+        <v>32.52</v>
+      </c>
+      <c r="AO181">
+        <v>13.84</v>
+      </c>
+      <c r="AP181">
+        <v>15.63</v>
+      </c>
+      <c r="AQ181">
+        <v>39.12</v>
+      </c>
+      <c r="AR181">
+        <v>18.32</v>
+      </c>
+      <c r="AS181">
+        <v>101.05</v>
+      </c>
+      <c r="AT181">
+        <v>53.44</v>
+      </c>
+      <c r="AU181">
+        <v>148.38</v>
+      </c>
+      <c r="AV181">
+        <v>0.02</v>
+      </c>
+      <c r="AW181">
+        <v>208.16</v>
+      </c>
+      <c r="AX181">
+        <v>187.78</v>
+      </c>
+      <c r="AY181">
+        <v>10.76</v>
+      </c>
+      <c r="AZ181">
+        <v>10.62</v>
+      </c>
+      <c r="BA181">
+        <v>0.05</v>
+      </c>
+      <c r="BB181">
+        <v>4.66</v>
+      </c>
+      <c r="BC181">
+        <v>243</v>
+      </c>
+      <c r="BD181">
+        <v>1.84</v>
+      </c>
+      <c r="BE181">
+        <v>0.67</v>
+      </c>
+      <c r="BF181">
+        <v>7.12</v>
+      </c>
+      <c r="BG181">
+        <v>120.97</v>
+      </c>
+      <c r="BH181">
+        <v>200.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -735,6 +735,33 @@
   <si>
     <t>20-09-2021</t>
   </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1091,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH181"/>
+  <dimension ref="A1:BH190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34039,6 +34066,1644 @@
         <v>200.63</v>
       </c>
     </row>
+    <row r="182" spans="1:60">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182">
+        <v>23.63</v>
+      </c>
+      <c r="C182">
+        <v>788.05</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>114.88</v>
+      </c>
+      <c r="F182">
+        <v>1.27</v>
+      </c>
+      <c r="G182">
+        <v>36.28</v>
+      </c>
+      <c r="H182">
+        <v>124.3</v>
+      </c>
+      <c r="I182">
+        <v>6.09</v>
+      </c>
+      <c r="J182">
+        <v>90.25</v>
+      </c>
+      <c r="K182">
+        <v>90.66</v>
+      </c>
+      <c r="L182">
+        <v>1118.12</v>
+      </c>
+      <c r="M182">
+        <v>214.61</v>
+      </c>
+      <c r="N182">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="O182">
+        <v>570.8</v>
+      </c>
+      <c r="P182">
+        <v>614.3200000000001</v>
+      </c>
+      <c r="Q182">
+        <v>788.05</v>
+      </c>
+      <c r="R182">
+        <v>788.05</v>
+      </c>
+      <c r="S182">
+        <v>375.66</v>
+      </c>
+      <c r="T182">
+        <v>961.04</v>
+      </c>
+      <c r="U182">
+        <v>788.05</v>
+      </c>
+      <c r="V182">
+        <v>582.88</v>
+      </c>
+      <c r="W182">
+        <v>101.19</v>
+      </c>
+      <c r="X182">
+        <v>553.52</v>
+      </c>
+      <c r="Y182">
+        <v>28.44</v>
+      </c>
+      <c r="Z182">
+        <v>0.03</v>
+      </c>
+      <c r="AA182">
+        <v>924.1799999999999</v>
+      </c>
+      <c r="AB182">
+        <v>2.61</v>
+      </c>
+      <c r="AC182">
+        <v>7.78</v>
+      </c>
+      <c r="AD182">
+        <v>849.47</v>
+      </c>
+      <c r="AE182">
+        <v>0.11</v>
+      </c>
+      <c r="AF182">
+        <v>29.81</v>
+      </c>
+      <c r="AG182">
+        <v>186.81</v>
+      </c>
+      <c r="AH182">
+        <v>50.32</v>
+      </c>
+      <c r="AI182">
+        <v>1076.28</v>
+      </c>
+      <c r="AJ182">
+        <v>90.83</v>
+      </c>
+      <c r="AK182">
+        <v>191.3</v>
+      </c>
+      <c r="AL182">
+        <v>8</v>
+      </c>
+      <c r="AM182">
+        <v>0.2</v>
+      </c>
+      <c r="AN182">
+        <v>32.84</v>
+      </c>
+      <c r="AO182">
+        <v>13.95</v>
+      </c>
+      <c r="AP182">
+        <v>15.7</v>
+      </c>
+      <c r="AQ182">
+        <v>39.09</v>
+      </c>
+      <c r="AR182">
+        <v>18.45</v>
+      </c>
+      <c r="AS182">
+        <v>102.3</v>
+      </c>
+      <c r="AT182">
+        <v>53.22</v>
+      </c>
+      <c r="AU182">
+        <v>147.58</v>
+      </c>
+      <c r="AV182">
+        <v>0.02</v>
+      </c>
+      <c r="AW182">
+        <v>210.15</v>
+      </c>
+      <c r="AX182">
+        <v>188.03</v>
+      </c>
+      <c r="AY182">
+        <v>10.71</v>
+      </c>
+      <c r="AZ182">
+        <v>10.69</v>
+      </c>
+      <c r="BA182">
+        <v>0.06</v>
+      </c>
+      <c r="BB182">
+        <v>4.68</v>
+      </c>
+      <c r="BC182">
+        <v>245.35</v>
+      </c>
+      <c r="BD182">
+        <v>1.85</v>
+      </c>
+      <c r="BE182">
+        <v>0.66</v>
+      </c>
+      <c r="BF182">
+        <v>7.21</v>
+      </c>
+      <c r="BG182">
+        <v>121.57</v>
+      </c>
+      <c r="BH182">
+        <v>200.46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:60">
+      <c r="A183" t="s">
+        <v>241</v>
+      </c>
+      <c r="B183">
+        <v>23.54</v>
+      </c>
+      <c r="C183">
+        <v>785.1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>114.45</v>
+      </c>
+      <c r="F183">
+        <v>1.26</v>
+      </c>
+      <c r="G183">
+        <v>36.23</v>
+      </c>
+      <c r="H183">
+        <v>123.8</v>
+      </c>
+      <c r="I183">
+        <v>6.05</v>
+      </c>
+      <c r="J183">
+        <v>90.38</v>
+      </c>
+      <c r="K183">
+        <v>90.42</v>
+      </c>
+      <c r="L183">
+        <v>1114.57</v>
+      </c>
+      <c r="M183">
+        <v>213.81</v>
+      </c>
+      <c r="N183">
+        <v>87.37</v>
+      </c>
+      <c r="O183">
+        <v>567.84</v>
+      </c>
+      <c r="P183">
+        <v>613.26</v>
+      </c>
+      <c r="Q183">
+        <v>785.1</v>
+      </c>
+      <c r="R183">
+        <v>785.1</v>
+      </c>
+      <c r="S183">
+        <v>374.25</v>
+      </c>
+      <c r="T183">
+        <v>957.4400000000001</v>
+      </c>
+      <c r="U183">
+        <v>785.1</v>
+      </c>
+      <c r="V183">
+        <v>580.4400000000001</v>
+      </c>
+      <c r="W183">
+        <v>100.82</v>
+      </c>
+      <c r="X183">
+        <v>549.87</v>
+      </c>
+      <c r="Y183">
+        <v>28.32</v>
+      </c>
+      <c r="Z183">
+        <v>0.03</v>
+      </c>
+      <c r="AA183">
+        <v>920.51</v>
+      </c>
+      <c r="AB183">
+        <v>2.61</v>
+      </c>
+      <c r="AC183">
+        <v>7.75</v>
+      </c>
+      <c r="AD183">
+        <v>849.86</v>
+      </c>
+      <c r="AE183">
+        <v>0.11</v>
+      </c>
+      <c r="AF183">
+        <v>29.55</v>
+      </c>
+      <c r="AG183">
+        <v>186.14</v>
+      </c>
+      <c r="AH183">
+        <v>50.02</v>
+      </c>
+      <c r="AI183">
+        <v>1072.1</v>
+      </c>
+      <c r="AJ183">
+        <v>90.97</v>
+      </c>
+      <c r="AK183">
+        <v>191.06</v>
+      </c>
+      <c r="AL183">
+        <v>7.97</v>
+      </c>
+      <c r="AM183">
+        <v>0.2</v>
+      </c>
+      <c r="AN183">
+        <v>32.71</v>
+      </c>
+      <c r="AO183">
+        <v>13.91</v>
+      </c>
+      <c r="AP183">
+        <v>15.66</v>
+      </c>
+      <c r="AQ183">
+        <v>38.99</v>
+      </c>
+      <c r="AR183">
+        <v>18.42</v>
+      </c>
+      <c r="AS183">
+        <v>101.92</v>
+      </c>
+      <c r="AT183">
+        <v>52.96</v>
+      </c>
+      <c r="AU183">
+        <v>148.51</v>
+      </c>
+      <c r="AV183">
+        <v>0.02</v>
+      </c>
+      <c r="AW183">
+        <v>209.36</v>
+      </c>
+      <c r="AX183">
+        <v>187.67</v>
+      </c>
+      <c r="AY183">
+        <v>10.76</v>
+      </c>
+      <c r="AZ183">
+        <v>10.67</v>
+      </c>
+      <c r="BA183">
+        <v>0.06</v>
+      </c>
+      <c r="BB183">
+        <v>4.66</v>
+      </c>
+      <c r="BC183">
+        <v>245.07</v>
+      </c>
+      <c r="BD183">
+        <v>1.84</v>
+      </c>
+      <c r="BE183">
+        <v>0.66</v>
+      </c>
+      <c r="BF183">
+        <v>7.19</v>
+      </c>
+      <c r="BG183">
+        <v>121.12</v>
+      </c>
+      <c r="BH183">
+        <v>199.12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:60">
+      <c r="A184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B184">
+        <v>23.48</v>
+      </c>
+      <c r="C184">
+        <v>785.03</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>114.44</v>
+      </c>
+      <c r="F184">
+        <v>1.26</v>
+      </c>
+      <c r="G184">
+        <v>36.27</v>
+      </c>
+      <c r="H184">
+        <v>123.81</v>
+      </c>
+      <c r="I184">
+        <v>6.07</v>
+      </c>
+      <c r="J184">
+        <v>90.89</v>
+      </c>
+      <c r="K184">
+        <v>90.61</v>
+      </c>
+      <c r="L184">
+        <v>1114.31</v>
+      </c>
+      <c r="M184">
+        <v>213.79</v>
+      </c>
+      <c r="N184">
+        <v>87.37</v>
+      </c>
+      <c r="O184">
+        <v>569.85</v>
+      </c>
+      <c r="P184">
+        <v>616.39</v>
+      </c>
+      <c r="Q184">
+        <v>785.03</v>
+      </c>
+      <c r="R184">
+        <v>785.03</v>
+      </c>
+      <c r="S184">
+        <v>373.59</v>
+      </c>
+      <c r="T184">
+        <v>957.35</v>
+      </c>
+      <c r="U184">
+        <v>785.03</v>
+      </c>
+      <c r="V184">
+        <v>581.12</v>
+      </c>
+      <c r="W184">
+        <v>100.83</v>
+      </c>
+      <c r="X184">
+        <v>551.3200000000001</v>
+      </c>
+      <c r="Y184">
+        <v>28.28</v>
+      </c>
+      <c r="Z184">
+        <v>0.03</v>
+      </c>
+      <c r="AA184">
+        <v>920.64</v>
+      </c>
+      <c r="AB184">
+        <v>2.59</v>
+      </c>
+      <c r="AC184">
+        <v>7.75</v>
+      </c>
+      <c r="AD184">
+        <v>850.0599999999999</v>
+      </c>
+      <c r="AE184">
+        <v>0.11</v>
+      </c>
+      <c r="AF184">
+        <v>29.69</v>
+      </c>
+      <c r="AG184">
+        <v>186.04</v>
+      </c>
+      <c r="AH184">
+        <v>50.15</v>
+      </c>
+      <c r="AI184">
+        <v>1071.57</v>
+      </c>
+      <c r="AJ184">
+        <v>90.89</v>
+      </c>
+      <c r="AK184">
+        <v>191.09</v>
+      </c>
+      <c r="AL184">
+        <v>7.97</v>
+      </c>
+      <c r="AM184">
+        <v>0.2</v>
+      </c>
+      <c r="AN184">
+        <v>32.71</v>
+      </c>
+      <c r="AO184">
+        <v>13.93</v>
+      </c>
+      <c r="AP184">
+        <v>15.62</v>
+      </c>
+      <c r="AQ184">
+        <v>39.21</v>
+      </c>
+      <c r="AR184">
+        <v>18.46</v>
+      </c>
+      <c r="AS184">
+        <v>101.6</v>
+      </c>
+      <c r="AT184">
+        <v>53.27</v>
+      </c>
+      <c r="AU184">
+        <v>148.67</v>
+      </c>
+      <c r="AV184">
+        <v>0.02</v>
+      </c>
+      <c r="AW184">
+        <v>209.34</v>
+      </c>
+      <c r="AX184">
+        <v>187.31</v>
+      </c>
+      <c r="AY184">
+        <v>10.77</v>
+      </c>
+      <c r="AZ184">
+        <v>10.63</v>
+      </c>
+      <c r="BA184">
+        <v>0.06</v>
+      </c>
+      <c r="BB184">
+        <v>4.67</v>
+      </c>
+      <c r="BC184">
+        <v>245.34</v>
+      </c>
+      <c r="BD184">
+        <v>1.85</v>
+      </c>
+      <c r="BE184">
+        <v>0.66</v>
+      </c>
+      <c r="BF184">
+        <v>7.16</v>
+      </c>
+      <c r="BG184">
+        <v>121.52</v>
+      </c>
+      <c r="BH184">
+        <v>199.18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:60">
+      <c r="A185" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185">
+        <v>23.59</v>
+      </c>
+      <c r="C185">
+        <v>787.24</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>114.76</v>
+      </c>
+      <c r="F185">
+        <v>1.26</v>
+      </c>
+      <c r="G185">
+        <v>36.44</v>
+      </c>
+      <c r="H185">
+        <v>124.35</v>
+      </c>
+      <c r="I185">
+        <v>6.14</v>
+      </c>
+      <c r="J185">
+        <v>91.95999999999999</v>
+      </c>
+      <c r="K185">
+        <v>91.33</v>
+      </c>
+      <c r="L185">
+        <v>1117.13</v>
+      </c>
+      <c r="M185">
+        <v>214.39</v>
+      </c>
+      <c r="N185">
+        <v>87.92</v>
+      </c>
+      <c r="O185">
+        <v>575.22</v>
+      </c>
+      <c r="P185">
+        <v>622.5700000000001</v>
+      </c>
+      <c r="Q185">
+        <v>787.24</v>
+      </c>
+      <c r="R185">
+        <v>787.24</v>
+      </c>
+      <c r="S185">
+        <v>374.57</v>
+      </c>
+      <c r="T185">
+        <v>960.05</v>
+      </c>
+      <c r="U185">
+        <v>787.24</v>
+      </c>
+      <c r="V185">
+        <v>584.1799999999999</v>
+      </c>
+      <c r="W185">
+        <v>101.13</v>
+      </c>
+      <c r="X185">
+        <v>557.38</v>
+      </c>
+      <c r="Y185">
+        <v>28.38</v>
+      </c>
+      <c r="Z185">
+        <v>0.03</v>
+      </c>
+      <c r="AA185">
+        <v>924.64</v>
+      </c>
+      <c r="AB185">
+        <v>2.6</v>
+      </c>
+      <c r="AC185">
+        <v>7.77</v>
+      </c>
+      <c r="AD185">
+        <v>852.73</v>
+      </c>
+      <c r="AE185">
+        <v>0.11</v>
+      </c>
+      <c r="AF185">
+        <v>29.72</v>
+      </c>
+      <c r="AG185">
+        <v>186.86</v>
+      </c>
+      <c r="AH185">
+        <v>50.13</v>
+      </c>
+      <c r="AI185">
+        <v>1081.52</v>
+      </c>
+      <c r="AJ185">
+        <v>89.81999999999999</v>
+      </c>
+      <c r="AK185">
+        <v>191.47</v>
+      </c>
+      <c r="AL185">
+        <v>7.99</v>
+      </c>
+      <c r="AM185">
+        <v>0.21</v>
+      </c>
+      <c r="AN185">
+        <v>32.8</v>
+      </c>
+      <c r="AO185">
+        <v>13.98</v>
+      </c>
+      <c r="AP185">
+        <v>15.64</v>
+      </c>
+      <c r="AQ185">
+        <v>39.36</v>
+      </c>
+      <c r="AR185">
+        <v>18.53</v>
+      </c>
+      <c r="AS185">
+        <v>101.87</v>
+      </c>
+      <c r="AT185">
+        <v>53.47</v>
+      </c>
+      <c r="AU185">
+        <v>148.81</v>
+      </c>
+      <c r="AV185">
+        <v>0.02</v>
+      </c>
+      <c r="AW185">
+        <v>209.93</v>
+      </c>
+      <c r="AX185">
+        <v>188.33</v>
+      </c>
+      <c r="AY185">
+        <v>10.82</v>
+      </c>
+      <c r="AZ185">
+        <v>10.69</v>
+      </c>
+      <c r="BA185">
+        <v>0.06</v>
+      </c>
+      <c r="BB185">
+        <v>4.66</v>
+      </c>
+      <c r="BC185">
+        <v>246.19</v>
+      </c>
+      <c r="BD185">
+        <v>1.85</v>
+      </c>
+      <c r="BE185">
+        <v>0.67</v>
+      </c>
+      <c r="BF185">
+        <v>7.15</v>
+      </c>
+      <c r="BG185">
+        <v>121.9</v>
+      </c>
+      <c r="BH185">
+        <v>200.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:60">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186">
+        <v>23.63</v>
+      </c>
+      <c r="C186">
+        <v>788.98</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>115.01</v>
+      </c>
+      <c r="F186">
+        <v>1.26</v>
+      </c>
+      <c r="G186">
+        <v>36.39</v>
+      </c>
+      <c r="H186">
+        <v>124.34</v>
+      </c>
+      <c r="I186">
+        <v>6.15</v>
+      </c>
+      <c r="J186">
+        <v>91.84</v>
+      </c>
+      <c r="K186">
+        <v>91.2</v>
+      </c>
+      <c r="L186">
+        <v>1119.6</v>
+      </c>
+      <c r="M186">
+        <v>214.86</v>
+      </c>
+      <c r="N186">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="O186">
+        <v>572.64</v>
+      </c>
+      <c r="P186">
+        <v>623.4</v>
+      </c>
+      <c r="Q186">
+        <v>788.98</v>
+      </c>
+      <c r="R186">
+        <v>788.98</v>
+      </c>
+      <c r="S186">
+        <v>377.12</v>
+      </c>
+      <c r="T186">
+        <v>962.17</v>
+      </c>
+      <c r="U186">
+        <v>788.98</v>
+      </c>
+      <c r="V186">
+        <v>583.22</v>
+      </c>
+      <c r="W186">
+        <v>101.35</v>
+      </c>
+      <c r="X186">
+        <v>553.24</v>
+      </c>
+      <c r="Y186">
+        <v>28.47</v>
+      </c>
+      <c r="Z186">
+        <v>0.03</v>
+      </c>
+      <c r="AA186">
+        <v>924.51</v>
+      </c>
+      <c r="AB186">
+        <v>2.59</v>
+      </c>
+      <c r="AC186">
+        <v>7.79</v>
+      </c>
+      <c r="AD186">
+        <v>853.14</v>
+      </c>
+      <c r="AE186">
+        <v>0.11</v>
+      </c>
+      <c r="AF186">
+        <v>29.81</v>
+      </c>
+      <c r="AG186">
+        <v>186.84</v>
+      </c>
+      <c r="AH186">
+        <v>50.38</v>
+      </c>
+      <c r="AI186">
+        <v>1078.87</v>
+      </c>
+      <c r="AJ186">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="AK186">
+        <v>192.21</v>
+      </c>
+      <c r="AL186">
+        <v>8.01</v>
+      </c>
+      <c r="AM186">
+        <v>0.21</v>
+      </c>
+      <c r="AN186">
+        <v>32.87</v>
+      </c>
+      <c r="AO186">
+        <v>14.02</v>
+      </c>
+      <c r="AP186">
+        <v>15.59</v>
+      </c>
+      <c r="AQ186">
+        <v>39.33</v>
+      </c>
+      <c r="AR186">
+        <v>18.56</v>
+      </c>
+      <c r="AS186">
+        <v>102.26</v>
+      </c>
+      <c r="AT186">
+        <v>52.86</v>
+      </c>
+      <c r="AU186">
+        <v>147.81</v>
+      </c>
+      <c r="AV186">
+        <v>0.02</v>
+      </c>
+      <c r="AW186">
+        <v>210.39</v>
+      </c>
+      <c r="AX186">
+        <v>188.46</v>
+      </c>
+      <c r="AY186">
+        <v>10.84</v>
+      </c>
+      <c r="AZ186">
+        <v>10.71</v>
+      </c>
+      <c r="BA186">
+        <v>0.06</v>
+      </c>
+      <c r="BB186">
+        <v>4.67</v>
+      </c>
+      <c r="BC186">
+        <v>246.81</v>
+      </c>
+      <c r="BD186">
+        <v>1.86</v>
+      </c>
+      <c r="BE186">
+        <v>0.67</v>
+      </c>
+      <c r="BF186">
+        <v>7.12</v>
+      </c>
+      <c r="BG186">
+        <v>122.1</v>
+      </c>
+      <c r="BH186">
+        <v>200.78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:60">
+      <c r="A187" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187">
+        <v>23.7</v>
+      </c>
+      <c r="C187">
+        <v>795.48</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>115.96</v>
+      </c>
+      <c r="F187">
+        <v>1.27</v>
+      </c>
+      <c r="G187">
+        <v>36.62</v>
+      </c>
+      <c r="H187">
+        <v>125.21</v>
+      </c>
+      <c r="I187">
+        <v>6.22</v>
+      </c>
+      <c r="J187">
+        <v>92.45</v>
+      </c>
+      <c r="K187">
+        <v>91.45999999999999</v>
+      </c>
+      <c r="L187">
+        <v>1127.7</v>
+      </c>
+      <c r="M187">
+        <v>216.63</v>
+      </c>
+      <c r="N187">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="O187">
+        <v>579.58</v>
+      </c>
+      <c r="P187">
+        <v>630.08</v>
+      </c>
+      <c r="Q187">
+        <v>795.48</v>
+      </c>
+      <c r="R187">
+        <v>795.48</v>
+      </c>
+      <c r="S187">
+        <v>378.49</v>
+      </c>
+      <c r="T187">
+        <v>970.1</v>
+      </c>
+      <c r="U187">
+        <v>795.48</v>
+      </c>
+      <c r="V187">
+        <v>587.76</v>
+      </c>
+      <c r="W187">
+        <v>102.21</v>
+      </c>
+      <c r="X187">
+        <v>557.72</v>
+      </c>
+      <c r="Y187">
+        <v>28.71</v>
+      </c>
+      <c r="Z187">
+        <v>0.03</v>
+      </c>
+      <c r="AA187">
+        <v>930.9299999999999</v>
+      </c>
+      <c r="AB187">
+        <v>2.6</v>
+      </c>
+      <c r="AC187">
+        <v>7.85</v>
+      </c>
+      <c r="AD187">
+        <v>859.61</v>
+      </c>
+      <c r="AE187">
+        <v>0.12</v>
+      </c>
+      <c r="AF187">
+        <v>29.94</v>
+      </c>
+      <c r="AG187">
+        <v>188.18</v>
+      </c>
+      <c r="AH187">
+        <v>50.74</v>
+      </c>
+      <c r="AI187">
+        <v>1089.85</v>
+      </c>
+      <c r="AJ187">
+        <v>90.18000000000001</v>
+      </c>
+      <c r="AK187">
+        <v>192.97</v>
+      </c>
+      <c r="AL187">
+        <v>8.06</v>
+      </c>
+      <c r="AM187">
+        <v>0.21</v>
+      </c>
+      <c r="AN187">
+        <v>33.15</v>
+      </c>
+      <c r="AO187">
+        <v>14.14</v>
+      </c>
+      <c r="AP187">
+        <v>15.6</v>
+      </c>
+      <c r="AQ187">
+        <v>39.53</v>
+      </c>
+      <c r="AR187">
+        <v>18.68</v>
+      </c>
+      <c r="AS187">
+        <v>103.22</v>
+      </c>
+      <c r="AT187">
+        <v>53.29</v>
+      </c>
+      <c r="AU187">
+        <v>148.07</v>
+      </c>
+      <c r="AV187">
+        <v>0.02</v>
+      </c>
+      <c r="AW187">
+        <v>212.13</v>
+      </c>
+      <c r="AX187">
+        <v>190.01</v>
+      </c>
+      <c r="AY187">
+        <v>10.96</v>
+      </c>
+      <c r="AZ187">
+        <v>10.77</v>
+      </c>
+      <c r="BA187">
+        <v>0.06</v>
+      </c>
+      <c r="BB187">
+        <v>4.71</v>
+      </c>
+      <c r="BC187">
+        <v>248.57</v>
+      </c>
+      <c r="BD187">
+        <v>1.87</v>
+      </c>
+      <c r="BE187">
+        <v>0.68</v>
+      </c>
+      <c r="BF187">
+        <v>7.17</v>
+      </c>
+      <c r="BG187">
+        <v>123.19</v>
+      </c>
+      <c r="BH187">
+        <v>202.47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:60">
+      <c r="A188" t="s">
+        <v>246</v>
+      </c>
+      <c r="B188">
+        <v>23.59</v>
+      </c>
+      <c r="C188">
+        <v>798.63</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>116.42</v>
+      </c>
+      <c r="F188">
+        <v>1.28</v>
+      </c>
+      <c r="G188">
+        <v>36.59</v>
+      </c>
+      <c r="H188">
+        <v>125.48</v>
+      </c>
+      <c r="I188">
+        <v>6.23</v>
+      </c>
+      <c r="J188">
+        <v>92.13</v>
+      </c>
+      <c r="K188">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="L188">
+        <v>1130.4</v>
+      </c>
+      <c r="M188">
+        <v>217.49</v>
+      </c>
+      <c r="N188">
+        <v>88.72</v>
+      </c>
+      <c r="O188">
+        <v>577.8</v>
+      </c>
+      <c r="P188">
+        <v>629.39</v>
+      </c>
+      <c r="Q188">
+        <v>798.63</v>
+      </c>
+      <c r="R188">
+        <v>798.63</v>
+      </c>
+      <c r="S188">
+        <v>380.63</v>
+      </c>
+      <c r="T188">
+        <v>973.9400000000001</v>
+      </c>
+      <c r="U188">
+        <v>798.63</v>
+      </c>
+      <c r="V188">
+        <v>588.4</v>
+      </c>
+      <c r="W188">
+        <v>102.6</v>
+      </c>
+      <c r="X188">
+        <v>555.3</v>
+      </c>
+      <c r="Y188">
+        <v>28.8</v>
+      </c>
+      <c r="Z188">
+        <v>0.04</v>
+      </c>
+      <c r="AA188">
+        <v>932.98</v>
+      </c>
+      <c r="AB188">
+        <v>2.59</v>
+      </c>
+      <c r="AC188">
+        <v>7.87</v>
+      </c>
+      <c r="AD188">
+        <v>859.48</v>
+      </c>
+      <c r="AE188">
+        <v>0.12</v>
+      </c>
+      <c r="AF188">
+        <v>30.36</v>
+      </c>
+      <c r="AG188">
+        <v>188.53</v>
+      </c>
+      <c r="AH188">
+        <v>51</v>
+      </c>
+      <c r="AI188">
+        <v>1080.98</v>
+      </c>
+      <c r="AJ188">
+        <v>90.03</v>
+      </c>
+      <c r="AK188">
+        <v>193.7</v>
+      </c>
+      <c r="AL188">
+        <v>8.09</v>
+      </c>
+      <c r="AM188">
+        <v>0.21</v>
+      </c>
+      <c r="AN188">
+        <v>33.28</v>
+      </c>
+      <c r="AO188">
+        <v>14.2</v>
+      </c>
+      <c r="AP188">
+        <v>15.66</v>
+      </c>
+      <c r="AQ188">
+        <v>39.26</v>
+      </c>
+      <c r="AR188">
+        <v>18.68</v>
+      </c>
+      <c r="AS188">
+        <v>103.37</v>
+      </c>
+      <c r="AT188">
+        <v>52.86</v>
+      </c>
+      <c r="AU188">
+        <v>146.9</v>
+      </c>
+      <c r="AV188">
+        <v>0.02</v>
+      </c>
+      <c r="AW188">
+        <v>212.97</v>
+      </c>
+      <c r="AX188">
+        <v>190.9</v>
+      </c>
+      <c r="AY188">
+        <v>10.95</v>
+      </c>
+      <c r="AZ188">
+        <v>10.79</v>
+      </c>
+      <c r="BA188">
+        <v>0.06</v>
+      </c>
+      <c r="BB188">
+        <v>4.7</v>
+      </c>
+      <c r="BC188">
+        <v>248.59</v>
+      </c>
+      <c r="BD188">
+        <v>1.88</v>
+      </c>
+      <c r="BE188">
+        <v>0.67</v>
+      </c>
+      <c r="BF188">
+        <v>7.17</v>
+      </c>
+      <c r="BG188">
+        <v>123.54</v>
+      </c>
+      <c r="BH188">
+        <v>201.16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:60">
+      <c r="A189" t="s">
+        <v>247</v>
+      </c>
+      <c r="B189">
+        <v>23.65</v>
+      </c>
+      <c r="C189">
+        <v>803.59</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>117.14</v>
+      </c>
+      <c r="F189">
+        <v>1.28</v>
+      </c>
+      <c r="G189">
+        <v>36.58</v>
+      </c>
+      <c r="H189">
+        <v>125.38</v>
+      </c>
+      <c r="I189">
+        <v>6.19</v>
+      </c>
+      <c r="J189">
+        <v>91.63</v>
+      </c>
+      <c r="K189">
+        <v>91.28</v>
+      </c>
+      <c r="L189">
+        <v>1135.98</v>
+      </c>
+      <c r="M189">
+        <v>218.84</v>
+      </c>
+      <c r="N189">
+        <v>88.98999999999999</v>
+      </c>
+      <c r="O189">
+        <v>576.84</v>
+      </c>
+      <c r="P189">
+        <v>629.62</v>
+      </c>
+      <c r="Q189">
+        <v>803.59</v>
+      </c>
+      <c r="R189">
+        <v>803.59</v>
+      </c>
+      <c r="S189">
+        <v>381.23</v>
+      </c>
+      <c r="T189">
+        <v>979.99</v>
+      </c>
+      <c r="U189">
+        <v>803.59</v>
+      </c>
+      <c r="V189">
+        <v>590.14</v>
+      </c>
+      <c r="W189">
+        <v>103.22</v>
+      </c>
+      <c r="X189">
+        <v>551.5</v>
+      </c>
+      <c r="Y189">
+        <v>28.92</v>
+      </c>
+      <c r="Z189">
+        <v>0.04</v>
+      </c>
+      <c r="AA189">
+        <v>932.24</v>
+      </c>
+      <c r="AB189">
+        <v>2.59</v>
+      </c>
+      <c r="AC189">
+        <v>7.86</v>
+      </c>
+      <c r="AD189">
+        <v>859.36</v>
+      </c>
+      <c r="AE189">
+        <v>0.12</v>
+      </c>
+      <c r="AF189">
+        <v>30.26</v>
+      </c>
+      <c r="AG189">
+        <v>188.59</v>
+      </c>
+      <c r="AH189">
+        <v>51.3</v>
+      </c>
+      <c r="AI189">
+        <v>1078.35</v>
+      </c>
+      <c r="AJ189">
+        <v>90.06</v>
+      </c>
+      <c r="AK189">
+        <v>194.69</v>
+      </c>
+      <c r="AL189">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="AM189">
+        <v>0.21</v>
+      </c>
+      <c r="AN189">
+        <v>33.48</v>
+      </c>
+      <c r="AO189">
+        <v>14.29</v>
+      </c>
+      <c r="AP189">
+        <v>15.8</v>
+      </c>
+      <c r="AQ189">
+        <v>39.02</v>
+      </c>
+      <c r="AR189">
+        <v>18.79</v>
+      </c>
+      <c r="AS189">
+        <v>104.01</v>
+      </c>
+      <c r="AT189">
+        <v>52.86</v>
+      </c>
+      <c r="AU189">
+        <v>147.96</v>
+      </c>
+      <c r="AV189">
+        <v>0.02</v>
+      </c>
+      <c r="AW189">
+        <v>214.29</v>
+      </c>
+      <c r="AX189">
+        <v>192.11</v>
+      </c>
+      <c r="AY189">
+        <v>11.02</v>
+      </c>
+      <c r="AZ189">
+        <v>10.84</v>
+      </c>
+      <c r="BA189">
+        <v>0.06</v>
+      </c>
+      <c r="BB189">
+        <v>4.72</v>
+      </c>
+      <c r="BC189">
+        <v>249.72</v>
+      </c>
+      <c r="BD189">
+        <v>1.89</v>
+      </c>
+      <c r="BE189">
+        <v>0.68</v>
+      </c>
+      <c r="BF189">
+        <v>7.17</v>
+      </c>
+      <c r="BG189">
+        <v>124.05</v>
+      </c>
+      <c r="BH189">
+        <v>201.31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:60">
+      <c r="A190" t="s">
+        <v>248</v>
+      </c>
+      <c r="B190">
+        <v>24.12</v>
+      </c>
+      <c r="C190">
+        <v>811.9</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>118.35</v>
+      </c>
+      <c r="F190">
+        <v>1.3</v>
+      </c>
+      <c r="G190">
+        <v>37.08</v>
+      </c>
+      <c r="H190">
+        <v>126.35</v>
+      </c>
+      <c r="I190">
+        <v>6.22</v>
+      </c>
+      <c r="J190">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="K190">
+        <v>92.59</v>
+      </c>
+      <c r="L190">
+        <v>1143.84</v>
+      </c>
+      <c r="M190">
+        <v>221.11</v>
+      </c>
+      <c r="N190">
+        <v>89.58</v>
+      </c>
+      <c r="O190">
+        <v>585.7</v>
+      </c>
+      <c r="P190">
+        <v>639.39</v>
+      </c>
+      <c r="Q190">
+        <v>811.9</v>
+      </c>
+      <c r="R190">
+        <v>811.9</v>
+      </c>
+      <c r="S190">
+        <v>382.81</v>
+      </c>
+      <c r="T190">
+        <v>990.12</v>
+      </c>
+      <c r="U190">
+        <v>811.9</v>
+      </c>
+      <c r="V190">
+        <v>597.34</v>
+      </c>
+      <c r="W190">
+        <v>104.29</v>
+      </c>
+      <c r="X190">
+        <v>559.39</v>
+      </c>
+      <c r="Y190">
+        <v>29.19</v>
+      </c>
+      <c r="Z190">
+        <v>0.04</v>
+      </c>
+      <c r="AA190">
+        <v>939.48</v>
+      </c>
+      <c r="AB190">
+        <v>2.61</v>
+      </c>
+      <c r="AC190">
+        <v>7.91</v>
+      </c>
+      <c r="AD190">
+        <v>869.46</v>
+      </c>
+      <c r="AE190">
+        <v>0.12</v>
+      </c>
+      <c r="AF190">
+        <v>30.71</v>
+      </c>
+      <c r="AG190">
+        <v>189.91</v>
+      </c>
+      <c r="AH190">
+        <v>51.71</v>
+      </c>
+      <c r="AI190">
+        <v>1092.88</v>
+      </c>
+      <c r="AJ190">
+        <v>91.31999999999999</v>
+      </c>
+      <c r="AK190">
+        <v>196.33</v>
+      </c>
+      <c r="AL190">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AM190">
+        <v>0.21</v>
+      </c>
+      <c r="AN190">
+        <v>33.83</v>
+      </c>
+      <c r="AO190">
+        <v>14.44</v>
+      </c>
+      <c r="AP190">
+        <v>15.92</v>
+      </c>
+      <c r="AQ190">
+        <v>39.48</v>
+      </c>
+      <c r="AR190">
+        <v>18.96</v>
+      </c>
+      <c r="AS190">
+        <v>105.02</v>
+      </c>
+      <c r="AT190">
+        <v>53.78</v>
+      </c>
+      <c r="AU190">
+        <v>148.77</v>
+      </c>
+      <c r="AV190">
+        <v>0.02</v>
+      </c>
+      <c r="AW190">
+        <v>216.51</v>
+      </c>
+      <c r="AX190">
+        <v>193.98</v>
+      </c>
+      <c r="AY190">
+        <v>11.15</v>
+      </c>
+      <c r="AZ190">
+        <v>10.94</v>
+      </c>
+      <c r="BA190">
+        <v>0.06</v>
+      </c>
+      <c r="BB190">
+        <v>4.76</v>
+      </c>
+      <c r="BC190">
+        <v>251.65</v>
+      </c>
+      <c r="BD190">
+        <v>1.91</v>
+      </c>
+      <c r="BE190">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF190">
+        <v>7.29</v>
+      </c>
+      <c r="BG190">
+        <v>125.81</v>
+      </c>
+      <c r="BH190">
+        <v>203.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Serie</t>
   </si>
@@ -762,6 +762,12 @@
   <si>
     <t>01-10-2021</t>
   </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1118,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH190"/>
+  <dimension ref="A1:BH192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35533,7 +35539,7 @@
         <v>811.9</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="E190">
         <v>118.35</v>
@@ -35702,6 +35708,370 @@
       </c>
       <c r="BH190">
         <v>203.65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:60">
+      <c r="A191" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191">
+        <v>23.91</v>
+      </c>
+      <c r="C191">
+        <v>803.9</v>
+      </c>
+      <c r="D191">
+        <v>194.73</v>
+      </c>
+      <c r="E191">
+        <v>117.19</v>
+      </c>
+      <c r="F191">
+        <v>1.29</v>
+      </c>
+      <c r="G191">
+        <v>36.84</v>
+      </c>
+      <c r="H191">
+        <v>125.38</v>
+      </c>
+      <c r="I191">
+        <v>6.21</v>
+      </c>
+      <c r="J191">
+        <v>93.25</v>
+      </c>
+      <c r="K191">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="L191">
+        <v>1134.81</v>
+      </c>
+      <c r="M191">
+        <v>218.93</v>
+      </c>
+      <c r="N191">
+        <v>88.78</v>
+      </c>
+      <c r="O191">
+        <v>584.74</v>
+      </c>
+      <c r="P191">
+        <v>636</v>
+      </c>
+      <c r="Q191">
+        <v>803.9</v>
+      </c>
+      <c r="R191">
+        <v>803.9</v>
+      </c>
+      <c r="S191">
+        <v>380.56</v>
+      </c>
+      <c r="T191">
+        <v>980.37</v>
+      </c>
+      <c r="U191">
+        <v>803.9</v>
+      </c>
+      <c r="V191">
+        <v>593.33</v>
+      </c>
+      <c r="W191">
+        <v>103.26</v>
+      </c>
+      <c r="X191">
+        <v>558.23</v>
+      </c>
+      <c r="Y191">
+        <v>28.88</v>
+      </c>
+      <c r="Z191">
+        <v>0.04</v>
+      </c>
+      <c r="AA191">
+        <v>932.38</v>
+      </c>
+      <c r="AB191">
+        <v>2.61</v>
+      </c>
+      <c r="AC191">
+        <v>7.84</v>
+      </c>
+      <c r="AD191">
+        <v>864.6900000000001</v>
+      </c>
+      <c r="AE191">
+        <v>0.12</v>
+      </c>
+      <c r="AF191">
+        <v>30.21</v>
+      </c>
+      <c r="AG191">
+        <v>188.63</v>
+      </c>
+      <c r="AH191">
+        <v>51.24</v>
+      </c>
+      <c r="AI191">
+        <v>1090.18</v>
+      </c>
+      <c r="AJ191">
+        <v>90.81</v>
+      </c>
+      <c r="AK191">
+        <v>194.76</v>
+      </c>
+      <c r="AL191">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="AM191">
+        <v>0.21</v>
+      </c>
+      <c r="AN191">
+        <v>33.5</v>
+      </c>
+      <c r="AO191">
+        <v>14.3</v>
+      </c>
+      <c r="AP191">
+        <v>15.83</v>
+      </c>
+      <c r="AQ191">
+        <v>39.35</v>
+      </c>
+      <c r="AR191">
+        <v>18.79</v>
+      </c>
+      <c r="AS191">
+        <v>104.02</v>
+      </c>
+      <c r="AT191">
+        <v>54.11</v>
+      </c>
+      <c r="AU191">
+        <v>149.84</v>
+      </c>
+      <c r="AV191">
+        <v>0.02</v>
+      </c>
+      <c r="AW191">
+        <v>214.37</v>
+      </c>
+      <c r="AX191">
+        <v>192.46</v>
+      </c>
+      <c r="AY191">
+        <v>11.06</v>
+      </c>
+      <c r="AZ191">
+        <v>10.85</v>
+      </c>
+      <c r="BA191">
+        <v>0.06</v>
+      </c>
+      <c r="BB191">
+        <v>4.74</v>
+      </c>
+      <c r="BC191">
+        <v>250.05</v>
+      </c>
+      <c r="BD191">
+        <v>1.89</v>
+      </c>
+      <c r="BE191">
+        <v>0.68</v>
+      </c>
+      <c r="BF191">
+        <v>7.24</v>
+      </c>
+      <c r="BG191">
+        <v>125.02</v>
+      </c>
+      <c r="BH191">
+        <v>203.68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:60">
+      <c r="A192" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192">
+        <v>23.88</v>
+      </c>
+      <c r="C192">
+        <v>805.89</v>
+      </c>
+      <c r="D192">
+        <v>193.2</v>
+      </c>
+      <c r="E192">
+        <v>117.48</v>
+      </c>
+      <c r="F192">
+        <v>1.29</v>
+      </c>
+      <c r="G192">
+        <v>36.93</v>
+      </c>
+      <c r="H192">
+        <v>125.9</v>
+      </c>
+      <c r="I192">
+        <v>6.3</v>
+      </c>
+      <c r="J192">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K192">
+        <v>92.34</v>
+      </c>
+      <c r="L192">
+        <v>1138.91</v>
+      </c>
+      <c r="M192">
+        <v>219.47</v>
+      </c>
+      <c r="N192">
+        <v>89.52</v>
+      </c>
+      <c r="O192">
+        <v>587</v>
+      </c>
+      <c r="P192">
+        <v>640.61</v>
+      </c>
+      <c r="Q192">
+        <v>805.89</v>
+      </c>
+      <c r="R192">
+        <v>805.89</v>
+      </c>
+      <c r="S192">
+        <v>382.48</v>
+      </c>
+      <c r="T192">
+        <v>982.79</v>
+      </c>
+      <c r="U192">
+        <v>805.89</v>
+      </c>
+      <c r="V192">
+        <v>593.83</v>
+      </c>
+      <c r="W192">
+        <v>103.49</v>
+      </c>
+      <c r="X192">
+        <v>561.13</v>
+      </c>
+      <c r="Y192">
+        <v>28.92</v>
+      </c>
+      <c r="Z192">
+        <v>0.04</v>
+      </c>
+      <c r="AA192">
+        <v>936.3200000000001</v>
+      </c>
+      <c r="AB192">
+        <v>2.63</v>
+      </c>
+      <c r="AC192">
+        <v>7.87</v>
+      </c>
+      <c r="AD192">
+        <v>871.33</v>
+      </c>
+      <c r="AE192">
+        <v>0.12</v>
+      </c>
+      <c r="AF192">
+        <v>30.57</v>
+      </c>
+      <c r="AG192">
+        <v>189.25</v>
+      </c>
+      <c r="AH192">
+        <v>51.46</v>
+      </c>
+      <c r="AI192">
+        <v>1097.2</v>
+      </c>
+      <c r="AJ192">
+        <v>90.95</v>
+      </c>
+      <c r="AK192">
+        <v>195.13</v>
+      </c>
+      <c r="AL192">
+        <v>8.15</v>
+      </c>
+      <c r="AM192">
+        <v>0.21</v>
+      </c>
+      <c r="AN192">
+        <v>33.58</v>
+      </c>
+      <c r="AO192">
+        <v>14.34</v>
+      </c>
+      <c r="AP192">
+        <v>15.9</v>
+      </c>
+      <c r="AQ192">
+        <v>39.21</v>
+      </c>
+      <c r="AR192">
+        <v>18.81</v>
+      </c>
+      <c r="AS192">
+        <v>104.27</v>
+      </c>
+      <c r="AT192">
+        <v>53.51</v>
+      </c>
+      <c r="AU192">
+        <v>148.26</v>
+      </c>
+      <c r="AV192">
+        <v>0.02</v>
+      </c>
+      <c r="AW192">
+        <v>214.9</v>
+      </c>
+      <c r="AX192">
+        <v>193.12</v>
+      </c>
+      <c r="AY192">
+        <v>11.12</v>
+      </c>
+      <c r="AZ192">
+        <v>10.85</v>
+      </c>
+      <c r="BA192">
+        <v>0.06</v>
+      </c>
+      <c r="BB192">
+        <v>4.73</v>
+      </c>
+      <c r="BC192">
+        <v>250</v>
+      </c>
+      <c r="BD192">
+        <v>1.9</v>
+      </c>
+      <c r="BE192">
+        <v>0.68</v>
+      </c>
+      <c r="BF192">
+        <v>7.27</v>
+      </c>
+      <c r="BG192">
+        <v>124.96</v>
+      </c>
+      <c r="BH192">
+        <v>203.85</v>
       </c>
     </row>
   </sheetData>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>Serie</t>
   </si>
@@ -768,6 +768,15 @@
   <si>
     <t>05-10-2021</t>
   </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1124,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH192"/>
+  <dimension ref="A1:BH195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36074,6 +36083,552 @@
         <v>203.85</v>
       </c>
     </row>
+    <row r="193" spans="1:60">
+      <c r="A193" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193">
+        <v>23.97</v>
+      </c>
+      <c r="C193">
+        <v>810.63</v>
+      </c>
+      <c r="D193">
+        <v>194.62</v>
+      </c>
+      <c r="E193">
+        <v>118.17</v>
+      </c>
+      <c r="F193">
+        <v>1.29</v>
+      </c>
+      <c r="G193">
+        <v>37.12</v>
+      </c>
+      <c r="H193">
+        <v>126.46</v>
+      </c>
+      <c r="I193">
+        <v>6.33</v>
+      </c>
+      <c r="J193">
+        <v>95.06</v>
+      </c>
+      <c r="K193">
+        <v>92.84999999999999</v>
+      </c>
+      <c r="L193">
+        <v>1145.12</v>
+      </c>
+      <c r="M193">
+        <v>220.76</v>
+      </c>
+      <c r="N193">
+        <v>89.67</v>
+      </c>
+      <c r="O193">
+        <v>591.4400000000001</v>
+      </c>
+      <c r="P193">
+        <v>644.84</v>
+      </c>
+      <c r="Q193">
+        <v>810.63</v>
+      </c>
+      <c r="R193">
+        <v>810.63</v>
+      </c>
+      <c r="S193">
+        <v>385.46</v>
+      </c>
+      <c r="T193">
+        <v>988.5700000000001</v>
+      </c>
+      <c r="U193">
+        <v>810.63</v>
+      </c>
+      <c r="V193">
+        <v>597.55</v>
+      </c>
+      <c r="W193">
+        <v>104.13</v>
+      </c>
+      <c r="X193">
+        <v>564.9400000000001</v>
+      </c>
+      <c r="Y193">
+        <v>29.07</v>
+      </c>
+      <c r="Z193">
+        <v>0.04</v>
+      </c>
+      <c r="AA193">
+        <v>940.62</v>
+      </c>
+      <c r="AB193">
+        <v>2.63</v>
+      </c>
+      <c r="AC193">
+        <v>7.92</v>
+      </c>
+      <c r="AD193">
+        <v>873.8099999999999</v>
+      </c>
+      <c r="AE193">
+        <v>0.12</v>
+      </c>
+      <c r="AF193">
+        <v>30.71</v>
+      </c>
+      <c r="AG193">
+        <v>190.29</v>
+      </c>
+      <c r="AH193">
+        <v>51.73</v>
+      </c>
+      <c r="AI193">
+        <v>1105.3</v>
+      </c>
+      <c r="AJ193">
+        <v>91.38</v>
+      </c>
+      <c r="AK193">
+        <v>196.35</v>
+      </c>
+      <c r="AL193">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AM193">
+        <v>0.21</v>
+      </c>
+      <c r="AN193">
+        <v>33.78</v>
+      </c>
+      <c r="AO193">
+        <v>14.43</v>
+      </c>
+      <c r="AP193">
+        <v>16.01</v>
+      </c>
+      <c r="AQ193">
+        <v>39.48</v>
+      </c>
+      <c r="AR193">
+        <v>18.92</v>
+      </c>
+      <c r="AS193">
+        <v>104.91</v>
+      </c>
+      <c r="AT193">
+        <v>54.09</v>
+      </c>
+      <c r="AU193">
+        <v>148.25</v>
+      </c>
+      <c r="AV193">
+        <v>0.02</v>
+      </c>
+      <c r="AW193">
+        <v>216.17</v>
+      </c>
+      <c r="AX193">
+        <v>194</v>
+      </c>
+      <c r="AY193">
+        <v>11.21</v>
+      </c>
+      <c r="AZ193">
+        <v>10.89</v>
+      </c>
+      <c r="BA193">
+        <v>0.06</v>
+      </c>
+      <c r="BB193">
+        <v>4.75</v>
+      </c>
+      <c r="BC193">
+        <v>250.92</v>
+      </c>
+      <c r="BD193">
+        <v>1.91</v>
+      </c>
+      <c r="BE193">
+        <v>0.68</v>
+      </c>
+      <c r="BF193">
+        <v>7.27</v>
+      </c>
+      <c r="BG193">
+        <v>125.77</v>
+      </c>
+      <c r="BH193">
+        <v>204.02</v>
+      </c>
+    </row>
+    <row r="194" spans="1:60">
+      <c r="A194" t="s">
+        <v>252</v>
+      </c>
+      <c r="B194">
+        <v>24.14</v>
+      </c>
+      <c r="C194">
+        <v>816.28</v>
+      </c>
+      <c r="D194">
+        <v>195.1</v>
+      </c>
+      <c r="E194">
+        <v>118.99</v>
+      </c>
+      <c r="F194">
+        <v>1.3</v>
+      </c>
+      <c r="G194">
+        <v>37.1</v>
+      </c>
+      <c r="H194">
+        <v>126.71</v>
+      </c>
+      <c r="I194">
+        <v>6.35</v>
+      </c>
+      <c r="J194">
+        <v>95.01000000000001</v>
+      </c>
+      <c r="K194">
+        <v>92.66</v>
+      </c>
+      <c r="L194">
+        <v>1150.66</v>
+      </c>
+      <c r="M194">
+        <v>222.3</v>
+      </c>
+      <c r="N194">
+        <v>89.95</v>
+      </c>
+      <c r="O194">
+        <v>592.54</v>
+      </c>
+      <c r="P194">
+        <v>647.64</v>
+      </c>
+      <c r="Q194">
+        <v>816.28</v>
+      </c>
+      <c r="R194">
+        <v>816.28</v>
+      </c>
+      <c r="S194">
+        <v>388.15</v>
+      </c>
+      <c r="T194">
+        <v>995.46</v>
+      </c>
+      <c r="U194">
+        <v>816.28</v>
+      </c>
+      <c r="V194">
+        <v>600.25</v>
+      </c>
+      <c r="W194">
+        <v>104.83</v>
+      </c>
+      <c r="X194">
+        <v>563.89</v>
+      </c>
+      <c r="Y194">
+        <v>29.18</v>
+      </c>
+      <c r="Z194">
+        <v>0.04</v>
+      </c>
+      <c r="AA194">
+        <v>942.59</v>
+      </c>
+      <c r="AB194">
+        <v>2.63</v>
+      </c>
+      <c r="AC194">
+        <v>7.9</v>
+      </c>
+      <c r="AD194">
+        <v>879.42</v>
+      </c>
+      <c r="AE194">
+        <v>0.12</v>
+      </c>
+      <c r="AF194">
+        <v>31</v>
+      </c>
+      <c r="AG194">
+        <v>190.68</v>
+      </c>
+      <c r="AH194">
+        <v>52.15</v>
+      </c>
+      <c r="AI194">
+        <v>1107.27</v>
+      </c>
+      <c r="AJ194">
+        <v>91.95</v>
+      </c>
+      <c r="AK194">
+        <v>197.43</v>
+      </c>
+      <c r="AL194">
+        <v>8.25</v>
+      </c>
+      <c r="AM194">
+        <v>0.22</v>
+      </c>
+      <c r="AN194">
+        <v>34.01</v>
+      </c>
+      <c r="AO194">
+        <v>14.54</v>
+      </c>
+      <c r="AP194">
+        <v>16.05</v>
+      </c>
+      <c r="AQ194">
+        <v>39.54</v>
+      </c>
+      <c r="AR194">
+        <v>19.03</v>
+      </c>
+      <c r="AS194">
+        <v>105.64</v>
+      </c>
+      <c r="AT194">
+        <v>54.23</v>
+      </c>
+      <c r="AU194">
+        <v>147.84</v>
+      </c>
+      <c r="AV194">
+        <v>0.02</v>
+      </c>
+      <c r="AW194">
+        <v>217.67</v>
+      </c>
+      <c r="AX194">
+        <v>195.17</v>
+      </c>
+      <c r="AY194">
+        <v>11.27</v>
+      </c>
+      <c r="AZ194">
+        <v>10.89</v>
+      </c>
+      <c r="BA194">
+        <v>0.06</v>
+      </c>
+      <c r="BB194">
+        <v>4.78</v>
+      </c>
+      <c r="BC194">
+        <v>252.18</v>
+      </c>
+      <c r="BD194">
+        <v>1.92</v>
+      </c>
+      <c r="BE194">
+        <v>0.68</v>
+      </c>
+      <c r="BF194">
+        <v>7.33</v>
+      </c>
+      <c r="BG194">
+        <v>126.41</v>
+      </c>
+      <c r="BH194">
+        <v>206.86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:60">
+      <c r="A195" t="s">
+        <v>253</v>
+      </c>
+      <c r="B195">
+        <v>24.09</v>
+      </c>
+      <c r="C195">
+        <v>813.62</v>
+      </c>
+      <c r="D195">
+        <v>195.81</v>
+      </c>
+      <c r="E195">
+        <v>118.6</v>
+      </c>
+      <c r="F195">
+        <v>1.3</v>
+      </c>
+      <c r="G195">
+        <v>36.98</v>
+      </c>
+      <c r="H195">
+        <v>126.44</v>
+      </c>
+      <c r="I195">
+        <v>6.32</v>
+      </c>
+      <c r="J195">
+        <v>95.03</v>
+      </c>
+      <c r="K195">
+        <v>92.70999999999999</v>
+      </c>
+      <c r="L195">
+        <v>1147.88</v>
+      </c>
+      <c r="M195">
+        <v>221.57</v>
+      </c>
+      <c r="N195">
+        <v>89.92</v>
+      </c>
+      <c r="O195">
+        <v>595.3200000000001</v>
+      </c>
+      <c r="P195">
+        <v>648.15</v>
+      </c>
+      <c r="Q195">
+        <v>813.62</v>
+      </c>
+      <c r="R195">
+        <v>813.62</v>
+      </c>
+      <c r="S195">
+        <v>385.99</v>
+      </c>
+      <c r="T195">
+        <v>992.22</v>
+      </c>
+      <c r="U195">
+        <v>813.62</v>
+      </c>
+      <c r="V195">
+        <v>599.09</v>
+      </c>
+      <c r="W195">
+        <v>104.52</v>
+      </c>
+      <c r="X195">
+        <v>564.5</v>
+      </c>
+      <c r="Y195">
+        <v>29.1</v>
+      </c>
+      <c r="Z195">
+        <v>0.04</v>
+      </c>
+      <c r="AA195">
+        <v>940.8200000000001</v>
+      </c>
+      <c r="AB195">
+        <v>2.63</v>
+      </c>
+      <c r="AC195">
+        <v>7.93</v>
+      </c>
+      <c r="AD195">
+        <v>877.03</v>
+      </c>
+      <c r="AE195">
+        <v>0.12</v>
+      </c>
+      <c r="AF195">
+        <v>30.94</v>
+      </c>
+      <c r="AG195">
+        <v>190.22</v>
+      </c>
+      <c r="AH195">
+        <v>51.96</v>
+      </c>
+      <c r="AI195">
+        <v>1108.32</v>
+      </c>
+      <c r="AJ195">
+        <v>91.70999999999999</v>
+      </c>
+      <c r="AK195">
+        <v>198.86</v>
+      </c>
+      <c r="AL195">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AM195">
+        <v>0.22</v>
+      </c>
+      <c r="AN195">
+        <v>33.9</v>
+      </c>
+      <c r="AO195">
+        <v>14.47</v>
+      </c>
+      <c r="AP195">
+        <v>16.09</v>
+      </c>
+      <c r="AQ195">
+        <v>39.46</v>
+      </c>
+      <c r="AR195">
+        <v>18.84</v>
+      </c>
+      <c r="AS195">
+        <v>105.59</v>
+      </c>
+      <c r="AT195">
+        <v>54.52</v>
+      </c>
+      <c r="AU195">
+        <v>147.89</v>
+      </c>
+      <c r="AV195">
+        <v>0.02</v>
+      </c>
+      <c r="AW195">
+        <v>216.97</v>
+      </c>
+      <c r="AX195">
+        <v>194.55</v>
+      </c>
+      <c r="AY195">
+        <v>11.34</v>
+      </c>
+      <c r="AZ195">
+        <v>10.88</v>
+      </c>
+      <c r="BA195">
+        <v>0.06</v>
+      </c>
+      <c r="BB195">
+        <v>4.78</v>
+      </c>
+      <c r="BC195">
+        <v>252.38</v>
+      </c>
+      <c r="BD195">
+        <v>1.91</v>
+      </c>
+      <c r="BE195">
+        <v>0.68</v>
+      </c>
+      <c r="BF195">
+        <v>7.29</v>
+      </c>
+      <c r="BG195">
+        <v>126.08</v>
+      </c>
+      <c r="BH195">
+        <v>205.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -777,6 +777,9 @@
   <si>
     <t>08-10-2021</t>
   </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH195"/>
+  <dimension ref="A1:BH196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36629,6 +36632,188 @@
         <v>205.64</v>
       </c>
     </row>
+    <row r="196" spans="1:60">
+      <c r="A196" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196">
+        <v>24.19</v>
+      </c>
+      <c r="C196">
+        <v>820.1799999999999</v>
+      </c>
+      <c r="D196">
+        <v>197.89</v>
+      </c>
+      <c r="E196">
+        <v>119.56</v>
+      </c>
+      <c r="F196">
+        <v>1.31</v>
+      </c>
+      <c r="G196">
+        <v>37.27</v>
+      </c>
+      <c r="H196">
+        <v>127.45</v>
+      </c>
+      <c r="I196">
+        <v>6.35</v>
+      </c>
+      <c r="J196">
+        <v>95.79000000000001</v>
+      </c>
+      <c r="K196">
+        <v>93.81</v>
+      </c>
+      <c r="L196">
+        <v>1157.14</v>
+      </c>
+      <c r="M196">
+        <v>223.36</v>
+      </c>
+      <c r="N196">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="O196">
+        <v>598.8</v>
+      </c>
+      <c r="P196">
+        <v>657.04</v>
+      </c>
+      <c r="Q196">
+        <v>820.1799999999999</v>
+      </c>
+      <c r="R196">
+        <v>820.1799999999999</v>
+      </c>
+      <c r="S196">
+        <v>389.91</v>
+      </c>
+      <c r="T196">
+        <v>1000.22</v>
+      </c>
+      <c r="U196">
+        <v>820.1799999999999</v>
+      </c>
+      <c r="V196">
+        <v>605.16</v>
+      </c>
+      <c r="W196">
+        <v>105.37</v>
+      </c>
+      <c r="X196">
+        <v>568.0700000000001</v>
+      </c>
+      <c r="Y196">
+        <v>29.21</v>
+      </c>
+      <c r="Z196">
+        <v>0.04</v>
+      </c>
+      <c r="AA196">
+        <v>948.29</v>
+      </c>
+      <c r="AB196">
+        <v>2.63</v>
+      </c>
+      <c r="AC196">
+        <v>7.99</v>
+      </c>
+      <c r="AD196">
+        <v>884.39</v>
+      </c>
+      <c r="AE196">
+        <v>0.12</v>
+      </c>
+      <c r="AF196">
+        <v>31.13</v>
+      </c>
+      <c r="AG196">
+        <v>191.71</v>
+      </c>
+      <c r="AH196">
+        <v>52.37</v>
+      </c>
+      <c r="AI196">
+        <v>1116.65</v>
+      </c>
+      <c r="AJ196">
+        <v>91.62</v>
+      </c>
+      <c r="AK196">
+        <v>200.77</v>
+      </c>
+      <c r="AL196">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AM196">
+        <v>0.22</v>
+      </c>
+      <c r="AN196">
+        <v>34.17</v>
+      </c>
+      <c r="AO196">
+        <v>14.58</v>
+      </c>
+      <c r="AP196">
+        <v>16.23</v>
+      </c>
+      <c r="AQ196">
+        <v>39.55</v>
+      </c>
+      <c r="AR196">
+        <v>18.95</v>
+      </c>
+      <c r="AS196">
+        <v>106.44</v>
+      </c>
+      <c r="AT196">
+        <v>54.85</v>
+      </c>
+      <c r="AU196">
+        <v>148.53</v>
+      </c>
+      <c r="AV196">
+        <v>0.02</v>
+      </c>
+      <c r="AW196">
+        <v>218.71</v>
+      </c>
+      <c r="AX196">
+        <v>196.45</v>
+      </c>
+      <c r="AY196">
+        <v>11.4</v>
+      </c>
+      <c r="AZ196">
+        <v>10.94</v>
+      </c>
+      <c r="BA196">
+        <v>0.06</v>
+      </c>
+      <c r="BB196">
+        <v>4.82</v>
+      </c>
+      <c r="BC196">
+        <v>253.86</v>
+      </c>
+      <c r="BD196">
+        <v>1.93</v>
+      </c>
+      <c r="BE196">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF196">
+        <v>7.31</v>
+      </c>
+      <c r="BG196">
+        <v>127.18</v>
+      </c>
+      <c r="BH196">
+        <v>205.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Serie</t>
   </si>
@@ -780,6 +780,18 @@
   <si>
     <t>12-10-2021</t>
   </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1136,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH196"/>
+  <dimension ref="A1:BH200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36814,6 +36826,734 @@
         <v>205.72</v>
       </c>
     </row>
+    <row r="197" spans="1:60">
+      <c r="A197" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197">
+        <v>24.85</v>
+      </c>
+      <c r="C197">
+        <v>827.5599999999999</v>
+      </c>
+      <c r="D197">
+        <v>199.23</v>
+      </c>
+      <c r="E197">
+        <v>120.64</v>
+      </c>
+      <c r="F197">
+        <v>1.32</v>
+      </c>
+      <c r="G197">
+        <v>37.56</v>
+      </c>
+      <c r="H197">
+        <v>128.19</v>
+      </c>
+      <c r="I197">
+        <v>6.37</v>
+      </c>
+      <c r="J197">
+        <v>96.68000000000001</v>
+      </c>
+      <c r="K197">
+        <v>94.23</v>
+      </c>
+      <c r="L197">
+        <v>1166.07</v>
+      </c>
+      <c r="M197">
+        <v>225.37</v>
+      </c>
+      <c r="N197">
+        <v>91.14</v>
+      </c>
+      <c r="O197">
+        <v>608.3200000000001</v>
+      </c>
+      <c r="P197">
+        <v>663.91</v>
+      </c>
+      <c r="Q197">
+        <v>827.5599999999999</v>
+      </c>
+      <c r="R197">
+        <v>827.5599999999999</v>
+      </c>
+      <c r="S197">
+        <v>393.76</v>
+      </c>
+      <c r="T197">
+        <v>1009.22</v>
+      </c>
+      <c r="U197">
+        <v>827.5599999999999</v>
+      </c>
+      <c r="V197">
+        <v>609.76</v>
+      </c>
+      <c r="W197">
+        <v>106.35</v>
+      </c>
+      <c r="X197">
+        <v>573.74</v>
+      </c>
+      <c r="Y197">
+        <v>29.39</v>
+      </c>
+      <c r="Z197">
+        <v>0.04</v>
+      </c>
+      <c r="AA197">
+        <v>953.74</v>
+      </c>
+      <c r="AB197">
+        <v>2.65</v>
+      </c>
+      <c r="AC197">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AD197">
+        <v>888.7</v>
+      </c>
+      <c r="AE197">
+        <v>0.12</v>
+      </c>
+      <c r="AF197">
+        <v>31.69</v>
+      </c>
+      <c r="AG197">
+        <v>192.76</v>
+      </c>
+      <c r="AH197">
+        <v>52.73</v>
+      </c>
+      <c r="AI197">
+        <v>1123.94</v>
+      </c>
+      <c r="AJ197">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="AK197">
+        <v>204.06</v>
+      </c>
+      <c r="AL197">
+        <v>8.35</v>
+      </c>
+      <c r="AM197">
+        <v>0.22</v>
+      </c>
+      <c r="AN197">
+        <v>34.48</v>
+      </c>
+      <c r="AO197">
+        <v>14.77</v>
+      </c>
+      <c r="AP197">
+        <v>16.28</v>
+      </c>
+      <c r="AQ197">
+        <v>39.86</v>
+      </c>
+      <c r="AR197">
+        <v>19.07</v>
+      </c>
+      <c r="AS197">
+        <v>107.22</v>
+      </c>
+      <c r="AT197">
+        <v>55.3</v>
+      </c>
+      <c r="AU197">
+        <v>149.45</v>
+      </c>
+      <c r="AV197">
+        <v>0.02</v>
+      </c>
+      <c r="AW197">
+        <v>220.68</v>
+      </c>
+      <c r="AX197">
+        <v>198.79</v>
+      </c>
+      <c r="AY197">
+        <v>11.52</v>
+      </c>
+      <c r="AZ197">
+        <v>10.96</v>
+      </c>
+      <c r="BA197">
+        <v>0.06</v>
+      </c>
+      <c r="BB197">
+        <v>4.84</v>
+      </c>
+      <c r="BC197">
+        <v>256.2</v>
+      </c>
+      <c r="BD197">
+        <v>1.95</v>
+      </c>
+      <c r="BE197">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF197">
+        <v>7.28</v>
+      </c>
+      <c r="BG197">
+        <v>128.19</v>
+      </c>
+      <c r="BH197">
+        <v>208.29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:60">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198">
+        <v>24.72</v>
+      </c>
+      <c r="C198">
+        <v>820.1900000000001</v>
+      </c>
+      <c r="D198">
+        <v>197.5</v>
+      </c>
+      <c r="E198">
+        <v>119.56</v>
+      </c>
+      <c r="F198">
+        <v>1.31</v>
+      </c>
+      <c r="G198">
+        <v>37.44</v>
+      </c>
+      <c r="H198">
+        <v>127.73</v>
+      </c>
+      <c r="I198">
+        <v>6.37</v>
+      </c>
+      <c r="J198">
+        <v>96.55</v>
+      </c>
+      <c r="K198">
+        <v>94.31999999999999</v>
+      </c>
+      <c r="L198">
+        <v>1156.01</v>
+      </c>
+      <c r="M198">
+        <v>223.36</v>
+      </c>
+      <c r="N198">
+        <v>90.84</v>
+      </c>
+      <c r="O198">
+        <v>605.22</v>
+      </c>
+      <c r="P198">
+        <v>659.58</v>
+      </c>
+      <c r="Q198">
+        <v>820.1900000000001</v>
+      </c>
+      <c r="R198">
+        <v>820.1900000000001</v>
+      </c>
+      <c r="S198">
+        <v>390.66</v>
+      </c>
+      <c r="T198">
+        <v>1000.23</v>
+      </c>
+      <c r="U198">
+        <v>820.1900000000001</v>
+      </c>
+      <c r="V198">
+        <v>606.5599999999999</v>
+      </c>
+      <c r="W198">
+        <v>105.43</v>
+      </c>
+      <c r="X198">
+        <v>571</v>
+      </c>
+      <c r="Y198">
+        <v>29.2</v>
+      </c>
+      <c r="Z198">
+        <v>0.04</v>
+      </c>
+      <c r="AA198">
+        <v>950.39</v>
+      </c>
+      <c r="AB198">
+        <v>2.64</v>
+      </c>
+      <c r="AC198">
+        <v>7.99</v>
+      </c>
+      <c r="AD198">
+        <v>887.36</v>
+      </c>
+      <c r="AE198">
+        <v>0.12</v>
+      </c>
+      <c r="AF198">
+        <v>31.14</v>
+      </c>
+      <c r="AG198">
+        <v>192.1</v>
+      </c>
+      <c r="AH198">
+        <v>52.4</v>
+      </c>
+      <c r="AI198">
+        <v>1120.02</v>
+      </c>
+      <c r="AJ198">
+        <v>90.47</v>
+      </c>
+      <c r="AK198">
+        <v>205.71</v>
+      </c>
+      <c r="AL198">
+        <v>8.27</v>
+      </c>
+      <c r="AM198">
+        <v>0.22</v>
+      </c>
+      <c r="AN198">
+        <v>34.17</v>
+      </c>
+      <c r="AO198">
+        <v>14.63</v>
+      </c>
+      <c r="AP198">
+        <v>16.19</v>
+      </c>
+      <c r="AQ198">
+        <v>39.74</v>
+      </c>
+      <c r="AR198">
+        <v>18.8</v>
+      </c>
+      <c r="AS198">
+        <v>106.44</v>
+      </c>
+      <c r="AT198">
+        <v>55.41</v>
+      </c>
+      <c r="AU198">
+        <v>147.25</v>
+      </c>
+      <c r="AV198">
+        <v>0.02</v>
+      </c>
+      <c r="AW198">
+        <v>218.72</v>
+      </c>
+      <c r="AX198">
+        <v>197.21</v>
+      </c>
+      <c r="AY198">
+        <v>11.39</v>
+      </c>
+      <c r="AZ198">
+        <v>10.88</v>
+      </c>
+      <c r="BA198">
+        <v>0.06</v>
+      </c>
+      <c r="BB198">
+        <v>4.8</v>
+      </c>
+      <c r="BC198">
+        <v>253.98</v>
+      </c>
+      <c r="BD198">
+        <v>1.93</v>
+      </c>
+      <c r="BE198">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF198">
+        <v>7.24</v>
+      </c>
+      <c r="BG198">
+        <v>127.64</v>
+      </c>
+      <c r="BH198">
+        <v>207.6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:60">
+      <c r="A199" t="s">
+        <v>257</v>
+      </c>
+      <c r="B199">
+        <v>24.63</v>
+      </c>
+      <c r="C199">
+        <v>816.8099999999999</v>
+      </c>
+      <c r="D199">
+        <v>195.83</v>
+      </c>
+      <c r="E199">
+        <v>119.07</v>
+      </c>
+      <c r="F199">
+        <v>1.3</v>
+      </c>
+      <c r="G199">
+        <v>37.3</v>
+      </c>
+      <c r="H199">
+        <v>127.23</v>
+      </c>
+      <c r="I199">
+        <v>6.33</v>
+      </c>
+      <c r="J199">
+        <v>96.53</v>
+      </c>
+      <c r="K199">
+        <v>94.51000000000001</v>
+      </c>
+      <c r="L199">
+        <v>1153.69</v>
+      </c>
+      <c r="M199">
+        <v>222.44</v>
+      </c>
+      <c r="N199">
+        <v>90.22</v>
+      </c>
+      <c r="O199">
+        <v>605.27</v>
+      </c>
+      <c r="P199">
+        <v>660.21</v>
+      </c>
+      <c r="Q199">
+        <v>816.8099999999999</v>
+      </c>
+      <c r="R199">
+        <v>816.8099999999999</v>
+      </c>
+      <c r="S199">
+        <v>389.63</v>
+      </c>
+      <c r="T199">
+        <v>996.11</v>
+      </c>
+      <c r="U199">
+        <v>816.8099999999999</v>
+      </c>
+      <c r="V199">
+        <v>605.45</v>
+      </c>
+      <c r="W199">
+        <v>105.01</v>
+      </c>
+      <c r="X199">
+        <v>573.64</v>
+      </c>
+      <c r="Y199">
+        <v>29.08</v>
+      </c>
+      <c r="Z199">
+        <v>0.04</v>
+      </c>
+      <c r="AA199">
+        <v>946.59</v>
+      </c>
+      <c r="AB199">
+        <v>2.64</v>
+      </c>
+      <c r="AC199">
+        <v>7.97</v>
+      </c>
+      <c r="AD199">
+        <v>884.28</v>
+      </c>
+      <c r="AE199">
+        <v>0.12</v>
+      </c>
+      <c r="AF199">
+        <v>31.01</v>
+      </c>
+      <c r="AG199">
+        <v>191.29</v>
+      </c>
+      <c r="AH199">
+        <v>52.18</v>
+      </c>
+      <c r="AI199">
+        <v>1117.39</v>
+      </c>
+      <c r="AJ199">
+        <v>88.94</v>
+      </c>
+      <c r="AK199">
+        <v>208.33</v>
+      </c>
+      <c r="AL199">
+        <v>8.24</v>
+      </c>
+      <c r="AM199">
+        <v>0.22</v>
+      </c>
+      <c r="AN199">
+        <v>34.03</v>
+      </c>
+      <c r="AO199">
+        <v>14.52</v>
+      </c>
+      <c r="AP199">
+        <v>16.14</v>
+      </c>
+      <c r="AQ199">
+        <v>39.7</v>
+      </c>
+      <c r="AR199">
+        <v>18.68</v>
+      </c>
+      <c r="AS199">
+        <v>105.71</v>
+      </c>
+      <c r="AT199">
+        <v>55.21</v>
+      </c>
+      <c r="AU199">
+        <v>148.21</v>
+      </c>
+      <c r="AV199">
+        <v>0.02</v>
+      </c>
+      <c r="AW199">
+        <v>217.82</v>
+      </c>
+      <c r="AX199">
+        <v>196.7</v>
+      </c>
+      <c r="AY199">
+        <v>11.44</v>
+      </c>
+      <c r="AZ199">
+        <v>10.85</v>
+      </c>
+      <c r="BA199">
+        <v>0.06</v>
+      </c>
+      <c r="BB199">
+        <v>4.78</v>
+      </c>
+      <c r="BC199">
+        <v>253.59</v>
+      </c>
+      <c r="BD199">
+        <v>1.92</v>
+      </c>
+      <c r="BE199">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF199">
+        <v>7.19</v>
+      </c>
+      <c r="BG199">
+        <v>126.9</v>
+      </c>
+      <c r="BH199">
+        <v>207.26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:60">
+      <c r="A200" t="s">
+        <v>258</v>
+      </c>
+      <c r="B200">
+        <v>24.74</v>
+      </c>
+      <c r="C200">
+        <v>826.1900000000001</v>
+      </c>
+      <c r="D200">
+        <v>199.01</v>
+      </c>
+      <c r="E200">
+        <v>120.44</v>
+      </c>
+      <c r="F200">
+        <v>1.32</v>
+      </c>
+      <c r="G200">
+        <v>37.78</v>
+      </c>
+      <c r="H200">
+        <v>128.77</v>
+      </c>
+      <c r="I200">
+        <v>6.42</v>
+      </c>
+      <c r="J200">
+        <v>98.06999999999999</v>
+      </c>
+      <c r="K200">
+        <v>95.95</v>
+      </c>
+      <c r="L200">
+        <v>1166.44</v>
+      </c>
+      <c r="M200">
+        <v>225</v>
+      </c>
+      <c r="N200">
+        <v>91.36</v>
+      </c>
+      <c r="O200">
+        <v>612.72</v>
+      </c>
+      <c r="P200">
+        <v>667.09</v>
+      </c>
+      <c r="Q200">
+        <v>826.1900000000001</v>
+      </c>
+      <c r="R200">
+        <v>826.1900000000001</v>
+      </c>
+      <c r="S200">
+        <v>395.57</v>
+      </c>
+      <c r="T200">
+        <v>1007.55</v>
+      </c>
+      <c r="U200">
+        <v>826.1900000000001</v>
+      </c>
+      <c r="V200">
+        <v>612.67</v>
+      </c>
+      <c r="W200">
+        <v>106.21</v>
+      </c>
+      <c r="X200">
+        <v>584.13</v>
+      </c>
+      <c r="Y200">
+        <v>29.52</v>
+      </c>
+      <c r="Z200">
+        <v>0.04</v>
+      </c>
+      <c r="AA200">
+        <v>958.12</v>
+      </c>
+      <c r="AB200">
+        <v>2.67</v>
+      </c>
+      <c r="AC200">
+        <v>8.06</v>
+      </c>
+      <c r="AD200">
+        <v>894.53</v>
+      </c>
+      <c r="AE200">
+        <v>0.12</v>
+      </c>
+      <c r="AF200">
+        <v>31.36</v>
+      </c>
+      <c r="AG200">
+        <v>193.77</v>
+      </c>
+      <c r="AH200">
+        <v>52.68</v>
+      </c>
+      <c r="AI200">
+        <v>1136.44</v>
+      </c>
+      <c r="AJ200">
+        <v>89.58</v>
+      </c>
+      <c r="AK200">
+        <v>210.2</v>
+      </c>
+      <c r="AL200">
+        <v>8.33</v>
+      </c>
+      <c r="AM200">
+        <v>0.22</v>
+      </c>
+      <c r="AN200">
+        <v>34.42</v>
+      </c>
+      <c r="AO200">
+        <v>14.69</v>
+      </c>
+      <c r="AP200">
+        <v>16.29</v>
+      </c>
+      <c r="AQ200">
+        <v>40.55</v>
+      </c>
+      <c r="AR200">
+        <v>18.87</v>
+      </c>
+      <c r="AS200">
+        <v>107.25</v>
+      </c>
+      <c r="AT200">
+        <v>56.5</v>
+      </c>
+      <c r="AU200">
+        <v>151.8</v>
+      </c>
+      <c r="AV200">
+        <v>0.02</v>
+      </c>
+      <c r="AW200">
+        <v>220.32</v>
+      </c>
+      <c r="AX200">
+        <v>198.79</v>
+      </c>
+      <c r="AY200">
+        <v>11.63</v>
+      </c>
+      <c r="AZ200">
+        <v>10.98</v>
+      </c>
+      <c r="BA200">
+        <v>0.06</v>
+      </c>
+      <c r="BB200">
+        <v>4.83</v>
+      </c>
+      <c r="BC200">
+        <v>256.59</v>
+      </c>
+      <c r="BD200">
+        <v>1.94</v>
+      </c>
+      <c r="BE200">
+        <v>0.7</v>
+      </c>
+      <c r="BF200">
+        <v>7.23</v>
+      </c>
+      <c r="BG200">
+        <v>128.4</v>
+      </c>
+      <c r="BH200">
+        <v>210.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>Serie</t>
   </si>
@@ -792,6 +792,36 @@
   <si>
     <t>18-10-2021</t>
   </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1148,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH200"/>
+  <dimension ref="A1:BH210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -37554,6 +37584,1826 @@
         <v>210.01</v>
       </c>
     </row>
+    <row r="201" spans="1:60">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201">
+        <v>24.52</v>
+      </c>
+      <c r="C201">
+        <v>820.29</v>
+      </c>
+      <c r="D201">
+        <v>198.67</v>
+      </c>
+      <c r="E201">
+        <v>119.58</v>
+      </c>
+      <c r="F201">
+        <v>1.31</v>
+      </c>
+      <c r="G201">
+        <v>37.4</v>
+      </c>
+      <c r="H201">
+        <v>128.06</v>
+      </c>
+      <c r="I201">
+        <v>6.36</v>
+      </c>
+      <c r="J201">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="K201">
+        <v>94.77</v>
+      </c>
+      <c r="L201">
+        <v>1157.46</v>
+      </c>
+      <c r="M201">
+        <v>223.39</v>
+      </c>
+      <c r="N201">
+        <v>90.78</v>
+      </c>
+      <c r="O201">
+        <v>608.16</v>
+      </c>
+      <c r="P201">
+        <v>662.8099999999999</v>
+      </c>
+      <c r="Q201">
+        <v>820.29</v>
+      </c>
+      <c r="R201">
+        <v>820.29</v>
+      </c>
+      <c r="S201">
+        <v>393.16</v>
+      </c>
+      <c r="T201">
+        <v>1000.35</v>
+      </c>
+      <c r="U201">
+        <v>820.29</v>
+      </c>
+      <c r="V201">
+        <v>608.0700000000001</v>
+      </c>
+      <c r="W201">
+        <v>105.46</v>
+      </c>
+      <c r="X201">
+        <v>580.9400000000001</v>
+      </c>
+      <c r="Y201">
+        <v>29.29</v>
+      </c>
+      <c r="Z201">
+        <v>0.04</v>
+      </c>
+      <c r="AA201">
+        <v>952.72</v>
+      </c>
+      <c r="AB201">
+        <v>2.63</v>
+      </c>
+      <c r="AC201">
+        <v>8</v>
+      </c>
+      <c r="AD201">
+        <v>888.8200000000001</v>
+      </c>
+      <c r="AE201">
+        <v>0.12</v>
+      </c>
+      <c r="AF201">
+        <v>31.18</v>
+      </c>
+      <c r="AG201">
+        <v>192.65</v>
+      </c>
+      <c r="AH201">
+        <v>52.4</v>
+      </c>
+      <c r="AI201">
+        <v>1126.62</v>
+      </c>
+      <c r="AJ201">
+        <v>88.09</v>
+      </c>
+      <c r="AK201">
+        <v>207.69</v>
+      </c>
+      <c r="AL201">
+        <v>8.26</v>
+      </c>
+      <c r="AM201">
+        <v>0.22</v>
+      </c>
+      <c r="AN201">
+        <v>34.18</v>
+      </c>
+      <c r="AO201">
+        <v>14.59</v>
+      </c>
+      <c r="AP201">
+        <v>16.14</v>
+      </c>
+      <c r="AQ201">
+        <v>40.35</v>
+      </c>
+      <c r="AR201">
+        <v>18.8</v>
+      </c>
+      <c r="AS201">
+        <v>106.26</v>
+      </c>
+      <c r="AT201">
+        <v>55.9</v>
+      </c>
+      <c r="AU201">
+        <v>148.81</v>
+      </c>
+      <c r="AV201">
+        <v>0.02</v>
+      </c>
+      <c r="AW201">
+        <v>218.74</v>
+      </c>
+      <c r="AX201">
+        <v>196.76</v>
+      </c>
+      <c r="AY201">
+        <v>11.51</v>
+      </c>
+      <c r="AZ201">
+        <v>10.89</v>
+      </c>
+      <c r="BA201">
+        <v>0.06</v>
+      </c>
+      <c r="BB201">
+        <v>4.77</v>
+      </c>
+      <c r="BC201">
+        <v>255.09</v>
+      </c>
+      <c r="BD201">
+        <v>1.93</v>
+      </c>
+      <c r="BE201">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF201">
+        <v>7.18</v>
+      </c>
+      <c r="BG201">
+        <v>127.63</v>
+      </c>
+      <c r="BH201">
+        <v>207.74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:60">
+      <c r="A202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B202">
+        <v>24.39</v>
+      </c>
+      <c r="C202">
+        <v>813.33</v>
+      </c>
+      <c r="D202">
+        <v>196.43</v>
+      </c>
+      <c r="E202">
+        <v>118.56</v>
+      </c>
+      <c r="F202">
+        <v>1.29</v>
+      </c>
+      <c r="G202">
+        <v>37.12</v>
+      </c>
+      <c r="H202">
+        <v>127.27</v>
+      </c>
+      <c r="I202">
+        <v>6.32</v>
+      </c>
+      <c r="J202">
+        <v>97.45999999999999</v>
+      </c>
+      <c r="K202">
+        <v>94.44</v>
+      </c>
+      <c r="L202">
+        <v>1151.54</v>
+      </c>
+      <c r="M202">
+        <v>221.5</v>
+      </c>
+      <c r="N202">
+        <v>90.13</v>
+      </c>
+      <c r="O202">
+        <v>608.6900000000001</v>
+      </c>
+      <c r="P202">
+        <v>658.51</v>
+      </c>
+      <c r="Q202">
+        <v>813.33</v>
+      </c>
+      <c r="R202">
+        <v>813.33</v>
+      </c>
+      <c r="S202">
+        <v>389.92</v>
+      </c>
+      <c r="T202">
+        <v>991.87</v>
+      </c>
+      <c r="U202">
+        <v>813.33</v>
+      </c>
+      <c r="V202">
+        <v>605.2</v>
+      </c>
+      <c r="W202">
+        <v>104.59</v>
+      </c>
+      <c r="X202">
+        <v>583.3200000000001</v>
+      </c>
+      <c r="Y202">
+        <v>29.19</v>
+      </c>
+      <c r="Z202">
+        <v>0.04</v>
+      </c>
+      <c r="AA202">
+        <v>946.83</v>
+      </c>
+      <c r="AB202">
+        <v>2.61</v>
+      </c>
+      <c r="AC202">
+        <v>7.94</v>
+      </c>
+      <c r="AD202">
+        <v>881.66</v>
+      </c>
+      <c r="AE202">
+        <v>0.12</v>
+      </c>
+      <c r="AF202">
+        <v>31.17</v>
+      </c>
+      <c r="AG202">
+        <v>191.41</v>
+      </c>
+      <c r="AH202">
+        <v>51.78</v>
+      </c>
+      <c r="AI202">
+        <v>1122.92</v>
+      </c>
+      <c r="AJ202">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="AK202">
+        <v>206.24</v>
+      </c>
+      <c r="AL202">
+        <v>8.19</v>
+      </c>
+      <c r="AM202">
+        <v>0.22</v>
+      </c>
+      <c r="AN202">
+        <v>33.89</v>
+      </c>
+      <c r="AO202">
+        <v>14.48</v>
+      </c>
+      <c r="AP202">
+        <v>16.04</v>
+      </c>
+      <c r="AQ202">
+        <v>40.22</v>
+      </c>
+      <c r="AR202">
+        <v>18.64</v>
+      </c>
+      <c r="AS202">
+        <v>105.46</v>
+      </c>
+      <c r="AT202">
+        <v>56.08</v>
+      </c>
+      <c r="AU202">
+        <v>146.26</v>
+      </c>
+      <c r="AV202">
+        <v>0.02</v>
+      </c>
+      <c r="AW202">
+        <v>216.89</v>
+      </c>
+      <c r="AX202">
+        <v>195.09</v>
+      </c>
+      <c r="AY202">
+        <v>11.48</v>
+      </c>
+      <c r="AZ202">
+        <v>10.8</v>
+      </c>
+      <c r="BA202">
+        <v>0.06</v>
+      </c>
+      <c r="BB202">
+        <v>4.72</v>
+      </c>
+      <c r="BC202">
+        <v>253.26</v>
+      </c>
+      <c r="BD202">
+        <v>1.91</v>
+      </c>
+      <c r="BE202">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF202">
+        <v>7.12</v>
+      </c>
+      <c r="BG202">
+        <v>127.71</v>
+      </c>
+      <c r="BH202">
+        <v>206.64</v>
+      </c>
+    </row>
+    <row r="203" spans="1:60">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="B203">
+        <v>24.33</v>
+      </c>
+      <c r="C203">
+        <v>811.55</v>
+      </c>
+      <c r="D203">
+        <v>195.74</v>
+      </c>
+      <c r="E203">
+        <v>118.3</v>
+      </c>
+      <c r="F203">
+        <v>1.29</v>
+      </c>
+      <c r="G203">
+        <v>37.05</v>
+      </c>
+      <c r="H203">
+        <v>127.1</v>
+      </c>
+      <c r="I203">
+        <v>6.31</v>
+      </c>
+      <c r="J203">
+        <v>97.48</v>
+      </c>
+      <c r="K203">
+        <v>94.5</v>
+      </c>
+      <c r="L203">
+        <v>1147.39</v>
+      </c>
+      <c r="M203">
+        <v>221.01</v>
+      </c>
+      <c r="N203">
+        <v>90.14</v>
+      </c>
+      <c r="O203">
+        <v>609.45</v>
+      </c>
+      <c r="P203">
+        <v>658.5700000000001</v>
+      </c>
+      <c r="Q203">
+        <v>811.55</v>
+      </c>
+      <c r="R203">
+        <v>811.55</v>
+      </c>
+      <c r="S203">
+        <v>391</v>
+      </c>
+      <c r="T203">
+        <v>989.7</v>
+      </c>
+      <c r="U203">
+        <v>811.55</v>
+      </c>
+      <c r="V203">
+        <v>604.24</v>
+      </c>
+      <c r="W203">
+        <v>104.39</v>
+      </c>
+      <c r="X203">
+        <v>584.3099999999999</v>
+      </c>
+      <c r="Y203">
+        <v>29.12</v>
+      </c>
+      <c r="Z203">
+        <v>0.04</v>
+      </c>
+      <c r="AA203">
+        <v>945.64</v>
+      </c>
+      <c r="AB203">
+        <v>2.61</v>
+      </c>
+      <c r="AC203">
+        <v>7.92</v>
+      </c>
+      <c r="AD203">
+        <v>883.08</v>
+      </c>
+      <c r="AE203">
+        <v>0.12</v>
+      </c>
+      <c r="AF203">
+        <v>31.01</v>
+      </c>
+      <c r="AG203">
+        <v>191.33</v>
+      </c>
+      <c r="AH203">
+        <v>51.76</v>
+      </c>
+      <c r="AI203">
+        <v>1121.7</v>
+      </c>
+      <c r="AJ203">
+        <v>88.08</v>
+      </c>
+      <c r="AK203">
+        <v>205.85</v>
+      </c>
+      <c r="AL203">
+        <v>8.17</v>
+      </c>
+      <c r="AM203">
+        <v>0.22</v>
+      </c>
+      <c r="AN203">
+        <v>33.81</v>
+      </c>
+      <c r="AO203">
+        <v>14.44</v>
+      </c>
+      <c r="AP203">
+        <v>15.98</v>
+      </c>
+      <c r="AQ203">
+        <v>40.17</v>
+      </c>
+      <c r="AR203">
+        <v>18.58</v>
+      </c>
+      <c r="AS203">
+        <v>105.35</v>
+      </c>
+      <c r="AT203">
+        <v>56.29</v>
+      </c>
+      <c r="AU203">
+        <v>145.94</v>
+      </c>
+      <c r="AV203">
+        <v>0.02</v>
+      </c>
+      <c r="AW203">
+        <v>216.41</v>
+      </c>
+      <c r="AX203">
+        <v>195.18</v>
+      </c>
+      <c r="AY203">
+        <v>11.46</v>
+      </c>
+      <c r="AZ203">
+        <v>10.84</v>
+      </c>
+      <c r="BA203">
+        <v>0.06</v>
+      </c>
+      <c r="BB203">
+        <v>4.69</v>
+      </c>
+      <c r="BC203">
+        <v>252.76</v>
+      </c>
+      <c r="BD203">
+        <v>1.9</v>
+      </c>
+      <c r="BE203">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF203">
+        <v>7.11</v>
+      </c>
+      <c r="BG203">
+        <v>126.94</v>
+      </c>
+      <c r="BH203">
+        <v>206.32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:60">
+      <c r="A204" t="s">
+        <v>262</v>
+      </c>
+      <c r="B204">
+        <v>24.49</v>
+      </c>
+      <c r="C204">
+        <v>817.61</v>
+      </c>
+      <c r="D204">
+        <v>196.35</v>
+      </c>
+      <c r="E204">
+        <v>119.19</v>
+      </c>
+      <c r="F204">
+        <v>1.3</v>
+      </c>
+      <c r="G204">
+        <v>37.09</v>
+      </c>
+      <c r="H204">
+        <v>127.9</v>
+      </c>
+      <c r="I204">
+        <v>6.35</v>
+      </c>
+      <c r="J204">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K204">
+        <v>95.14</v>
+      </c>
+      <c r="L204">
+        <v>1156.78</v>
+      </c>
+      <c r="M204">
+        <v>222.66</v>
+      </c>
+      <c r="N204">
+        <v>90.45</v>
+      </c>
+      <c r="O204">
+        <v>610.61</v>
+      </c>
+      <c r="P204">
+        <v>661.0700000000001</v>
+      </c>
+      <c r="Q204">
+        <v>817.61</v>
+      </c>
+      <c r="R204">
+        <v>817.61</v>
+      </c>
+      <c r="S204">
+        <v>395.23</v>
+      </c>
+      <c r="T204">
+        <v>997.09</v>
+      </c>
+      <c r="U204">
+        <v>817.61</v>
+      </c>
+      <c r="V204">
+        <v>607.21</v>
+      </c>
+      <c r="W204">
+        <v>105.17</v>
+      </c>
+      <c r="X204">
+        <v>584.59</v>
+      </c>
+      <c r="Y204">
+        <v>29.34</v>
+      </c>
+      <c r="Z204">
+        <v>0.04</v>
+      </c>
+      <c r="AA204">
+        <v>951.48</v>
+      </c>
+      <c r="AB204">
+        <v>2.61</v>
+      </c>
+      <c r="AC204">
+        <v>7.98</v>
+      </c>
+      <c r="AD204">
+        <v>890.74</v>
+      </c>
+      <c r="AE204">
+        <v>0.12</v>
+      </c>
+      <c r="AF204">
+        <v>31.02</v>
+      </c>
+      <c r="AG204">
+        <v>192.44</v>
+      </c>
+      <c r="AH204">
+        <v>52.2</v>
+      </c>
+      <c r="AI204">
+        <v>1127.74</v>
+      </c>
+      <c r="AJ204">
+        <v>86.52</v>
+      </c>
+      <c r="AK204">
+        <v>206.96</v>
+      </c>
+      <c r="AL204">
+        <v>8.23</v>
+      </c>
+      <c r="AM204">
+        <v>0.22</v>
+      </c>
+      <c r="AN204">
+        <v>34.07</v>
+      </c>
+      <c r="AO204">
+        <v>14.53</v>
+      </c>
+      <c r="AP204">
+        <v>16.1</v>
+      </c>
+      <c r="AQ204">
+        <v>40.29</v>
+      </c>
+      <c r="AR204">
+        <v>18.68</v>
+      </c>
+      <c r="AS204">
+        <v>105.81</v>
+      </c>
+      <c r="AT204">
+        <v>55.87</v>
+      </c>
+      <c r="AU204">
+        <v>144.49</v>
+      </c>
+      <c r="AV204">
+        <v>0.02</v>
+      </c>
+      <c r="AW204">
+        <v>218.03</v>
+      </c>
+      <c r="AX204">
+        <v>196.71</v>
+      </c>
+      <c r="AY204">
+        <v>11.49</v>
+      </c>
+      <c r="AZ204">
+        <v>10.92</v>
+      </c>
+      <c r="BA204">
+        <v>0.06</v>
+      </c>
+      <c r="BB204">
+        <v>4.72</v>
+      </c>
+      <c r="BC204">
+        <v>254.91</v>
+      </c>
+      <c r="BD204">
+        <v>1.92</v>
+      </c>
+      <c r="BE204">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF204">
+        <v>7.19</v>
+      </c>
+      <c r="BG204">
+        <v>127.93</v>
+      </c>
+      <c r="BH204">
+        <v>206.59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:60">
+      <c r="A205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B205">
+        <v>24.5</v>
+      </c>
+      <c r="C205">
+        <v>816.58</v>
+      </c>
+      <c r="D205">
+        <v>194.4</v>
+      </c>
+      <c r="E205">
+        <v>119.03</v>
+      </c>
+      <c r="F205">
+        <v>1.3</v>
+      </c>
+      <c r="G205">
+        <v>37</v>
+      </c>
+      <c r="H205">
+        <v>127.6</v>
+      </c>
+      <c r="I205">
+        <v>6.33</v>
+      </c>
+      <c r="J205">
+        <v>97.58</v>
+      </c>
+      <c r="K205">
+        <v>95.08</v>
+      </c>
+      <c r="L205">
+        <v>1155.48</v>
+      </c>
+      <c r="M205">
+        <v>222.38</v>
+      </c>
+      <c r="N205">
+        <v>90.17</v>
+      </c>
+      <c r="O205">
+        <v>608.9299999999999</v>
+      </c>
+      <c r="P205">
+        <v>659.8099999999999</v>
+      </c>
+      <c r="Q205">
+        <v>816.58</v>
+      </c>
+      <c r="R205">
+        <v>816.58</v>
+      </c>
+      <c r="S205">
+        <v>393.27</v>
+      </c>
+      <c r="T205">
+        <v>995.83</v>
+      </c>
+      <c r="U205">
+        <v>816.58</v>
+      </c>
+      <c r="V205">
+        <v>605.28</v>
+      </c>
+      <c r="W205">
+        <v>105.06</v>
+      </c>
+      <c r="X205">
+        <v>583.1900000000001</v>
+      </c>
+      <c r="Y205">
+        <v>29.31</v>
+      </c>
+      <c r="Z205">
+        <v>0.04</v>
+      </c>
+      <c r="AA205">
+        <v>949.4</v>
+      </c>
+      <c r="AB205">
+        <v>2.6</v>
+      </c>
+      <c r="AC205">
+        <v>7.97</v>
+      </c>
+      <c r="AD205">
+        <v>890.1</v>
+      </c>
+      <c r="AE205">
+        <v>0.12</v>
+      </c>
+      <c r="AF205">
+        <v>31.07</v>
+      </c>
+      <c r="AG205">
+        <v>192</v>
+      </c>
+      <c r="AH205">
+        <v>52.17</v>
+      </c>
+      <c r="AI205">
+        <v>1122.14</v>
+      </c>
+      <c r="AJ205">
+        <v>85.06</v>
+      </c>
+      <c r="AK205">
+        <v>206.05</v>
+      </c>
+      <c r="AL205">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AM205">
+        <v>0.22</v>
+      </c>
+      <c r="AN205">
+        <v>34.02</v>
+      </c>
+      <c r="AO205">
+        <v>14.51</v>
+      </c>
+      <c r="AP205">
+        <v>16.08</v>
+      </c>
+      <c r="AQ205">
+        <v>40.48</v>
+      </c>
+      <c r="AR205">
+        <v>18.65</v>
+      </c>
+      <c r="AS205">
+        <v>105.65</v>
+      </c>
+      <c r="AT205">
+        <v>55.12</v>
+      </c>
+      <c r="AU205">
+        <v>143.91</v>
+      </c>
+      <c r="AV205">
+        <v>0.02</v>
+      </c>
+      <c r="AW205">
+        <v>217.75</v>
+      </c>
+      <c r="AX205">
+        <v>196.81</v>
+      </c>
+      <c r="AY205">
+        <v>11.6</v>
+      </c>
+      <c r="AZ205">
+        <v>10.9</v>
+      </c>
+      <c r="BA205">
+        <v>0.06</v>
+      </c>
+      <c r="BB205">
+        <v>4.69</v>
+      </c>
+      <c r="BC205">
+        <v>254.61</v>
+      </c>
+      <c r="BD205">
+        <v>1.92</v>
+      </c>
+      <c r="BE205">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF205">
+        <v>7.19</v>
+      </c>
+      <c r="BG205">
+        <v>127.88</v>
+      </c>
+      <c r="BH205">
+        <v>206.24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:60">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206">
+        <v>24.51</v>
+      </c>
+      <c r="C206">
+        <v>810.16</v>
+      </c>
+      <c r="D206">
+        <v>191.61</v>
+      </c>
+      <c r="E206">
+        <v>118.1</v>
+      </c>
+      <c r="F206">
+        <v>1.28</v>
+      </c>
+      <c r="G206">
+        <v>36.58</v>
+      </c>
+      <c r="H206">
+        <v>126.47</v>
+      </c>
+      <c r="I206">
+        <v>6.28</v>
+      </c>
+      <c r="J206">
+        <v>97.03</v>
+      </c>
+      <c r="K206">
+        <v>94.16</v>
+      </c>
+      <c r="L206">
+        <v>1145.91</v>
+      </c>
+      <c r="M206">
+        <v>220.63</v>
+      </c>
+      <c r="N206">
+        <v>89.36</v>
+      </c>
+      <c r="O206">
+        <v>607.13</v>
+      </c>
+      <c r="P206">
+        <v>653.99</v>
+      </c>
+      <c r="Q206">
+        <v>810.16</v>
+      </c>
+      <c r="R206">
+        <v>810.16</v>
+      </c>
+      <c r="S206">
+        <v>390.25</v>
+      </c>
+      <c r="T206">
+        <v>988</v>
+      </c>
+      <c r="U206">
+        <v>810.16</v>
+      </c>
+      <c r="V206">
+        <v>601.46</v>
+      </c>
+      <c r="W206">
+        <v>104.22</v>
+      </c>
+      <c r="X206">
+        <v>580.39</v>
+      </c>
+      <c r="Y206">
+        <v>29.08</v>
+      </c>
+      <c r="Z206">
+        <v>0.04</v>
+      </c>
+      <c r="AA206">
+        <v>940.73</v>
+      </c>
+      <c r="AB206">
+        <v>2.57</v>
+      </c>
+      <c r="AC206">
+        <v>7.9</v>
+      </c>
+      <c r="AD206">
+        <v>881.38</v>
+      </c>
+      <c r="AE206">
+        <v>0.12</v>
+      </c>
+      <c r="AF206">
+        <v>30.68</v>
+      </c>
+      <c r="AG206">
+        <v>190.23</v>
+      </c>
+      <c r="AH206">
+        <v>51.76</v>
+      </c>
+      <c r="AI206">
+        <v>1115.46</v>
+      </c>
+      <c r="AJ206">
+        <v>84.62</v>
+      </c>
+      <c r="AK206">
+        <v>204.07</v>
+      </c>
+      <c r="AL206">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="AM206">
+        <v>0.21</v>
+      </c>
+      <c r="AN206">
+        <v>33.76</v>
+      </c>
+      <c r="AO206">
+        <v>14.41</v>
+      </c>
+      <c r="AP206">
+        <v>15.98</v>
+      </c>
+      <c r="AQ206">
+        <v>40.11</v>
+      </c>
+      <c r="AR206">
+        <v>18.56</v>
+      </c>
+      <c r="AS206">
+        <v>104.87</v>
+      </c>
+      <c r="AT206">
+        <v>55.11</v>
+      </c>
+      <c r="AU206">
+        <v>145.82</v>
+      </c>
+      <c r="AV206">
+        <v>0.02</v>
+      </c>
+      <c r="AW206">
+        <v>216.04</v>
+      </c>
+      <c r="AX206">
+        <v>195.31</v>
+      </c>
+      <c r="AY206">
+        <v>11.61</v>
+      </c>
+      <c r="AZ206">
+        <v>10.79</v>
+      </c>
+      <c r="BA206">
+        <v>0.06</v>
+      </c>
+      <c r="BB206">
+        <v>4.65</v>
+      </c>
+      <c r="BC206">
+        <v>253.23</v>
+      </c>
+      <c r="BD206">
+        <v>1.91</v>
+      </c>
+      <c r="BE206">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF206">
+        <v>7.13</v>
+      </c>
+      <c r="BG206">
+        <v>126.91</v>
+      </c>
+      <c r="BH206">
+        <v>203.84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:60">
+      <c r="A207" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207">
+        <v>24.29</v>
+      </c>
+      <c r="C207">
+        <v>806.55</v>
+      </c>
+      <c r="D207">
+        <v>189.24</v>
+      </c>
+      <c r="E207">
+        <v>117.57</v>
+      </c>
+      <c r="F207">
+        <v>1.27</v>
+      </c>
+      <c r="G207">
+        <v>36.41</v>
+      </c>
+      <c r="H207">
+        <v>125.7</v>
+      </c>
+      <c r="I207">
+        <v>6.24</v>
+      </c>
+      <c r="J207">
+        <v>96.41</v>
+      </c>
+      <c r="K207">
+        <v>93.62</v>
+      </c>
+      <c r="L207">
+        <v>1141.13</v>
+      </c>
+      <c r="M207">
+        <v>219.65</v>
+      </c>
+      <c r="N207">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="O207">
+        <v>604.75</v>
+      </c>
+      <c r="P207">
+        <v>651.28</v>
+      </c>
+      <c r="Q207">
+        <v>806.55</v>
+      </c>
+      <c r="R207">
+        <v>806.55</v>
+      </c>
+      <c r="S207">
+        <v>389.07</v>
+      </c>
+      <c r="T207">
+        <v>983.6</v>
+      </c>
+      <c r="U207">
+        <v>806.55</v>
+      </c>
+      <c r="V207">
+        <v>598.55</v>
+      </c>
+      <c r="W207">
+        <v>103.73</v>
+      </c>
+      <c r="X207">
+        <v>577.26</v>
+      </c>
+      <c r="Y207">
+        <v>28.99</v>
+      </c>
+      <c r="Z207">
+        <v>0.04</v>
+      </c>
+      <c r="AA207">
+        <v>935.02</v>
+      </c>
+      <c r="AB207">
+        <v>2.57</v>
+      </c>
+      <c r="AC207">
+        <v>7.87</v>
+      </c>
+      <c r="AD207">
+        <v>876.78</v>
+      </c>
+      <c r="AE207">
+        <v>0.12</v>
+      </c>
+      <c r="AF207">
+        <v>30.53</v>
+      </c>
+      <c r="AG207">
+        <v>189.09</v>
+      </c>
+      <c r="AH207">
+        <v>51.51</v>
+      </c>
+      <c r="AI207">
+        <v>1110.03</v>
+      </c>
+      <c r="AJ207">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="AK207">
+        <v>202.04</v>
+      </c>
+      <c r="AL207">
+        <v>8.1</v>
+      </c>
+      <c r="AM207">
+        <v>0.21</v>
+      </c>
+      <c r="AN207">
+        <v>33.61</v>
+      </c>
+      <c r="AO207">
+        <v>14.33</v>
+      </c>
+      <c r="AP207">
+        <v>15.89</v>
+      </c>
+      <c r="AQ207">
+        <v>39.94</v>
+      </c>
+      <c r="AR207">
+        <v>18.56</v>
+      </c>
+      <c r="AS207">
+        <v>104.46</v>
+      </c>
+      <c r="AT207">
+        <v>54.36</v>
+      </c>
+      <c r="AU207">
+        <v>144.65</v>
+      </c>
+      <c r="AV207">
+        <v>0.02</v>
+      </c>
+      <c r="AW207">
+        <v>215.08</v>
+      </c>
+      <c r="AX207">
+        <v>194.58</v>
+      </c>
+      <c r="AY207">
+        <v>11.59</v>
+      </c>
+      <c r="AZ207">
+        <v>10.76</v>
+      </c>
+      <c r="BA207">
+        <v>0.06</v>
+      </c>
+      <c r="BB207">
+        <v>4.62</v>
+      </c>
+      <c r="BC207">
+        <v>252.2</v>
+      </c>
+      <c r="BD207">
+        <v>1.9</v>
+      </c>
+      <c r="BE207">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF207">
+        <v>7.07</v>
+      </c>
+      <c r="BG207">
+        <v>126.4</v>
+      </c>
+      <c r="BH207">
+        <v>203.13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:60">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208">
+        <v>24.2</v>
+      </c>
+      <c r="C208">
+        <v>804.3200000000001</v>
+      </c>
+      <c r="D208">
+        <v>187.76</v>
+      </c>
+      <c r="E208">
+        <v>117.25</v>
+      </c>
+      <c r="F208">
+        <v>1.27</v>
+      </c>
+      <c r="G208">
+        <v>36.34</v>
+      </c>
+      <c r="H208">
+        <v>125.53</v>
+      </c>
+      <c r="I208">
+        <v>6.23</v>
+      </c>
+      <c r="J208">
+        <v>95.8</v>
+      </c>
+      <c r="K208">
+        <v>93.91</v>
+      </c>
+      <c r="L208">
+        <v>1136.05</v>
+      </c>
+      <c r="M208">
+        <v>219.04</v>
+      </c>
+      <c r="N208">
+        <v>88.73999999999999</v>
+      </c>
+      <c r="O208">
+        <v>605.5700000000001</v>
+      </c>
+      <c r="P208">
+        <v>652.22</v>
+      </c>
+      <c r="Q208">
+        <v>804.3200000000001</v>
+      </c>
+      <c r="R208">
+        <v>804.3200000000001</v>
+      </c>
+      <c r="S208">
+        <v>388.09</v>
+      </c>
+      <c r="T208">
+        <v>980.88</v>
+      </c>
+      <c r="U208">
+        <v>804.3200000000001</v>
+      </c>
+      <c r="V208">
+        <v>596.77</v>
+      </c>
+      <c r="W208">
+        <v>103.42</v>
+      </c>
+      <c r="X208">
+        <v>577.65</v>
+      </c>
+      <c r="Y208">
+        <v>28.94</v>
+      </c>
+      <c r="Z208">
+        <v>0.04</v>
+      </c>
+      <c r="AA208">
+        <v>933.84</v>
+      </c>
+      <c r="AB208">
+        <v>2.57</v>
+      </c>
+      <c r="AC208">
+        <v>7.85</v>
+      </c>
+      <c r="AD208">
+        <v>876.9299999999999</v>
+      </c>
+      <c r="AE208">
+        <v>0.12</v>
+      </c>
+      <c r="AF208">
+        <v>30.52</v>
+      </c>
+      <c r="AG208">
+        <v>188.75</v>
+      </c>
+      <c r="AH208">
+        <v>51.36</v>
+      </c>
+      <c r="AI208">
+        <v>1106.05</v>
+      </c>
+      <c r="AJ208">
+        <v>84.7</v>
+      </c>
+      <c r="AK208">
+        <v>201.92</v>
+      </c>
+      <c r="AL208">
+        <v>8.07</v>
+      </c>
+      <c r="AM208">
+        <v>0.21</v>
+      </c>
+      <c r="AN208">
+        <v>33.51</v>
+      </c>
+      <c r="AO208">
+        <v>14.29</v>
+      </c>
+      <c r="AP208">
+        <v>15.86</v>
+      </c>
+      <c r="AQ208">
+        <v>39.76</v>
+      </c>
+      <c r="AR208">
+        <v>18.5</v>
+      </c>
+      <c r="AS208">
+        <v>104.37</v>
+      </c>
+      <c r="AT208">
+        <v>53.58</v>
+      </c>
+      <c r="AU208">
+        <v>144.29</v>
+      </c>
+      <c r="AV208">
+        <v>0.02</v>
+      </c>
+      <c r="AW208">
+        <v>214.49</v>
+      </c>
+      <c r="AX208">
+        <v>193.67</v>
+      </c>
+      <c r="AY208">
+        <v>11.43</v>
+      </c>
+      <c r="AZ208">
+        <v>10.72</v>
+      </c>
+      <c r="BA208">
+        <v>0.06</v>
+      </c>
+      <c r="BB208">
+        <v>4.65</v>
+      </c>
+      <c r="BC208">
+        <v>252.49</v>
+      </c>
+      <c r="BD208">
+        <v>1.89</v>
+      </c>
+      <c r="BE208">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF208">
+        <v>7.07</v>
+      </c>
+      <c r="BG208">
+        <v>125.88</v>
+      </c>
+      <c r="BH208">
+        <v>202.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:60">
+      <c r="A209" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209">
+        <v>24.28</v>
+      </c>
+      <c r="C209">
+        <v>805.47</v>
+      </c>
+      <c r="D209">
+        <v>186.73</v>
+      </c>
+      <c r="E209">
+        <v>117.42</v>
+      </c>
+      <c r="F209">
+        <v>1.27</v>
+      </c>
+      <c r="G209">
+        <v>36.58</v>
+      </c>
+      <c r="H209">
+        <v>126.51</v>
+      </c>
+      <c r="I209">
+        <v>6.29</v>
+      </c>
+      <c r="J209">
+        <v>96.7</v>
+      </c>
+      <c r="K209">
+        <v>94.55</v>
+      </c>
+      <c r="L209">
+        <v>1138.47</v>
+      </c>
+      <c r="M209">
+        <v>219.35</v>
+      </c>
+      <c r="N209">
+        <v>89.25</v>
+      </c>
+      <c r="O209">
+        <v>607.95</v>
+      </c>
+      <c r="P209">
+        <v>652.5700000000001</v>
+      </c>
+      <c r="Q209">
+        <v>805.47</v>
+      </c>
+      <c r="R209">
+        <v>805.47</v>
+      </c>
+      <c r="S209">
+        <v>388.97</v>
+      </c>
+      <c r="T209">
+        <v>982.28</v>
+      </c>
+      <c r="U209">
+        <v>805.47</v>
+      </c>
+      <c r="V209">
+        <v>599.26</v>
+      </c>
+      <c r="W209">
+        <v>103.57</v>
+      </c>
+      <c r="X209">
+        <v>580.1799999999999</v>
+      </c>
+      <c r="Y209">
+        <v>28.98</v>
+      </c>
+      <c r="Z209">
+        <v>0.04</v>
+      </c>
+      <c r="AA209">
+        <v>940.97</v>
+      </c>
+      <c r="AB209">
+        <v>2.61</v>
+      </c>
+      <c r="AC209">
+        <v>7.87</v>
+      </c>
+      <c r="AD209">
+        <v>883.38</v>
+      </c>
+      <c r="AE209">
+        <v>0.12</v>
+      </c>
+      <c r="AF209">
+        <v>30.6</v>
+      </c>
+      <c r="AG209">
+        <v>190.23</v>
+      </c>
+      <c r="AH209">
+        <v>51.42</v>
+      </c>
+      <c r="AI209">
+        <v>1110.99</v>
+      </c>
+      <c r="AJ209">
+        <v>84.58</v>
+      </c>
+      <c r="AK209">
+        <v>202.55</v>
+      </c>
+      <c r="AL209">
+        <v>8.08</v>
+      </c>
+      <c r="AM209">
+        <v>0.21</v>
+      </c>
+      <c r="AN209">
+        <v>33.56</v>
+      </c>
+      <c r="AO209">
+        <v>14.31</v>
+      </c>
+      <c r="AP209">
+        <v>15.89</v>
+      </c>
+      <c r="AQ209">
+        <v>39.51</v>
+      </c>
+      <c r="AR209">
+        <v>18.38</v>
+      </c>
+      <c r="AS209">
+        <v>104.18</v>
+      </c>
+      <c r="AT209">
+        <v>53.24</v>
+      </c>
+      <c r="AU209">
+        <v>143.45</v>
+      </c>
+      <c r="AV209">
+        <v>0.02</v>
+      </c>
+      <c r="AW209">
+        <v>214.79</v>
+      </c>
+      <c r="AX209">
+        <v>194.16</v>
+      </c>
+      <c r="AY209">
+        <v>11.46</v>
+      </c>
+      <c r="AZ209">
+        <v>10.75</v>
+      </c>
+      <c r="BA209">
+        <v>0.06</v>
+      </c>
+      <c r="BB209">
+        <v>4.69</v>
+      </c>
+      <c r="BC209">
+        <v>254.56</v>
+      </c>
+      <c r="BD209">
+        <v>1.88</v>
+      </c>
+      <c r="BE209">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF209">
+        <v>7.1</v>
+      </c>
+      <c r="BG209">
+        <v>126.07</v>
+      </c>
+      <c r="BH209">
+        <v>203.49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:60">
+      <c r="A210" t="s">
+        <v>268</v>
+      </c>
+      <c r="B210">
+        <v>24.32</v>
+      </c>
+      <c r="C210">
+        <v>810.91</v>
+      </c>
+      <c r="D210">
+        <v>185.26</v>
+      </c>
+      <c r="E210">
+        <v>118.21</v>
+      </c>
+      <c r="F210">
+        <v>1.27</v>
+      </c>
+      <c r="G210">
+        <v>36.54</v>
+      </c>
+      <c r="H210">
+        <v>125.97</v>
+      </c>
+      <c r="I210">
+        <v>6.25</v>
+      </c>
+      <c r="J210">
+        <v>95.97</v>
+      </c>
+      <c r="K210">
+        <v>94.42</v>
+      </c>
+      <c r="L210">
+        <v>1147.78</v>
+      </c>
+      <c r="M210">
+        <v>220.84</v>
+      </c>
+      <c r="N210">
+        <v>89.38</v>
+      </c>
+      <c r="O210">
+        <v>609.89</v>
+      </c>
+      <c r="P210">
+        <v>654.8</v>
+      </c>
+      <c r="Q210">
+        <v>810.91</v>
+      </c>
+      <c r="R210">
+        <v>810.91</v>
+      </c>
+      <c r="S210">
+        <v>392.48</v>
+      </c>
+      <c r="T210">
+        <v>988.91</v>
+      </c>
+      <c r="U210">
+        <v>810.91</v>
+      </c>
+      <c r="V210">
+        <v>601.34</v>
+      </c>
+      <c r="W210">
+        <v>104.24</v>
+      </c>
+      <c r="X210">
+        <v>580.55</v>
+      </c>
+      <c r="Y210">
+        <v>29.18</v>
+      </c>
+      <c r="Z210">
+        <v>0.04</v>
+      </c>
+      <c r="AA210">
+        <v>937.03</v>
+      </c>
+      <c r="AB210">
+        <v>2.6</v>
+      </c>
+      <c r="AC210">
+        <v>7.93</v>
+      </c>
+      <c r="AD210">
+        <v>885.76</v>
+      </c>
+      <c r="AE210">
+        <v>0.12</v>
+      </c>
+      <c r="AF210">
+        <v>30.88</v>
+      </c>
+      <c r="AG210">
+        <v>189.38</v>
+      </c>
+      <c r="AH210">
+        <v>51.77</v>
+      </c>
+      <c r="AI210">
+        <v>1110.23</v>
+      </c>
+      <c r="AJ210">
+        <v>84.41</v>
+      </c>
+      <c r="AK210">
+        <v>203.21</v>
+      </c>
+      <c r="AL210">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AM210">
+        <v>0.22</v>
+      </c>
+      <c r="AN210">
+        <v>33.79</v>
+      </c>
+      <c r="AO210">
+        <v>14.42</v>
+      </c>
+      <c r="AP210">
+        <v>16.09</v>
+      </c>
+      <c r="AQ210">
+        <v>39.36</v>
+      </c>
+      <c r="AR210">
+        <v>18.4</v>
+      </c>
+      <c r="AS210">
+        <v>105.1</v>
+      </c>
+      <c r="AT210">
+        <v>53.15</v>
+      </c>
+      <c r="AU210">
+        <v>143.79</v>
+      </c>
+      <c r="AV210">
+        <v>0.02</v>
+      </c>
+      <c r="AW210">
+        <v>216.24</v>
+      </c>
+      <c r="AX210">
+        <v>195.92</v>
+      </c>
+      <c r="AY210">
+        <v>11.43</v>
+      </c>
+      <c r="AZ210">
+        <v>10.83</v>
+      </c>
+      <c r="BA210">
+        <v>0.06</v>
+      </c>
+      <c r="BB210">
+        <v>4.75</v>
+      </c>
+      <c r="BC210">
+        <v>256.33</v>
+      </c>
+      <c r="BD210">
+        <v>1.9</v>
+      </c>
+      <c r="BE210">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF210">
+        <v>7.12</v>
+      </c>
+      <c r="BG210">
+        <v>126.54</v>
+      </c>
+      <c r="BH210">
+        <v>203.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>Serie</t>
   </si>
@@ -822,6 +822,12 @@
   <si>
     <t>02-11-2021</t>
   </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1178,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH210"/>
+  <dimension ref="A1:BH212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39404,6 +39410,370 @@
         <v>203.29</v>
       </c>
     </row>
+    <row r="211" spans="1:60">
+      <c r="A211" t="s">
+        <v>269</v>
+      </c>
+      <c r="B211">
+        <v>24.49</v>
+      </c>
+      <c r="C211">
+        <v>814.42</v>
+      </c>
+      <c r="D211">
+        <v>186.49</v>
+      </c>
+      <c r="E211">
+        <v>118.72</v>
+      </c>
+      <c r="F211">
+        <v>1.27</v>
+      </c>
+      <c r="G211">
+        <v>36.89</v>
+      </c>
+      <c r="H211">
+        <v>126.78</v>
+      </c>
+      <c r="I211">
+        <v>6.29</v>
+      </c>
+      <c r="J211">
+        <v>95.58</v>
+      </c>
+      <c r="K211">
+        <v>95.01000000000001</v>
+      </c>
+      <c r="L211">
+        <v>1150.15</v>
+      </c>
+      <c r="M211">
+        <v>221.79</v>
+      </c>
+      <c r="N211">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="O211">
+        <v>604.48</v>
+      </c>
+      <c r="P211">
+        <v>656.63</v>
+      </c>
+      <c r="Q211">
+        <v>814.42</v>
+      </c>
+      <c r="R211">
+        <v>814.42</v>
+      </c>
+      <c r="S211">
+        <v>393.44</v>
+      </c>
+      <c r="T211">
+        <v>993.2</v>
+      </c>
+      <c r="U211">
+        <v>814.42</v>
+      </c>
+      <c r="V211">
+        <v>603.5</v>
+      </c>
+      <c r="W211">
+        <v>104.66</v>
+      </c>
+      <c r="X211">
+        <v>578.09</v>
+      </c>
+      <c r="Y211">
+        <v>29.25</v>
+      </c>
+      <c r="Z211">
+        <v>0.04</v>
+      </c>
+      <c r="AA211">
+        <v>943.05</v>
+      </c>
+      <c r="AB211">
+        <v>2.63</v>
+      </c>
+      <c r="AC211">
+        <v>7.95</v>
+      </c>
+      <c r="AD211">
+        <v>890.86</v>
+      </c>
+      <c r="AE211">
+        <v>0.12</v>
+      </c>
+      <c r="AF211">
+        <v>31</v>
+      </c>
+      <c r="AG211">
+        <v>190.58</v>
+      </c>
+      <c r="AH211">
+        <v>52.01</v>
+      </c>
+      <c r="AI211">
+        <v>1108.66</v>
+      </c>
+      <c r="AJ211">
+        <v>84.97</v>
+      </c>
+      <c r="AK211">
+        <v>203.36</v>
+      </c>
+      <c r="AL211">
+        <v>8.16</v>
+      </c>
+      <c r="AM211">
+        <v>0.21</v>
+      </c>
+      <c r="AN211">
+        <v>33.93</v>
+      </c>
+      <c r="AO211">
+        <v>14.49</v>
+      </c>
+      <c r="AP211">
+        <v>16.17</v>
+      </c>
+      <c r="AQ211">
+        <v>39.25</v>
+      </c>
+      <c r="AR211">
+        <v>18.54</v>
+      </c>
+      <c r="AS211">
+        <v>105.66</v>
+      </c>
+      <c r="AT211">
+        <v>52.85</v>
+      </c>
+      <c r="AU211">
+        <v>143.3</v>
+      </c>
+      <c r="AV211">
+        <v>0.02</v>
+      </c>
+      <c r="AW211">
+        <v>217.18</v>
+      </c>
+      <c r="AX211">
+        <v>196.34</v>
+      </c>
+      <c r="AY211">
+        <v>11.37</v>
+      </c>
+      <c r="AZ211">
+        <v>10.91</v>
+      </c>
+      <c r="BA211">
+        <v>0.06</v>
+      </c>
+      <c r="BB211">
+        <v>4.8</v>
+      </c>
+      <c r="BC211">
+        <v>259.94</v>
+      </c>
+      <c r="BD211">
+        <v>1.9</v>
+      </c>
+      <c r="BE211">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF211">
+        <v>7.15</v>
+      </c>
+      <c r="BG211">
+        <v>127.21</v>
+      </c>
+      <c r="BH211">
+        <v>204.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:60">
+      <c r="A212" t="s">
+        <v>270</v>
+      </c>
+      <c r="B212">
+        <v>24.39</v>
+      </c>
+      <c r="C212">
+        <v>815.52</v>
+      </c>
+      <c r="D212">
+        <v>185.4</v>
+      </c>
+      <c r="E212">
+        <v>118.88</v>
+      </c>
+      <c r="F212">
+        <v>1.28</v>
+      </c>
+      <c r="G212">
+        <v>36.97</v>
+      </c>
+      <c r="H212">
+        <v>126.99</v>
+      </c>
+      <c r="I212">
+        <v>6.29</v>
+      </c>
+      <c r="J212">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K212">
+        <v>95.15000000000001</v>
+      </c>
+      <c r="L212">
+        <v>1151.21</v>
+      </c>
+      <c r="M212">
+        <v>222.09</v>
+      </c>
+      <c r="N212">
+        <v>89.97</v>
+      </c>
+      <c r="O212">
+        <v>604.9400000000001</v>
+      </c>
+      <c r="P212">
+        <v>656.72</v>
+      </c>
+      <c r="Q212">
+        <v>815.52</v>
+      </c>
+      <c r="R212">
+        <v>815.52</v>
+      </c>
+      <c r="S212">
+        <v>391.53</v>
+      </c>
+      <c r="T212">
+        <v>994.54</v>
+      </c>
+      <c r="U212">
+        <v>815.52</v>
+      </c>
+      <c r="V212">
+        <v>603.78</v>
+      </c>
+      <c r="W212">
+        <v>104.76</v>
+      </c>
+      <c r="X212">
+        <v>581.48</v>
+      </c>
+      <c r="Y212">
+        <v>29.28</v>
+      </c>
+      <c r="Z212">
+        <v>0.04</v>
+      </c>
+      <c r="AA212">
+        <v>944.33</v>
+      </c>
+      <c r="AB212">
+        <v>2.63</v>
+      </c>
+      <c r="AC212">
+        <v>7.96</v>
+      </c>
+      <c r="AD212">
+        <v>893.13</v>
+      </c>
+      <c r="AE212">
+        <v>0.12</v>
+      </c>
+      <c r="AF212">
+        <v>31.06</v>
+      </c>
+      <c r="AG212">
+        <v>190.88</v>
+      </c>
+      <c r="AH212">
+        <v>52.1</v>
+      </c>
+      <c r="AI212">
+        <v>1113.95</v>
+      </c>
+      <c r="AJ212">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="AK212">
+        <v>203.3</v>
+      </c>
+      <c r="AL212">
+        <v>8.16</v>
+      </c>
+      <c r="AM212">
+        <v>0.21</v>
+      </c>
+      <c r="AN212">
+        <v>33.98</v>
+      </c>
+      <c r="AO212">
+        <v>14.48</v>
+      </c>
+      <c r="AP212">
+        <v>16.13</v>
+      </c>
+      <c r="AQ212">
+        <v>39.19</v>
+      </c>
+      <c r="AR212">
+        <v>18.49</v>
+      </c>
+      <c r="AS212">
+        <v>105.52</v>
+      </c>
+      <c r="AT212">
+        <v>52.79</v>
+      </c>
+      <c r="AU212">
+        <v>145.2</v>
+      </c>
+      <c r="AV212">
+        <v>0.02</v>
+      </c>
+      <c r="AW212">
+        <v>217.47</v>
+      </c>
+      <c r="AX212">
+        <v>196.37</v>
+      </c>
+      <c r="AY212">
+        <v>11.3</v>
+      </c>
+      <c r="AZ212">
+        <v>10.95</v>
+      </c>
+      <c r="BA212">
+        <v>0.06</v>
+      </c>
+      <c r="BB212">
+        <v>4.81</v>
+      </c>
+      <c r="BC212">
+        <v>261.49</v>
+      </c>
+      <c r="BD212">
+        <v>1.9</v>
+      </c>
+      <c r="BE212">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF212">
+        <v>7.15</v>
+      </c>
+      <c r="BG212">
+        <v>127.35</v>
+      </c>
+      <c r="BH212">
+        <v>205.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>Serie</t>
   </si>
@@ -828,6 +828,9 @@
   <si>
     <t>04-11-2021</t>
   </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1184,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH212"/>
+  <dimension ref="A1:BH213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39774,6 +39777,188 @@
         <v>205.65</v>
       </c>
     </row>
+    <row r="213" spans="1:60">
+      <c r="A213" t="s">
+        <v>271</v>
+      </c>
+      <c r="B213">
+        <v>24.47</v>
+      </c>
+      <c r="C213">
+        <v>815.58</v>
+      </c>
+      <c r="D213">
+        <v>184.2</v>
+      </c>
+      <c r="E213">
+        <v>118.89</v>
+      </c>
+      <c r="F213">
+        <v>1.28</v>
+      </c>
+      <c r="G213">
+        <v>37.17</v>
+      </c>
+      <c r="H213">
+        <v>126.63</v>
+      </c>
+      <c r="I213">
+        <v>6.27</v>
+      </c>
+      <c r="J213">
+        <v>95.25</v>
+      </c>
+      <c r="K213">
+        <v>94.88</v>
+      </c>
+      <c r="L213">
+        <v>1149.51</v>
+      </c>
+      <c r="M213">
+        <v>222.11</v>
+      </c>
+      <c r="N213">
+        <v>89.75</v>
+      </c>
+      <c r="O213">
+        <v>603.11</v>
+      </c>
+      <c r="P213">
+        <v>654.51</v>
+      </c>
+      <c r="Q213">
+        <v>815.58</v>
+      </c>
+      <c r="R213">
+        <v>815.58</v>
+      </c>
+      <c r="S213">
+        <v>391.56</v>
+      </c>
+      <c r="T213">
+        <v>994.61</v>
+      </c>
+      <c r="U213">
+        <v>815.58</v>
+      </c>
+      <c r="V213">
+        <v>603.55</v>
+      </c>
+      <c r="W213">
+        <v>104.78</v>
+      </c>
+      <c r="X213">
+        <v>579.37</v>
+      </c>
+      <c r="Y213">
+        <v>29.27</v>
+      </c>
+      <c r="Z213">
+        <v>0.04</v>
+      </c>
+      <c r="AA213">
+        <v>941.78</v>
+      </c>
+      <c r="AB213">
+        <v>2.62</v>
+      </c>
+      <c r="AC213">
+        <v>7.97</v>
+      </c>
+      <c r="AD213">
+        <v>893.79</v>
+      </c>
+      <c r="AE213">
+        <v>0.12</v>
+      </c>
+      <c r="AF213">
+        <v>31.16</v>
+      </c>
+      <c r="AG213">
+        <v>190.32</v>
+      </c>
+      <c r="AH213">
+        <v>51.92</v>
+      </c>
+      <c r="AI213">
+        <v>1100.35</v>
+      </c>
+      <c r="AJ213">
+        <v>84.18000000000001</v>
+      </c>
+      <c r="AK213">
+        <v>203.41</v>
+      </c>
+      <c r="AL213">
+        <v>8.16</v>
+      </c>
+      <c r="AM213">
+        <v>0.21</v>
+      </c>
+      <c r="AN213">
+        <v>33.98</v>
+      </c>
+      <c r="AO213">
+        <v>14.48</v>
+      </c>
+      <c r="AP213">
+        <v>16.11</v>
+      </c>
+      <c r="AQ213">
+        <v>39.57</v>
+      </c>
+      <c r="AR213">
+        <v>18.58</v>
+      </c>
+      <c r="AS213">
+        <v>105.55</v>
+      </c>
+      <c r="AT213">
+        <v>53.43</v>
+      </c>
+      <c r="AU213">
+        <v>145.37</v>
+      </c>
+      <c r="AV213">
+        <v>0.02</v>
+      </c>
+      <c r="AW213">
+        <v>217.49</v>
+      </c>
+      <c r="AX213">
+        <v>196.38</v>
+      </c>
+      <c r="AY213">
+        <v>11.42</v>
+      </c>
+      <c r="AZ213">
+        <v>10.95</v>
+      </c>
+      <c r="BA213">
+        <v>0.06</v>
+      </c>
+      <c r="BB213">
+        <v>4.81</v>
+      </c>
+      <c r="BC213">
+        <v>261.93</v>
+      </c>
+      <c r="BD213">
+        <v>1.9</v>
+      </c>
+      <c r="BE213">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF213">
+        <v>7.17</v>
+      </c>
+      <c r="BG213">
+        <v>127.47</v>
+      </c>
+      <c r="BH213">
+        <v>204.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>Serie</t>
   </si>
@@ -831,6 +831,9 @@
   <si>
     <t>05-11-2021</t>
   </si>
+  <si>
+    <t>08-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1187,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH213"/>
+  <dimension ref="A1:BH214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39959,6 +39962,188 @@
         <v>204.77</v>
       </c>
     </row>
+    <row r="214" spans="1:60">
+      <c r="A214" t="s">
+        <v>272</v>
+      </c>
+      <c r="B214">
+        <v>24.48</v>
+      </c>
+      <c r="C214">
+        <v>812.4</v>
+      </c>
+      <c r="D214">
+        <v>184.12</v>
+      </c>
+      <c r="E214">
+        <v>118.43</v>
+      </c>
+      <c r="F214">
+        <v>1.27</v>
+      </c>
+      <c r="G214">
+        <v>37.21</v>
+      </c>
+      <c r="H214">
+        <v>126.29</v>
+      </c>
+      <c r="I214">
+        <v>6.26</v>
+      </c>
+      <c r="J214">
+        <v>94.84</v>
+      </c>
+      <c r="K214">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="L214">
+        <v>1143.42</v>
+      </c>
+      <c r="M214">
+        <v>221.24</v>
+      </c>
+      <c r="N214">
+        <v>89.62</v>
+      </c>
+      <c r="O214">
+        <v>601.02</v>
+      </c>
+      <c r="P214">
+        <v>652.6900000000001</v>
+      </c>
+      <c r="Q214">
+        <v>812.4</v>
+      </c>
+      <c r="R214">
+        <v>812.4</v>
+      </c>
+      <c r="S214">
+        <v>389.47</v>
+      </c>
+      <c r="T214">
+        <v>990.73</v>
+      </c>
+      <c r="U214">
+        <v>812.4</v>
+      </c>
+      <c r="V214">
+        <v>601.6900000000001</v>
+      </c>
+      <c r="W214">
+        <v>104.36</v>
+      </c>
+      <c r="X214">
+        <v>577.9299999999999</v>
+      </c>
+      <c r="Y214">
+        <v>29.15</v>
+      </c>
+      <c r="Z214">
+        <v>0.04</v>
+      </c>
+      <c r="AA214">
+        <v>939.1900000000001</v>
+      </c>
+      <c r="AB214">
+        <v>2.62</v>
+      </c>
+      <c r="AC214">
+        <v>7.9</v>
+      </c>
+      <c r="AD214">
+        <v>890.79</v>
+      </c>
+      <c r="AE214">
+        <v>0.12</v>
+      </c>
+      <c r="AF214">
+        <v>31.14</v>
+      </c>
+      <c r="AG214">
+        <v>189.84</v>
+      </c>
+      <c r="AH214">
+        <v>51.93</v>
+      </c>
+      <c r="AI214">
+        <v>1096.06</v>
+      </c>
+      <c r="AJ214">
+        <v>83.81</v>
+      </c>
+      <c r="AK214">
+        <v>202.32</v>
+      </c>
+      <c r="AL214">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AM214">
+        <v>0.21</v>
+      </c>
+      <c r="AN214">
+        <v>33.85</v>
+      </c>
+      <c r="AO214">
+        <v>14.41</v>
+      </c>
+      <c r="AP214">
+        <v>16.14</v>
+      </c>
+      <c r="AQ214">
+        <v>39.92</v>
+      </c>
+      <c r="AR214">
+        <v>18.63</v>
+      </c>
+      <c r="AS214">
+        <v>105.1</v>
+      </c>
+      <c r="AT214">
+        <v>53.76</v>
+      </c>
+      <c r="AU214">
+        <v>147.01</v>
+      </c>
+      <c r="AV214">
+        <v>0.02</v>
+      </c>
+      <c r="AW214">
+        <v>216.64</v>
+      </c>
+      <c r="AX214">
+        <v>195.36</v>
+      </c>
+      <c r="AY214">
+        <v>11.4</v>
+      </c>
+      <c r="AZ214">
+        <v>10.91</v>
+      </c>
+      <c r="BA214">
+        <v>0.06</v>
+      </c>
+      <c r="BB214">
+        <v>4.79</v>
+      </c>
+      <c r="BC214">
+        <v>261.33</v>
+      </c>
+      <c r="BD214">
+        <v>1.89</v>
+      </c>
+      <c r="BE214">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF214">
+        <v>7.17</v>
+      </c>
+      <c r="BG214">
+        <v>127.02</v>
+      </c>
+      <c r="BH214">
+        <v>204.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>Serie</t>
   </si>
@@ -834,6 +834,9 @@
   <si>
     <t>08-11-2021</t>
   </si>
+  <si>
+    <t>09-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1190,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH214"/>
+  <dimension ref="A1:BH215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40144,6 +40147,188 @@
         <v>204.26</v>
       </c>
     </row>
+    <row r="215" spans="1:60">
+      <c r="A215" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215">
+        <v>24.5</v>
+      </c>
+      <c r="C215">
+        <v>806.61</v>
+      </c>
+      <c r="D215">
+        <v>181.92</v>
+      </c>
+      <c r="E215">
+        <v>117.58</v>
+      </c>
+      <c r="F215">
+        <v>1.26</v>
+      </c>
+      <c r="G215">
+        <v>37.02</v>
+      </c>
+      <c r="H215">
+        <v>125.69</v>
+      </c>
+      <c r="I215">
+        <v>6.22</v>
+      </c>
+      <c r="J215">
+        <v>94.83</v>
+      </c>
+      <c r="K215">
+        <v>94.06</v>
+      </c>
+      <c r="L215">
+        <v>1137.51</v>
+      </c>
+      <c r="M215">
+        <v>219.67</v>
+      </c>
+      <c r="N215">
+        <v>89.20999999999999</v>
+      </c>
+      <c r="O215">
+        <v>598.8200000000001</v>
+      </c>
+      <c r="P215">
+        <v>647.9299999999999</v>
+      </c>
+      <c r="Q215">
+        <v>806.61</v>
+      </c>
+      <c r="R215">
+        <v>806.61</v>
+      </c>
+      <c r="S215">
+        <v>386.77</v>
+      </c>
+      <c r="T215">
+        <v>983.67</v>
+      </c>
+      <c r="U215">
+        <v>806.61</v>
+      </c>
+      <c r="V215">
+        <v>598.78</v>
+      </c>
+      <c r="W215">
+        <v>103.56</v>
+      </c>
+      <c r="X215">
+        <v>578.34</v>
+      </c>
+      <c r="Y215">
+        <v>28.99</v>
+      </c>
+      <c r="Z215">
+        <v>0.04</v>
+      </c>
+      <c r="AA215">
+        <v>934.87</v>
+      </c>
+      <c r="AB215">
+        <v>2.59</v>
+      </c>
+      <c r="AC215">
+        <v>7.86</v>
+      </c>
+      <c r="AD215">
+        <v>883.38</v>
+      </c>
+      <c r="AE215">
+        <v>0.12</v>
+      </c>
+      <c r="AF215">
+        <v>30.93</v>
+      </c>
+      <c r="AG215">
+        <v>188.99</v>
+      </c>
+      <c r="AH215">
+        <v>51.48</v>
+      </c>
+      <c r="AI215">
+        <v>1094.01</v>
+      </c>
+      <c r="AJ215">
+        <v>83.38</v>
+      </c>
+      <c r="AK215">
+        <v>200.95</v>
+      </c>
+      <c r="AL215">
+        <v>8.06</v>
+      </c>
+      <c r="AM215">
+        <v>0.21</v>
+      </c>
+      <c r="AN215">
+        <v>33.61</v>
+      </c>
+      <c r="AO215">
+        <v>14.31</v>
+      </c>
+      <c r="AP215">
+        <v>16.08</v>
+      </c>
+      <c r="AQ215">
+        <v>39.7</v>
+      </c>
+      <c r="AR215">
+        <v>18.57</v>
+      </c>
+      <c r="AS215">
+        <v>104.41</v>
+      </c>
+      <c r="AT215">
+        <v>54.1</v>
+      </c>
+      <c r="AU215">
+        <v>145.48</v>
+      </c>
+      <c r="AV215">
+        <v>0.02</v>
+      </c>
+      <c r="AW215">
+        <v>215.1</v>
+      </c>
+      <c r="AX215">
+        <v>194.22</v>
+      </c>
+      <c r="AY215">
+        <v>11.33</v>
+      </c>
+      <c r="AZ215">
+        <v>10.9</v>
+      </c>
+      <c r="BA215">
+        <v>0.06</v>
+      </c>
+      <c r="BB215">
+        <v>4.75</v>
+      </c>
+      <c r="BC215">
+        <v>259.28</v>
+      </c>
+      <c r="BD215">
+        <v>1.88</v>
+      </c>
+      <c r="BE215">
+        <v>0.68</v>
+      </c>
+      <c r="BF215">
+        <v>7.13</v>
+      </c>
+      <c r="BG215">
+        <v>126.28</v>
+      </c>
+      <c r="BH215">
+        <v>203.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de cambio nominal 2021 - Diaria.xlsx
+++ b/4/Tipo de cambio nominal 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>Serie</t>
   </si>
@@ -837,6 +837,9 @@
   <si>
     <t>09-11-2021</t>
   </si>
+  <si>
+    <t>10-11-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1193,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH215"/>
+  <dimension ref="A1:BH216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40329,6 +40332,188 @@
         <v>203.81</v>
       </c>
     </row>
+    <row r="216" spans="1:60">
+      <c r="A216" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216">
+        <v>24.35</v>
+      </c>
+      <c r="C216">
+        <v>797.78</v>
+      </c>
+      <c r="D216">
+        <v>180.22</v>
+      </c>
+      <c r="E216">
+        <v>116.29</v>
+      </c>
+      <c r="F216">
+        <v>1.24</v>
+      </c>
+      <c r="G216">
+        <v>36.65</v>
+      </c>
+      <c r="H216">
+        <v>124.31</v>
+      </c>
+      <c r="I216">
+        <v>6.15</v>
+      </c>
+      <c r="J216">
+        <v>93.67</v>
+      </c>
+      <c r="K216">
+        <v>93.14</v>
+      </c>
+      <c r="L216">
+        <v>1126.17</v>
+      </c>
+      <c r="M216">
+        <v>217.26</v>
+      </c>
+      <c r="N216">
+        <v>88.12</v>
+      </c>
+      <c r="O216">
+        <v>588.03</v>
+      </c>
+      <c r="P216">
+        <v>641.1</v>
+      </c>
+      <c r="Q216">
+        <v>797.78</v>
+      </c>
+      <c r="R216">
+        <v>797.78</v>
+      </c>
+      <c r="S216">
+        <v>383.66</v>
+      </c>
+      <c r="T216">
+        <v>972.9</v>
+      </c>
+      <c r="U216">
+        <v>797.78</v>
+      </c>
+      <c r="V216">
+        <v>592.04</v>
+      </c>
+      <c r="W216">
+        <v>102.41</v>
+      </c>
+      <c r="X216">
+        <v>568.1799999999999</v>
+      </c>
+      <c r="Y216">
+        <v>28.75</v>
+      </c>
+      <c r="Z216">
+        <v>0.04</v>
+      </c>
+      <c r="AA216">
+        <v>924.53</v>
+      </c>
+      <c r="AB216">
+        <v>2.56</v>
+      </c>
+      <c r="AC216">
+        <v>7.78</v>
+      </c>
+      <c r="AD216">
+        <v>875.33</v>
+      </c>
+      <c r="AE216">
+        <v>0.12</v>
+      </c>
+      <c r="AF216">
+        <v>30.6</v>
+      </c>
+      <c r="AG216">
+        <v>186.9</v>
+      </c>
+      <c r="AH216">
+        <v>50.89</v>
+      </c>
+      <c r="AI216">
+        <v>1081.59</v>
+      </c>
+      <c r="AJ216">
+        <v>82.05</v>
+      </c>
+      <c r="AK216">
+        <v>198.63</v>
+      </c>
+      <c r="AL216">
+        <v>7.97</v>
+      </c>
+      <c r="AM216">
+        <v>0.21</v>
+      </c>
+      <c r="AN216">
+        <v>33.24</v>
+      </c>
+      <c r="AO216">
+        <v>14.16</v>
+      </c>
+      <c r="AP216">
+        <v>15.92</v>
+      </c>
+      <c r="AQ216">
+        <v>39.26</v>
+      </c>
+      <c r="AR216">
+        <v>18.35</v>
+      </c>
+      <c r="AS216">
+        <v>103.56</v>
+      </c>
+      <c r="AT216">
+        <v>52.95</v>
+      </c>
+      <c r="AU216">
+        <v>145.22</v>
+      </c>
+      <c r="AV216">
+        <v>0.02</v>
+      </c>
+      <c r="AW216">
+        <v>212.74</v>
+      </c>
+      <c r="AX216">
+        <v>192.33</v>
+      </c>
+      <c r="AY216">
+        <v>11.25</v>
+      </c>
+      <c r="AZ216">
+        <v>10.78</v>
+      </c>
+      <c r="BA216">
+        <v>0.06</v>
+      </c>
+      <c r="BB216">
+        <v>4.67</v>
+      </c>
+      <c r="BC216">
+        <v>256.81</v>
+      </c>
+      <c r="BD216">
+        <v>1.86</v>
+      </c>
+      <c r="BE216">
+        <v>0.68</v>
+      </c>
+      <c r="BF216">
+        <v>7.07</v>
+      </c>
+      <c r="BG216">
+        <v>124.8</v>
+      </c>
+      <c r="BH216">
+        <v>201.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
